--- a/app.territoiresentransitions.react/public/export_plan_action.xlsx
+++ b/app.territoiresentransitions.react/public/export_plan_action.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Présentation de l’action</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Calendrier</t>
+  </si>
+  <si>
+    <t>Fiches des plans liées</t>
   </si>
   <si>
     <t>Notes complémentaires</t>
@@ -544,7 +547,7 @@
     <col customWidth="1" min="28" max="28" width="16.38"/>
     <col customWidth="1" min="29" max="29" width="16.75"/>
     <col customWidth="1" min="30" max="31" width="25.0"/>
-    <col customWidth="1" min="32" max="34" width="43.0"/>
+    <col customWidth="1" min="32" max="35" width="43.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
@@ -590,8 +593,9 @@
       <c r="AF1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="7"/>
+      <c r="AG1" s="6"/>
       <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
     </row>
     <row r="2" ht="36.0" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -696,6 +700,9 @@
       <c r="AH2" s="10" t="s">
         <v>35</v>
       </c>
+      <c r="AI2" s="10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="11"/>
@@ -732,6 +739,7 @@
       <c r="AF3" s="11"/>
       <c r="AG3" s="11"/>
       <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
     </row>
     <row r="4" ht="19.5" customHeight="1">
       <c r="A4" s="14"/>
@@ -768,6 +776,7 @@
       <c r="AF4" s="14"/>
       <c r="AG4" s="14"/>
       <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
     </row>
     <row r="5" ht="19.5" customHeight="1">
       <c r="A5" s="14"/>
@@ -804,6 +813,7 @@
       <c r="AF5" s="14"/>
       <c r="AG5" s="14"/>
       <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="14"/>
@@ -840,6 +850,7 @@
       <c r="AF6" s="14"/>
       <c r="AG6" s="14"/>
       <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
     </row>
     <row r="7" ht="19.5" customHeight="1">
       <c r="A7" s="14"/>
@@ -876,6 +887,7 @@
       <c r="AF7" s="14"/>
       <c r="AG7" s="14"/>
       <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="14"/>
@@ -912,6 +924,7 @@
       <c r="AF8" s="14"/>
       <c r="AG8" s="14"/>
       <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
       <c r="A9" s="14"/>
@@ -948,6 +961,7 @@
       <c r="AF9" s="14"/>
       <c r="AG9" s="14"/>
       <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14"/>
@@ -984,6 +998,7 @@
       <c r="AF10" s="14"/>
       <c r="AG10" s="14"/>
       <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
       <c r="A11" s="14"/>
@@ -1020,6 +1035,7 @@
       <c r="AF11" s="14"/>
       <c r="AG11" s="14"/>
       <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14"/>
@@ -1056,6 +1072,7 @@
       <c r="AF12" s="14"/>
       <c r="AG12" s="14"/>
       <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="14"/>
@@ -1092,6 +1109,7 @@
       <c r="AF13" s="14"/>
       <c r="AG13" s="14"/>
       <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="14"/>
@@ -1128,6 +1146,7 @@
       <c r="AF14" s="14"/>
       <c r="AG14" s="14"/>
       <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
     </row>
     <row r="15" ht="19.5" customHeight="1">
       <c r="A15" s="14"/>
@@ -1164,6 +1183,7 @@
       <c r="AF15" s="14"/>
       <c r="AG15" s="14"/>
       <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14"/>
@@ -1200,6 +1220,7 @@
       <c r="AF16" s="14"/>
       <c r="AG16" s="14"/>
       <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
       <c r="A17" s="14"/>
@@ -1236,6 +1257,7 @@
       <c r="AF17" s="14"/>
       <c r="AG17" s="14"/>
       <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14"/>
@@ -1272,6 +1294,7 @@
       <c r="AF18" s="14"/>
       <c r="AG18" s="14"/>
       <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
     </row>
     <row r="19" ht="19.5" customHeight="1">
       <c r="A19" s="14"/>
@@ -1308,6 +1331,7 @@
       <c r="AF19" s="14"/>
       <c r="AG19" s="14"/>
       <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14"/>
@@ -1344,6 +1368,7 @@
       <c r="AF20" s="14"/>
       <c r="AG20" s="14"/>
       <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
     </row>
     <row r="21" ht="19.5" customHeight="1">
       <c r="A21" s="14"/>
@@ -1380,6 +1405,7 @@
       <c r="AF21" s="14"/>
       <c r="AG21" s="14"/>
       <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="17"/>
@@ -1416,6 +1442,7 @@
       <c r="AF22" s="17"/>
       <c r="AG22" s="17"/>
       <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
     </row>
     <row r="23" ht="19.5" customHeight="1">
       <c r="A23" s="17"/>
@@ -1452,6 +1479,7 @@
       <c r="AF23" s="17"/>
       <c r="AG23" s="17"/>
       <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
     </row>
     <row r="24" ht="19.5" customHeight="1">
       <c r="A24" s="17"/>
@@ -1488,6 +1516,7 @@
       <c r="AF24" s="17"/>
       <c r="AG24" s="17"/>
       <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
     </row>
     <row r="25" ht="19.5" customHeight="1">
       <c r="A25" s="17"/>
@@ -1524,6 +1553,7 @@
       <c r="AF25" s="17"/>
       <c r="AG25" s="17"/>
       <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
     </row>
     <row r="26" ht="19.5" customHeight="1">
       <c r="A26" s="17"/>
@@ -1560,6 +1590,7 @@
       <c r="AF26" s="17"/>
       <c r="AG26" s="17"/>
       <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
     </row>
     <row r="27" ht="19.5" customHeight="1">
       <c r="A27" s="17"/>
@@ -1596,6 +1627,7 @@
       <c r="AF27" s="17"/>
       <c r="AG27" s="17"/>
       <c r="AH27" s="17"/>
+      <c r="AI27" s="17"/>
     </row>
     <row r="28" ht="19.5" customHeight="1">
       <c r="A28" s="17"/>
@@ -1632,6 +1664,7 @@
       <c r="AF28" s="17"/>
       <c r="AG28" s="17"/>
       <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
     </row>
     <row r="29" ht="19.5" customHeight="1">
       <c r="A29" s="17"/>
@@ -1668,6 +1701,7 @@
       <c r="AF29" s="17"/>
       <c r="AG29" s="17"/>
       <c r="AH29" s="17"/>
+      <c r="AI29" s="17"/>
     </row>
     <row r="30" ht="19.5" customHeight="1">
       <c r="A30" s="17"/>
@@ -1704,6 +1738,7 @@
       <c r="AF30" s="17"/>
       <c r="AG30" s="17"/>
       <c r="AH30" s="17"/>
+      <c r="AI30" s="17"/>
     </row>
     <row r="31" ht="19.5" customHeight="1">
       <c r="A31" s="17"/>
@@ -1740,6 +1775,7 @@
       <c r="AF31" s="17"/>
       <c r="AG31" s="17"/>
       <c r="AH31" s="17"/>
+      <c r="AI31" s="17"/>
     </row>
     <row r="32" ht="19.5" customHeight="1">
       <c r="A32" s="17"/>
@@ -1776,6 +1812,7 @@
       <c r="AF32" s="17"/>
       <c r="AG32" s="17"/>
       <c r="AH32" s="17"/>
+      <c r="AI32" s="17"/>
     </row>
     <row r="33" ht="19.5" customHeight="1">
       <c r="A33" s="17"/>
@@ -1812,6 +1849,7 @@
       <c r="AF33" s="17"/>
       <c r="AG33" s="17"/>
       <c r="AH33" s="17"/>
+      <c r="AI33" s="17"/>
     </row>
     <row r="34" ht="19.5" customHeight="1">
       <c r="A34" s="17"/>
@@ -1848,6 +1886,7 @@
       <c r="AF34" s="17"/>
       <c r="AG34" s="17"/>
       <c r="AH34" s="17"/>
+      <c r="AI34" s="17"/>
     </row>
     <row r="35" ht="19.5" customHeight="1">
       <c r="A35" s="17"/>
@@ -1884,6 +1923,7 @@
       <c r="AF35" s="17"/>
       <c r="AG35" s="17"/>
       <c r="AH35" s="17"/>
+      <c r="AI35" s="17"/>
     </row>
     <row r="36" ht="19.5" customHeight="1">
       <c r="A36" s="17"/>
@@ -1920,6 +1960,7 @@
       <c r="AF36" s="17"/>
       <c r="AG36" s="17"/>
       <c r="AH36" s="17"/>
+      <c r="AI36" s="17"/>
     </row>
     <row r="37" ht="19.5" customHeight="1">
       <c r="A37" s="17"/>
@@ -1956,6 +1997,7 @@
       <c r="AF37" s="17"/>
       <c r="AG37" s="17"/>
       <c r="AH37" s="17"/>
+      <c r="AI37" s="17"/>
     </row>
     <row r="38" ht="19.5" customHeight="1">
       <c r="A38" s="17"/>
@@ -1992,6 +2034,7 @@
       <c r="AF38" s="17"/>
       <c r="AG38" s="17"/>
       <c r="AH38" s="17"/>
+      <c r="AI38" s="17"/>
     </row>
     <row r="39" ht="19.5" customHeight="1">
       <c r="A39" s="17"/>
@@ -2028,6 +2071,7 @@
       <c r="AF39" s="17"/>
       <c r="AG39" s="17"/>
       <c r="AH39" s="17"/>
+      <c r="AI39" s="17"/>
     </row>
     <row r="40" ht="19.5" customHeight="1">
       <c r="A40" s="17"/>
@@ -2064,6 +2108,7 @@
       <c r="AF40" s="17"/>
       <c r="AG40" s="17"/>
       <c r="AH40" s="17"/>
+      <c r="AI40" s="17"/>
     </row>
     <row r="41" ht="19.5" customHeight="1">
       <c r="A41" s="17"/>
@@ -2100,6 +2145,7 @@
       <c r="AF41" s="17"/>
       <c r="AG41" s="17"/>
       <c r="AH41" s="17"/>
+      <c r="AI41" s="17"/>
     </row>
     <row r="42" ht="19.5" customHeight="1">
       <c r="A42" s="17"/>
@@ -2136,6 +2182,7 @@
       <c r="AF42" s="17"/>
       <c r="AG42" s="17"/>
       <c r="AH42" s="17"/>
+      <c r="AI42" s="17"/>
     </row>
     <row r="43" ht="19.5" customHeight="1">
       <c r="A43" s="17"/>
@@ -2172,6 +2219,7 @@
       <c r="AF43" s="17"/>
       <c r="AG43" s="17"/>
       <c r="AH43" s="17"/>
+      <c r="AI43" s="17"/>
     </row>
     <row r="44" ht="19.5" customHeight="1">
       <c r="A44" s="17"/>
@@ -2208,6 +2256,7 @@
       <c r="AF44" s="17"/>
       <c r="AG44" s="17"/>
       <c r="AH44" s="17"/>
+      <c r="AI44" s="17"/>
     </row>
     <row r="45" ht="19.5" customHeight="1">
       <c r="A45" s="17"/>
@@ -2244,6 +2293,7 @@
       <c r="AF45" s="17"/>
       <c r="AG45" s="17"/>
       <c r="AH45" s="17"/>
+      <c r="AI45" s="17"/>
     </row>
     <row r="46" ht="19.5" customHeight="1">
       <c r="A46" s="17"/>
@@ -2280,6 +2330,7 @@
       <c r="AF46" s="17"/>
       <c r="AG46" s="17"/>
       <c r="AH46" s="17"/>
+      <c r="AI46" s="17"/>
     </row>
     <row r="47" ht="19.5" customHeight="1">
       <c r="A47" s="17"/>
@@ -2316,6 +2367,7 @@
       <c r="AF47" s="17"/>
       <c r="AG47" s="17"/>
       <c r="AH47" s="17"/>
+      <c r="AI47" s="17"/>
     </row>
     <row r="48" ht="19.5" customHeight="1">
       <c r="A48" s="17"/>
@@ -2352,6 +2404,7 @@
       <c r="AF48" s="17"/>
       <c r="AG48" s="17"/>
       <c r="AH48" s="17"/>
+      <c r="AI48" s="17"/>
     </row>
     <row r="49" ht="19.5" customHeight="1">
       <c r="A49" s="17"/>
@@ -2388,6 +2441,7 @@
       <c r="AF49" s="17"/>
       <c r="AG49" s="17"/>
       <c r="AH49" s="17"/>
+      <c r="AI49" s="17"/>
     </row>
     <row r="50" ht="19.5" customHeight="1">
       <c r="A50" s="17"/>
@@ -2424,6 +2478,7 @@
       <c r="AF50" s="17"/>
       <c r="AG50" s="17"/>
       <c r="AH50" s="17"/>
+      <c r="AI50" s="17"/>
     </row>
     <row r="51" ht="19.5" customHeight="1">
       <c r="A51" s="17"/>
@@ -2460,6 +2515,7 @@
       <c r="AF51" s="17"/>
       <c r="AG51" s="17"/>
       <c r="AH51" s="17"/>
+      <c r="AI51" s="17"/>
     </row>
     <row r="52" ht="19.5" customHeight="1">
       <c r="A52" s="17"/>
@@ -2496,6 +2552,7 @@
       <c r="AF52" s="17"/>
       <c r="AG52" s="17"/>
       <c r="AH52" s="17"/>
+      <c r="AI52" s="17"/>
     </row>
     <row r="53" ht="19.5" customHeight="1">
       <c r="A53" s="17"/>
@@ -2532,6 +2589,7 @@
       <c r="AF53" s="17"/>
       <c r="AG53" s="17"/>
       <c r="AH53" s="17"/>
+      <c r="AI53" s="17"/>
     </row>
     <row r="54" ht="19.5" customHeight="1">
       <c r="A54" s="17"/>
@@ -2568,6 +2626,7 @@
       <c r="AF54" s="17"/>
       <c r="AG54" s="17"/>
       <c r="AH54" s="17"/>
+      <c r="AI54" s="17"/>
     </row>
     <row r="55" ht="19.5" customHeight="1">
       <c r="A55" s="17"/>
@@ -2604,6 +2663,7 @@
       <c r="AF55" s="17"/>
       <c r="AG55" s="17"/>
       <c r="AH55" s="17"/>
+      <c r="AI55" s="17"/>
     </row>
     <row r="56" ht="19.5" customHeight="1">
       <c r="A56" s="17"/>
@@ -2640,6 +2700,7 @@
       <c r="AF56" s="17"/>
       <c r="AG56" s="17"/>
       <c r="AH56" s="17"/>
+      <c r="AI56" s="17"/>
     </row>
     <row r="57" ht="19.5" customHeight="1">
       <c r="A57" s="17"/>
@@ -2676,6 +2737,7 @@
       <c r="AF57" s="17"/>
       <c r="AG57" s="17"/>
       <c r="AH57" s="17"/>
+      <c r="AI57" s="17"/>
     </row>
     <row r="58" ht="19.5" customHeight="1">
       <c r="A58" s="17"/>
@@ -2712,6 +2774,7 @@
       <c r="AF58" s="17"/>
       <c r="AG58" s="17"/>
       <c r="AH58" s="17"/>
+      <c r="AI58" s="17"/>
     </row>
     <row r="59" ht="19.5" customHeight="1">
       <c r="A59" s="17"/>
@@ -2748,6 +2811,7 @@
       <c r="AF59" s="17"/>
       <c r="AG59" s="17"/>
       <c r="AH59" s="17"/>
+      <c r="AI59" s="17"/>
     </row>
     <row r="60" ht="19.5" customHeight="1">
       <c r="A60" s="17"/>
@@ -2784,6 +2848,7 @@
       <c r="AF60" s="17"/>
       <c r="AG60" s="17"/>
       <c r="AH60" s="17"/>
+      <c r="AI60" s="17"/>
     </row>
     <row r="61" ht="19.5" customHeight="1">
       <c r="A61" s="17"/>
@@ -2820,6 +2885,7 @@
       <c r="AF61" s="17"/>
       <c r="AG61" s="17"/>
       <c r="AH61" s="17"/>
+      <c r="AI61" s="17"/>
     </row>
     <row r="62" ht="19.5" customHeight="1">
       <c r="A62" s="17"/>
@@ -2856,6 +2922,7 @@
       <c r="AF62" s="17"/>
       <c r="AG62" s="17"/>
       <c r="AH62" s="17"/>
+      <c r="AI62" s="17"/>
     </row>
     <row r="63" ht="19.5" customHeight="1">
       <c r="A63" s="17"/>
@@ -2892,6 +2959,7 @@
       <c r="AF63" s="17"/>
       <c r="AG63" s="17"/>
       <c r="AH63" s="17"/>
+      <c r="AI63" s="17"/>
     </row>
     <row r="64" ht="19.5" customHeight="1">
       <c r="A64" s="17"/>
@@ -2928,6 +2996,7 @@
       <c r="AF64" s="17"/>
       <c r="AG64" s="17"/>
       <c r="AH64" s="17"/>
+      <c r="AI64" s="17"/>
     </row>
     <row r="65" ht="19.5" customHeight="1">
       <c r="A65" s="17"/>
@@ -2964,6 +3033,7 @@
       <c r="AF65" s="17"/>
       <c r="AG65" s="17"/>
       <c r="AH65" s="17"/>
+      <c r="AI65" s="17"/>
     </row>
     <row r="66" ht="19.5" customHeight="1">
       <c r="A66" s="17"/>
@@ -3000,6 +3070,7 @@
       <c r="AF66" s="17"/>
       <c r="AG66" s="17"/>
       <c r="AH66" s="17"/>
+      <c r="AI66" s="17"/>
     </row>
     <row r="67" ht="19.5" customHeight="1">
       <c r="A67" s="17"/>
@@ -3036,6 +3107,7 @@
       <c r="AF67" s="17"/>
       <c r="AG67" s="17"/>
       <c r="AH67" s="17"/>
+      <c r="AI67" s="17"/>
     </row>
     <row r="68" ht="19.5" customHeight="1">
       <c r="A68" s="17"/>
@@ -3072,6 +3144,7 @@
       <c r="AF68" s="17"/>
       <c r="AG68" s="17"/>
       <c r="AH68" s="17"/>
+      <c r="AI68" s="17"/>
     </row>
     <row r="69" ht="19.5" customHeight="1">
       <c r="A69" s="17"/>
@@ -3108,6 +3181,7 @@
       <c r="AF69" s="17"/>
       <c r="AG69" s="17"/>
       <c r="AH69" s="17"/>
+      <c r="AI69" s="17"/>
     </row>
     <row r="70" ht="19.5" customHeight="1">
       <c r="A70" s="17"/>
@@ -3144,6 +3218,7 @@
       <c r="AF70" s="17"/>
       <c r="AG70" s="17"/>
       <c r="AH70" s="17"/>
+      <c r="AI70" s="17"/>
     </row>
     <row r="71" ht="19.5" customHeight="1">
       <c r="A71" s="17"/>
@@ -3180,6 +3255,7 @@
       <c r="AF71" s="17"/>
       <c r="AG71" s="17"/>
       <c r="AH71" s="17"/>
+      <c r="AI71" s="17"/>
     </row>
     <row r="72" ht="19.5" customHeight="1">
       <c r="A72" s="17"/>
@@ -3216,6 +3292,7 @@
       <c r="AF72" s="17"/>
       <c r="AG72" s="17"/>
       <c r="AH72" s="17"/>
+      <c r="AI72" s="17"/>
     </row>
     <row r="73" ht="19.5" customHeight="1">
       <c r="A73" s="17"/>
@@ -3252,6 +3329,7 @@
       <c r="AF73" s="17"/>
       <c r="AG73" s="17"/>
       <c r="AH73" s="17"/>
+      <c r="AI73" s="17"/>
     </row>
     <row r="74" ht="19.5" customHeight="1">
       <c r="A74" s="17"/>
@@ -3288,6 +3366,7 @@
       <c r="AF74" s="17"/>
       <c r="AG74" s="17"/>
       <c r="AH74" s="17"/>
+      <c r="AI74" s="17"/>
     </row>
     <row r="75" ht="19.5" customHeight="1">
       <c r="A75" s="17"/>
@@ -3324,6 +3403,7 @@
       <c r="AF75" s="17"/>
       <c r="AG75" s="17"/>
       <c r="AH75" s="17"/>
+      <c r="AI75" s="17"/>
     </row>
     <row r="76" ht="19.5" customHeight="1">
       <c r="A76" s="17"/>
@@ -3360,6 +3440,7 @@
       <c r="AF76" s="17"/>
       <c r="AG76" s="17"/>
       <c r="AH76" s="17"/>
+      <c r="AI76" s="17"/>
     </row>
     <row r="77" ht="19.5" customHeight="1">
       <c r="A77" s="17"/>
@@ -3396,6 +3477,7 @@
       <c r="AF77" s="17"/>
       <c r="AG77" s="17"/>
       <c r="AH77" s="17"/>
+      <c r="AI77" s="17"/>
     </row>
     <row r="78" ht="19.5" customHeight="1">
       <c r="A78" s="17"/>
@@ -3432,6 +3514,7 @@
       <c r="AF78" s="17"/>
       <c r="AG78" s="17"/>
       <c r="AH78" s="17"/>
+      <c r="AI78" s="17"/>
     </row>
     <row r="79" ht="19.5" customHeight="1">
       <c r="A79" s="17"/>
@@ -3468,6 +3551,7 @@
       <c r="AF79" s="17"/>
       <c r="AG79" s="17"/>
       <c r="AH79" s="17"/>
+      <c r="AI79" s="17"/>
     </row>
     <row r="80" ht="19.5" customHeight="1">
       <c r="A80" s="17"/>
@@ -3504,6 +3588,7 @@
       <c r="AF80" s="17"/>
       <c r="AG80" s="17"/>
       <c r="AH80" s="17"/>
+      <c r="AI80" s="17"/>
     </row>
     <row r="81" ht="19.5" customHeight="1">
       <c r="A81" s="17"/>
@@ -3540,6 +3625,7 @@
       <c r="AF81" s="17"/>
       <c r="AG81" s="17"/>
       <c r="AH81" s="17"/>
+      <c r="AI81" s="17"/>
     </row>
     <row r="82" ht="19.5" customHeight="1">
       <c r="A82" s="17"/>
@@ -3576,6 +3662,7 @@
       <c r="AF82" s="17"/>
       <c r="AG82" s="17"/>
       <c r="AH82" s="17"/>
+      <c r="AI82" s="17"/>
     </row>
     <row r="83" ht="19.5" customHeight="1">
       <c r="A83" s="17"/>
@@ -3612,6 +3699,7 @@
       <c r="AF83" s="17"/>
       <c r="AG83" s="17"/>
       <c r="AH83" s="17"/>
+      <c r="AI83" s="17"/>
     </row>
     <row r="84" ht="19.5" customHeight="1">
       <c r="A84" s="17"/>
@@ -3648,6 +3736,7 @@
       <c r="AF84" s="17"/>
       <c r="AG84" s="17"/>
       <c r="AH84" s="17"/>
+      <c r="AI84" s="17"/>
     </row>
     <row r="85" ht="19.5" customHeight="1">
       <c r="A85" s="17"/>
@@ -3684,6 +3773,7 @@
       <c r="AF85" s="17"/>
       <c r="AG85" s="17"/>
       <c r="AH85" s="17"/>
+      <c r="AI85" s="17"/>
     </row>
     <row r="86" ht="19.5" customHeight="1">
       <c r="A86" s="17"/>
@@ -3720,6 +3810,7 @@
       <c r="AF86" s="17"/>
       <c r="AG86" s="17"/>
       <c r="AH86" s="17"/>
+      <c r="AI86" s="17"/>
     </row>
     <row r="87" ht="19.5" customHeight="1">
       <c r="A87" s="17"/>
@@ -3756,6 +3847,7 @@
       <c r="AF87" s="17"/>
       <c r="AG87" s="17"/>
       <c r="AH87" s="17"/>
+      <c r="AI87" s="17"/>
     </row>
     <row r="88" ht="19.5" customHeight="1">
       <c r="A88" s="17"/>
@@ -3792,6 +3884,7 @@
       <c r="AF88" s="17"/>
       <c r="AG88" s="17"/>
       <c r="AH88" s="17"/>
+      <c r="AI88" s="17"/>
     </row>
     <row r="89" ht="19.5" customHeight="1">
       <c r="A89" s="17"/>
@@ -3828,6 +3921,7 @@
       <c r="AF89" s="17"/>
       <c r="AG89" s="17"/>
       <c r="AH89" s="17"/>
+      <c r="AI89" s="17"/>
     </row>
     <row r="90" ht="19.5" customHeight="1">
       <c r="A90" s="17"/>
@@ -3864,6 +3958,7 @@
       <c r="AF90" s="17"/>
       <c r="AG90" s="17"/>
       <c r="AH90" s="17"/>
+      <c r="AI90" s="17"/>
     </row>
     <row r="91" ht="19.5" customHeight="1">
       <c r="A91" s="17"/>
@@ -3900,6 +3995,7 @@
       <c r="AF91" s="17"/>
       <c r="AG91" s="17"/>
       <c r="AH91" s="17"/>
+      <c r="AI91" s="17"/>
     </row>
     <row r="92" ht="19.5" customHeight="1">
       <c r="A92" s="17"/>
@@ -3936,6 +4032,7 @@
       <c r="AF92" s="17"/>
       <c r="AG92" s="17"/>
       <c r="AH92" s="17"/>
+      <c r="AI92" s="17"/>
     </row>
     <row r="93" ht="19.5" customHeight="1">
       <c r="A93" s="17"/>
@@ -3972,6 +4069,7 @@
       <c r="AF93" s="17"/>
       <c r="AG93" s="17"/>
       <c r="AH93" s="17"/>
+      <c r="AI93" s="17"/>
     </row>
     <row r="94" ht="19.5" customHeight="1">
       <c r="A94" s="17"/>
@@ -4008,6 +4106,7 @@
       <c r="AF94" s="17"/>
       <c r="AG94" s="17"/>
       <c r="AH94" s="17"/>
+      <c r="AI94" s="17"/>
     </row>
     <row r="95" ht="19.5" customHeight="1">
       <c r="A95" s="17"/>
@@ -4044,6 +4143,7 @@
       <c r="AF95" s="17"/>
       <c r="AG95" s="17"/>
       <c r="AH95" s="17"/>
+      <c r="AI95" s="17"/>
     </row>
     <row r="96" ht="19.5" customHeight="1">
       <c r="A96" s="17"/>
@@ -4080,6 +4180,7 @@
       <c r="AF96" s="17"/>
       <c r="AG96" s="17"/>
       <c r="AH96" s="17"/>
+      <c r="AI96" s="17"/>
     </row>
     <row r="97" ht="19.5" customHeight="1">
       <c r="A97" s="17"/>
@@ -4116,6 +4217,7 @@
       <c r="AF97" s="17"/>
       <c r="AG97" s="17"/>
       <c r="AH97" s="17"/>
+      <c r="AI97" s="17"/>
     </row>
     <row r="98" ht="19.5" customHeight="1">
       <c r="A98" s="17"/>
@@ -4152,6 +4254,7 @@
       <c r="AF98" s="17"/>
       <c r="AG98" s="17"/>
       <c r="AH98" s="17"/>
+      <c r="AI98" s="17"/>
     </row>
     <row r="99" ht="19.5" customHeight="1">
       <c r="A99" s="17"/>
@@ -4188,6 +4291,7 @@
       <c r="AF99" s="17"/>
       <c r="AG99" s="17"/>
       <c r="AH99" s="17"/>
+      <c r="AI99" s="17"/>
     </row>
     <row r="100" ht="19.5" customHeight="1">
       <c r="A100" s="17"/>
@@ -4224,6 +4328,7 @@
       <c r="AF100" s="17"/>
       <c r="AG100" s="17"/>
       <c r="AH100" s="17"/>
+      <c r="AI100" s="17"/>
     </row>
     <row r="101" ht="19.5" customHeight="1">
       <c r="A101" s="17"/>
@@ -4260,6 +4365,7 @@
       <c r="AF101" s="17"/>
       <c r="AG101" s="17"/>
       <c r="AH101" s="17"/>
+      <c r="AI101" s="17"/>
     </row>
     <row r="102" ht="19.5" customHeight="1">
       <c r="A102" s="17"/>
@@ -4296,6 +4402,7 @@
       <c r="AF102" s="17"/>
       <c r="AG102" s="17"/>
       <c r="AH102" s="17"/>
+      <c r="AI102" s="17"/>
     </row>
     <row r="103" ht="19.5" customHeight="1">
       <c r="A103" s="17"/>
@@ -4332,6 +4439,7 @@
       <c r="AF103" s="17"/>
       <c r="AG103" s="17"/>
       <c r="AH103" s="17"/>
+      <c r="AI103" s="17"/>
     </row>
     <row r="104" ht="19.5" customHeight="1">
       <c r="A104" s="17"/>
@@ -4368,6 +4476,7 @@
       <c r="AF104" s="17"/>
       <c r="AG104" s="17"/>
       <c r="AH104" s="17"/>
+      <c r="AI104" s="17"/>
     </row>
     <row r="105" ht="19.5" customHeight="1">
       <c r="A105" s="17"/>
@@ -4404,6 +4513,7 @@
       <c r="AF105" s="17"/>
       <c r="AG105" s="17"/>
       <c r="AH105" s="17"/>
+      <c r="AI105" s="17"/>
     </row>
     <row r="106" ht="19.5" customHeight="1">
       <c r="A106" s="17"/>
@@ -4440,6 +4550,7 @@
       <c r="AF106" s="17"/>
       <c r="AG106" s="17"/>
       <c r="AH106" s="17"/>
+      <c r="AI106" s="17"/>
     </row>
     <row r="107" ht="19.5" customHeight="1">
       <c r="A107" s="17"/>
@@ -4476,6 +4587,7 @@
       <c r="AF107" s="17"/>
       <c r="AG107" s="17"/>
       <c r="AH107" s="17"/>
+      <c r="AI107" s="17"/>
     </row>
     <row r="108" ht="19.5" customHeight="1">
       <c r="A108" s="17"/>
@@ -4512,6 +4624,7 @@
       <c r="AF108" s="17"/>
       <c r="AG108" s="17"/>
       <c r="AH108" s="17"/>
+      <c r="AI108" s="17"/>
     </row>
     <row r="109" ht="19.5" customHeight="1">
       <c r="A109" s="17"/>
@@ -4548,6 +4661,7 @@
       <c r="AF109" s="17"/>
       <c r="AG109" s="17"/>
       <c r="AH109" s="17"/>
+      <c r="AI109" s="17"/>
     </row>
     <row r="110" ht="19.5" customHeight="1">
       <c r="A110" s="17"/>
@@ -4584,6 +4698,7 @@
       <c r="AF110" s="17"/>
       <c r="AG110" s="17"/>
       <c r="AH110" s="17"/>
+      <c r="AI110" s="17"/>
     </row>
     <row r="111" ht="19.5" customHeight="1">
       <c r="A111" s="17"/>
@@ -4620,6 +4735,7 @@
       <c r="AF111" s="17"/>
       <c r="AG111" s="17"/>
       <c r="AH111" s="17"/>
+      <c r="AI111" s="17"/>
     </row>
     <row r="112" ht="19.5" customHeight="1">
       <c r="A112" s="17"/>
@@ -4656,6 +4772,7 @@
       <c r="AF112" s="17"/>
       <c r="AG112" s="17"/>
       <c r="AH112" s="17"/>
+      <c r="AI112" s="17"/>
     </row>
     <row r="113" ht="19.5" customHeight="1">
       <c r="A113" s="17"/>
@@ -4692,6 +4809,7 @@
       <c r="AF113" s="17"/>
       <c r="AG113" s="17"/>
       <c r="AH113" s="17"/>
+      <c r="AI113" s="17"/>
     </row>
     <row r="114" ht="19.5" customHeight="1">
       <c r="A114" s="17"/>
@@ -4728,6 +4846,7 @@
       <c r="AF114" s="17"/>
       <c r="AG114" s="17"/>
       <c r="AH114" s="17"/>
+      <c r="AI114" s="17"/>
     </row>
     <row r="115" ht="19.5" customHeight="1">
       <c r="A115" s="17"/>
@@ -4764,6 +4883,7 @@
       <c r="AF115" s="17"/>
       <c r="AG115" s="17"/>
       <c r="AH115" s="17"/>
+      <c r="AI115" s="17"/>
     </row>
     <row r="116" ht="19.5" customHeight="1">
       <c r="A116" s="17"/>
@@ -4800,6 +4920,7 @@
       <c r="AF116" s="17"/>
       <c r="AG116" s="17"/>
       <c r="AH116" s="17"/>
+      <c r="AI116" s="17"/>
     </row>
     <row r="117" ht="19.5" customHeight="1">
       <c r="A117" s="17"/>
@@ -4836,6 +4957,7 @@
       <c r="AF117" s="17"/>
       <c r="AG117" s="17"/>
       <c r="AH117" s="17"/>
+      <c r="AI117" s="17"/>
     </row>
     <row r="118" ht="19.5" customHeight="1">
       <c r="A118" s="17"/>
@@ -4872,6 +4994,7 @@
       <c r="AF118" s="17"/>
       <c r="AG118" s="17"/>
       <c r="AH118" s="17"/>
+      <c r="AI118" s="17"/>
     </row>
     <row r="119" ht="19.5" customHeight="1">
       <c r="A119" s="17"/>
@@ -4908,6 +5031,7 @@
       <c r="AF119" s="17"/>
       <c r="AG119" s="17"/>
       <c r="AH119" s="17"/>
+      <c r="AI119" s="17"/>
     </row>
     <row r="120" ht="19.5" customHeight="1">
       <c r="A120" s="17"/>
@@ -4944,6 +5068,7 @@
       <c r="AF120" s="17"/>
       <c r="AG120" s="17"/>
       <c r="AH120" s="17"/>
+      <c r="AI120" s="17"/>
     </row>
     <row r="121" ht="19.5" customHeight="1">
       <c r="A121" s="17"/>
@@ -4980,6 +5105,7 @@
       <c r="AF121" s="17"/>
       <c r="AG121" s="17"/>
       <c r="AH121" s="17"/>
+      <c r="AI121" s="17"/>
     </row>
     <row r="122" ht="19.5" customHeight="1">
       <c r="A122" s="17"/>
@@ -5016,6 +5142,7 @@
       <c r="AF122" s="17"/>
       <c r="AG122" s="17"/>
       <c r="AH122" s="17"/>
+      <c r="AI122" s="17"/>
     </row>
     <row r="123" ht="19.5" customHeight="1">
       <c r="A123" s="17"/>
@@ -5052,6 +5179,7 @@
       <c r="AF123" s="17"/>
       <c r="AG123" s="17"/>
       <c r="AH123" s="17"/>
+      <c r="AI123" s="17"/>
     </row>
     <row r="124" ht="19.5" customHeight="1">
       <c r="A124" s="17"/>
@@ -5088,6 +5216,7 @@
       <c r="AF124" s="17"/>
       <c r="AG124" s="17"/>
       <c r="AH124" s="17"/>
+      <c r="AI124" s="17"/>
     </row>
     <row r="125" ht="19.5" customHeight="1">
       <c r="A125" s="17"/>
@@ -5124,6 +5253,7 @@
       <c r="AF125" s="17"/>
       <c r="AG125" s="17"/>
       <c r="AH125" s="17"/>
+      <c r="AI125" s="17"/>
     </row>
     <row r="126" ht="19.5" customHeight="1">
       <c r="A126" s="17"/>
@@ -5160,6 +5290,7 @@
       <c r="AF126" s="17"/>
       <c r="AG126" s="17"/>
       <c r="AH126" s="17"/>
+      <c r="AI126" s="17"/>
     </row>
     <row r="127" ht="19.5" customHeight="1">
       <c r="A127" s="17"/>
@@ -5196,6 +5327,7 @@
       <c r="AF127" s="17"/>
       <c r="AG127" s="17"/>
       <c r="AH127" s="17"/>
+      <c r="AI127" s="17"/>
     </row>
     <row r="128" ht="19.5" customHeight="1">
       <c r="A128" s="17"/>
@@ -5232,6 +5364,7 @@
       <c r="AF128" s="17"/>
       <c r="AG128" s="17"/>
       <c r="AH128" s="17"/>
+      <c r="AI128" s="17"/>
     </row>
     <row r="129" ht="19.5" customHeight="1">
       <c r="A129" s="17"/>
@@ -5268,6 +5401,7 @@
       <c r="AF129" s="17"/>
       <c r="AG129" s="17"/>
       <c r="AH129" s="17"/>
+      <c r="AI129" s="17"/>
     </row>
     <row r="130" ht="19.5" customHeight="1">
       <c r="A130" s="17"/>
@@ -5304,6 +5438,7 @@
       <c r="AF130" s="17"/>
       <c r="AG130" s="17"/>
       <c r="AH130" s="17"/>
+      <c r="AI130" s="17"/>
     </row>
     <row r="131" ht="19.5" customHeight="1">
       <c r="A131" s="17"/>
@@ -5340,6 +5475,7 @@
       <c r="AF131" s="17"/>
       <c r="AG131" s="17"/>
       <c r="AH131" s="17"/>
+      <c r="AI131" s="17"/>
     </row>
     <row r="132" ht="19.5" customHeight="1">
       <c r="A132" s="17"/>
@@ -5376,6 +5512,7 @@
       <c r="AF132" s="17"/>
       <c r="AG132" s="17"/>
       <c r="AH132" s="17"/>
+      <c r="AI132" s="17"/>
     </row>
     <row r="133" ht="19.5" customHeight="1">
       <c r="A133" s="17"/>
@@ -5412,6 +5549,7 @@
       <c r="AF133" s="17"/>
       <c r="AG133" s="17"/>
       <c r="AH133" s="17"/>
+      <c r="AI133" s="17"/>
     </row>
     <row r="134" ht="19.5" customHeight="1">
       <c r="A134" s="17"/>
@@ -5448,6 +5586,7 @@
       <c r="AF134" s="17"/>
       <c r="AG134" s="17"/>
       <c r="AH134" s="17"/>
+      <c r="AI134" s="17"/>
     </row>
     <row r="135" ht="19.5" customHeight="1">
       <c r="A135" s="17"/>
@@ -5484,6 +5623,7 @@
       <c r="AF135" s="17"/>
       <c r="AG135" s="17"/>
       <c r="AH135" s="17"/>
+      <c r="AI135" s="17"/>
     </row>
     <row r="136" ht="19.5" customHeight="1">
       <c r="A136" s="17"/>
@@ -5520,6 +5660,7 @@
       <c r="AF136" s="17"/>
       <c r="AG136" s="17"/>
       <c r="AH136" s="17"/>
+      <c r="AI136" s="17"/>
     </row>
     <row r="137" ht="19.5" customHeight="1">
       <c r="A137" s="17"/>
@@ -5556,6 +5697,7 @@
       <c r="AF137" s="17"/>
       <c r="AG137" s="17"/>
       <c r="AH137" s="17"/>
+      <c r="AI137" s="17"/>
     </row>
     <row r="138" ht="19.5" customHeight="1">
       <c r="A138" s="17"/>
@@ -5592,6 +5734,7 @@
       <c r="AF138" s="17"/>
       <c r="AG138" s="17"/>
       <c r="AH138" s="17"/>
+      <c r="AI138" s="17"/>
     </row>
     <row r="139" ht="19.5" customHeight="1">
       <c r="A139" s="17"/>
@@ -5628,6 +5771,7 @@
       <c r="AF139" s="17"/>
       <c r="AG139" s="17"/>
       <c r="AH139" s="17"/>
+      <c r="AI139" s="17"/>
     </row>
     <row r="140" ht="19.5" customHeight="1">
       <c r="A140" s="17"/>
@@ -5664,6 +5808,7 @@
       <c r="AF140" s="17"/>
       <c r="AG140" s="17"/>
       <c r="AH140" s="17"/>
+      <c r="AI140" s="17"/>
     </row>
     <row r="141" ht="19.5" customHeight="1">
       <c r="A141" s="17"/>
@@ -5700,6 +5845,7 @@
       <c r="AF141" s="17"/>
       <c r="AG141" s="17"/>
       <c r="AH141" s="17"/>
+      <c r="AI141" s="17"/>
     </row>
     <row r="142" ht="19.5" customHeight="1">
       <c r="A142" s="17"/>
@@ -5736,6 +5882,7 @@
       <c r="AF142" s="17"/>
       <c r="AG142" s="17"/>
       <c r="AH142" s="17"/>
+      <c r="AI142" s="17"/>
     </row>
     <row r="143" ht="19.5" customHeight="1">
       <c r="A143" s="17"/>
@@ -5772,6 +5919,7 @@
       <c r="AF143" s="17"/>
       <c r="AG143" s="17"/>
       <c r="AH143" s="17"/>
+      <c r="AI143" s="17"/>
     </row>
     <row r="144" ht="19.5" customHeight="1">
       <c r="A144" s="17"/>
@@ -5808,6 +5956,7 @@
       <c r="AF144" s="17"/>
       <c r="AG144" s="17"/>
       <c r="AH144" s="17"/>
+      <c r="AI144" s="17"/>
     </row>
     <row r="145" ht="19.5" customHeight="1">
       <c r="A145" s="17"/>
@@ -5844,6 +5993,7 @@
       <c r="AF145" s="17"/>
       <c r="AG145" s="17"/>
       <c r="AH145" s="17"/>
+      <c r="AI145" s="17"/>
     </row>
     <row r="146" ht="19.5" customHeight="1">
       <c r="A146" s="17"/>
@@ -5880,6 +6030,7 @@
       <c r="AF146" s="17"/>
       <c r="AG146" s="17"/>
       <c r="AH146" s="17"/>
+      <c r="AI146" s="17"/>
     </row>
     <row r="147" ht="19.5" customHeight="1">
       <c r="A147" s="17"/>
@@ -5916,6 +6067,7 @@
       <c r="AF147" s="17"/>
       <c r="AG147" s="17"/>
       <c r="AH147" s="17"/>
+      <c r="AI147" s="17"/>
     </row>
     <row r="148" ht="19.5" customHeight="1">
       <c r="A148" s="17"/>
@@ -5952,6 +6104,7 @@
       <c r="AF148" s="17"/>
       <c r="AG148" s="17"/>
       <c r="AH148" s="17"/>
+      <c r="AI148" s="17"/>
     </row>
     <row r="149" ht="19.5" customHeight="1">
       <c r="A149" s="17"/>
@@ -5988,6 +6141,7 @@
       <c r="AF149" s="17"/>
       <c r="AG149" s="17"/>
       <c r="AH149" s="17"/>
+      <c r="AI149" s="17"/>
     </row>
     <row r="150" ht="19.5" customHeight="1">
       <c r="A150" s="17"/>
@@ -6024,6 +6178,7 @@
       <c r="AF150" s="17"/>
       <c r="AG150" s="17"/>
       <c r="AH150" s="17"/>
+      <c r="AI150" s="17"/>
     </row>
     <row r="151" ht="19.5" customHeight="1">
       <c r="A151" s="17"/>
@@ -6060,6 +6215,7 @@
       <c r="AF151" s="17"/>
       <c r="AG151" s="17"/>
       <c r="AH151" s="17"/>
+      <c r="AI151" s="17"/>
     </row>
     <row r="152" ht="19.5" customHeight="1">
       <c r="A152" s="17"/>
@@ -6096,6 +6252,7 @@
       <c r="AF152" s="17"/>
       <c r="AG152" s="17"/>
       <c r="AH152" s="17"/>
+      <c r="AI152" s="17"/>
     </row>
     <row r="153" ht="19.5" customHeight="1">
       <c r="A153" s="17"/>
@@ -6132,6 +6289,7 @@
       <c r="AF153" s="17"/>
       <c r="AG153" s="17"/>
       <c r="AH153" s="17"/>
+      <c r="AI153" s="17"/>
     </row>
     <row r="154" ht="19.5" customHeight="1">
       <c r="A154" s="17"/>
@@ -6168,6 +6326,7 @@
       <c r="AF154" s="17"/>
       <c r="AG154" s="17"/>
       <c r="AH154" s="17"/>
+      <c r="AI154" s="17"/>
     </row>
     <row r="155" ht="19.5" customHeight="1">
       <c r="A155" s="17"/>
@@ -6204,6 +6363,7 @@
       <c r="AF155" s="17"/>
       <c r="AG155" s="17"/>
       <c r="AH155" s="17"/>
+      <c r="AI155" s="17"/>
     </row>
     <row r="156" ht="19.5" customHeight="1">
       <c r="A156" s="17"/>
@@ -6240,6 +6400,7 @@
       <c r="AF156" s="17"/>
       <c r="AG156" s="17"/>
       <c r="AH156" s="17"/>
+      <c r="AI156" s="17"/>
     </row>
     <row r="157" ht="19.5" customHeight="1">
       <c r="A157" s="17"/>
@@ -6276,6 +6437,7 @@
       <c r="AF157" s="17"/>
       <c r="AG157" s="17"/>
       <c r="AH157" s="17"/>
+      <c r="AI157" s="17"/>
     </row>
     <row r="158" ht="19.5" customHeight="1">
       <c r="A158" s="17"/>
@@ -6312,6 +6474,7 @@
       <c r="AF158" s="17"/>
       <c r="AG158" s="17"/>
       <c r="AH158" s="17"/>
+      <c r="AI158" s="17"/>
     </row>
     <row r="159" ht="19.5" customHeight="1">
       <c r="A159" s="17"/>
@@ -6348,6 +6511,7 @@
       <c r="AF159" s="17"/>
       <c r="AG159" s="17"/>
       <c r="AH159" s="17"/>
+      <c r="AI159" s="17"/>
     </row>
     <row r="160" ht="19.5" customHeight="1">
       <c r="A160" s="17"/>
@@ -6384,6 +6548,7 @@
       <c r="AF160" s="17"/>
       <c r="AG160" s="17"/>
       <c r="AH160" s="17"/>
+      <c r="AI160" s="17"/>
     </row>
     <row r="161" ht="19.5" customHeight="1">
       <c r="A161" s="17"/>
@@ -6420,6 +6585,7 @@
       <c r="AF161" s="17"/>
       <c r="AG161" s="17"/>
       <c r="AH161" s="17"/>
+      <c r="AI161" s="17"/>
     </row>
     <row r="162" ht="19.5" customHeight="1">
       <c r="A162" s="17"/>
@@ -6456,6 +6622,7 @@
       <c r="AF162" s="17"/>
       <c r="AG162" s="17"/>
       <c r="AH162" s="17"/>
+      <c r="AI162" s="17"/>
     </row>
     <row r="163" ht="19.5" customHeight="1">
       <c r="A163" s="17"/>
@@ -6492,6 +6659,7 @@
       <c r="AF163" s="17"/>
       <c r="AG163" s="17"/>
       <c r="AH163" s="17"/>
+      <c r="AI163" s="17"/>
     </row>
     <row r="164" ht="19.5" customHeight="1">
       <c r="A164" s="17"/>
@@ -6528,6 +6696,7 @@
       <c r="AF164" s="17"/>
       <c r="AG164" s="17"/>
       <c r="AH164" s="17"/>
+      <c r="AI164" s="17"/>
     </row>
     <row r="165" ht="19.5" customHeight="1">
       <c r="A165" s="17"/>
@@ -6564,6 +6733,7 @@
       <c r="AF165" s="17"/>
       <c r="AG165" s="17"/>
       <c r="AH165" s="17"/>
+      <c r="AI165" s="17"/>
     </row>
     <row r="166" ht="19.5" customHeight="1">
       <c r="A166" s="17"/>
@@ -6600,6 +6770,7 @@
       <c r="AF166" s="17"/>
       <c r="AG166" s="17"/>
       <c r="AH166" s="17"/>
+      <c r="AI166" s="17"/>
     </row>
     <row r="167" ht="19.5" customHeight="1">
       <c r="A167" s="17"/>
@@ -6636,6 +6807,7 @@
       <c r="AF167" s="17"/>
       <c r="AG167" s="17"/>
       <c r="AH167" s="17"/>
+      <c r="AI167" s="17"/>
     </row>
     <row r="168" ht="19.5" customHeight="1">
       <c r="A168" s="17"/>
@@ -6672,6 +6844,7 @@
       <c r="AF168" s="17"/>
       <c r="AG168" s="17"/>
       <c r="AH168" s="17"/>
+      <c r="AI168" s="17"/>
     </row>
     <row r="169" ht="19.5" customHeight="1">
       <c r="A169" s="17"/>
@@ -6708,6 +6881,7 @@
       <c r="AF169" s="17"/>
       <c r="AG169" s="17"/>
       <c r="AH169" s="17"/>
+      <c r="AI169" s="17"/>
     </row>
     <row r="170" ht="19.5" customHeight="1">
       <c r="A170" s="17"/>
@@ -6744,6 +6918,7 @@
       <c r="AF170" s="17"/>
       <c r="AG170" s="17"/>
       <c r="AH170" s="17"/>
+      <c r="AI170" s="17"/>
     </row>
     <row r="171" ht="19.5" customHeight="1">
       <c r="A171" s="17"/>
@@ -6780,6 +6955,7 @@
       <c r="AF171" s="17"/>
       <c r="AG171" s="17"/>
       <c r="AH171" s="17"/>
+      <c r="AI171" s="17"/>
     </row>
     <row r="172" ht="19.5" customHeight="1">
       <c r="A172" s="17"/>
@@ -6816,6 +6992,7 @@
       <c r="AF172" s="17"/>
       <c r="AG172" s="17"/>
       <c r="AH172" s="17"/>
+      <c r="AI172" s="17"/>
     </row>
     <row r="173" ht="19.5" customHeight="1">
       <c r="A173" s="17"/>
@@ -6852,6 +7029,7 @@
       <c r="AF173" s="17"/>
       <c r="AG173" s="17"/>
       <c r="AH173" s="17"/>
+      <c r="AI173" s="17"/>
     </row>
     <row r="174" ht="19.5" customHeight="1">
       <c r="A174" s="17"/>
@@ -6888,6 +7066,7 @@
       <c r="AF174" s="17"/>
       <c r="AG174" s="17"/>
       <c r="AH174" s="17"/>
+      <c r="AI174" s="17"/>
     </row>
     <row r="175" ht="19.5" customHeight="1">
       <c r="A175" s="17"/>
@@ -6924,6 +7103,7 @@
       <c r="AF175" s="17"/>
       <c r="AG175" s="17"/>
       <c r="AH175" s="17"/>
+      <c r="AI175" s="17"/>
     </row>
     <row r="176" ht="19.5" customHeight="1">
       <c r="A176" s="17"/>
@@ -6960,6 +7140,7 @@
       <c r="AF176" s="17"/>
       <c r="AG176" s="17"/>
       <c r="AH176" s="17"/>
+      <c r="AI176" s="17"/>
     </row>
     <row r="177" ht="19.5" customHeight="1">
       <c r="A177" s="17"/>
@@ -6996,6 +7177,7 @@
       <c r="AF177" s="17"/>
       <c r="AG177" s="17"/>
       <c r="AH177" s="17"/>
+      <c r="AI177" s="17"/>
     </row>
     <row r="178" ht="19.5" customHeight="1">
       <c r="A178" s="17"/>
@@ -7032,6 +7214,7 @@
       <c r="AF178" s="17"/>
       <c r="AG178" s="17"/>
       <c r="AH178" s="17"/>
+      <c r="AI178" s="17"/>
     </row>
     <row r="179" ht="19.5" customHeight="1">
       <c r="A179" s="17"/>
@@ -7068,6 +7251,7 @@
       <c r="AF179" s="17"/>
       <c r="AG179" s="17"/>
       <c r="AH179" s="17"/>
+      <c r="AI179" s="17"/>
     </row>
     <row r="180" ht="19.5" customHeight="1">
       <c r="A180" s="17"/>
@@ -7104,6 +7288,7 @@
       <c r="AF180" s="17"/>
       <c r="AG180" s="17"/>
       <c r="AH180" s="17"/>
+      <c r="AI180" s="17"/>
     </row>
     <row r="181" ht="19.5" customHeight="1">
       <c r="A181" s="17"/>
@@ -7140,6 +7325,7 @@
       <c r="AF181" s="17"/>
       <c r="AG181" s="17"/>
       <c r="AH181" s="17"/>
+      <c r="AI181" s="17"/>
     </row>
     <row r="182" ht="19.5" customHeight="1">
       <c r="A182" s="17"/>
@@ -7176,6 +7362,7 @@
       <c r="AF182" s="17"/>
       <c r="AG182" s="17"/>
       <c r="AH182" s="17"/>
+      <c r="AI182" s="17"/>
     </row>
     <row r="183" ht="19.5" customHeight="1">
       <c r="A183" s="17"/>
@@ -7212,6 +7399,7 @@
       <c r="AF183" s="17"/>
       <c r="AG183" s="17"/>
       <c r="AH183" s="17"/>
+      <c r="AI183" s="17"/>
     </row>
     <row r="184" ht="19.5" customHeight="1">
       <c r="A184" s="17"/>
@@ -7248,6 +7436,7 @@
       <c r="AF184" s="17"/>
       <c r="AG184" s="17"/>
       <c r="AH184" s="17"/>
+      <c r="AI184" s="17"/>
     </row>
     <row r="185" ht="19.5" customHeight="1">
       <c r="A185" s="17"/>
@@ -7284,6 +7473,7 @@
       <c r="AF185" s="17"/>
       <c r="AG185" s="17"/>
       <c r="AH185" s="17"/>
+      <c r="AI185" s="17"/>
     </row>
     <row r="186" ht="19.5" customHeight="1">
       <c r="A186" s="17"/>
@@ -7320,6 +7510,7 @@
       <c r="AF186" s="17"/>
       <c r="AG186" s="17"/>
       <c r="AH186" s="17"/>
+      <c r="AI186" s="17"/>
     </row>
     <row r="187" ht="19.5" customHeight="1">
       <c r="A187" s="17"/>
@@ -7356,6 +7547,7 @@
       <c r="AF187" s="17"/>
       <c r="AG187" s="17"/>
       <c r="AH187" s="17"/>
+      <c r="AI187" s="17"/>
     </row>
     <row r="188" ht="19.5" customHeight="1">
       <c r="A188" s="17"/>
@@ -7392,6 +7584,7 @@
       <c r="AF188" s="17"/>
       <c r="AG188" s="17"/>
       <c r="AH188" s="17"/>
+      <c r="AI188" s="17"/>
     </row>
     <row r="189" ht="19.5" customHeight="1">
       <c r="A189" s="17"/>
@@ -7428,6 +7621,7 @@
       <c r="AF189" s="17"/>
       <c r="AG189" s="17"/>
       <c r="AH189" s="17"/>
+      <c r="AI189" s="17"/>
     </row>
     <row r="190" ht="19.5" customHeight="1">
       <c r="A190" s="17"/>
@@ -7464,6 +7658,7 @@
       <c r="AF190" s="17"/>
       <c r="AG190" s="17"/>
       <c r="AH190" s="17"/>
+      <c r="AI190" s="17"/>
     </row>
     <row r="191" ht="19.5" customHeight="1">
       <c r="A191" s="17"/>
@@ -7500,6 +7695,7 @@
       <c r="AF191" s="17"/>
       <c r="AG191" s="17"/>
       <c r="AH191" s="17"/>
+      <c r="AI191" s="17"/>
     </row>
     <row r="192" ht="19.5" customHeight="1">
       <c r="A192" s="17"/>
@@ -7536,6 +7732,7 @@
       <c r="AF192" s="17"/>
       <c r="AG192" s="17"/>
       <c r="AH192" s="17"/>
+      <c r="AI192" s="17"/>
     </row>
     <row r="193" ht="19.5" customHeight="1">
       <c r="A193" s="17"/>
@@ -7572,6 +7769,7 @@
       <c r="AF193" s="17"/>
       <c r="AG193" s="17"/>
       <c r="AH193" s="17"/>
+      <c r="AI193" s="17"/>
     </row>
     <row r="194" ht="19.5" customHeight="1">
       <c r="A194" s="17"/>
@@ -7608,6 +7806,7 @@
       <c r="AF194" s="17"/>
       <c r="AG194" s="17"/>
       <c r="AH194" s="17"/>
+      <c r="AI194" s="17"/>
     </row>
     <row r="195" ht="19.5" customHeight="1">
       <c r="A195" s="17"/>
@@ -7644,6 +7843,7 @@
       <c r="AF195" s="17"/>
       <c r="AG195" s="17"/>
       <c r="AH195" s="17"/>
+      <c r="AI195" s="17"/>
     </row>
     <row r="196" ht="19.5" customHeight="1">
       <c r="A196" s="17"/>
@@ -7680,6 +7880,7 @@
       <c r="AF196" s="17"/>
       <c r="AG196" s="17"/>
       <c r="AH196" s="17"/>
+      <c r="AI196" s="17"/>
     </row>
     <row r="197" ht="19.5" customHeight="1">
       <c r="A197" s="17"/>
@@ -7716,6 +7917,7 @@
       <c r="AF197" s="17"/>
       <c r="AG197" s="17"/>
       <c r="AH197" s="17"/>
+      <c r="AI197" s="17"/>
     </row>
     <row r="198" ht="19.5" customHeight="1">
       <c r="A198" s="17"/>
@@ -7752,6 +7954,7 @@
       <c r="AF198" s="17"/>
       <c r="AG198" s="17"/>
       <c r="AH198" s="17"/>
+      <c r="AI198" s="17"/>
     </row>
     <row r="199" ht="19.5" customHeight="1">
       <c r="A199" s="17"/>
@@ -7788,6 +7991,7 @@
       <c r="AF199" s="17"/>
       <c r="AG199" s="17"/>
       <c r="AH199" s="17"/>
+      <c r="AI199" s="17"/>
     </row>
     <row r="200" ht="19.5" customHeight="1">
       <c r="A200" s="17"/>
@@ -7824,6 +8028,7 @@
       <c r="AF200" s="17"/>
       <c r="AG200" s="17"/>
       <c r="AH200" s="17"/>
+      <c r="AI200" s="17"/>
     </row>
     <row r="201" ht="19.5" customHeight="1">
       <c r="A201" s="17"/>
@@ -7860,6 +8065,7 @@
       <c r="AF201" s="17"/>
       <c r="AG201" s="17"/>
       <c r="AH201" s="17"/>
+      <c r="AI201" s="17"/>
     </row>
     <row r="202" ht="19.5" customHeight="1">
       <c r="A202" s="17"/>
@@ -7896,6 +8102,7 @@
       <c r="AF202" s="17"/>
       <c r="AG202" s="17"/>
       <c r="AH202" s="17"/>
+      <c r="AI202" s="17"/>
     </row>
     <row r="203" ht="19.5" customHeight="1">
       <c r="A203" s="17"/>
@@ -7932,6 +8139,7 @@
       <c r="AF203" s="17"/>
       <c r="AG203" s="17"/>
       <c r="AH203" s="17"/>
+      <c r="AI203" s="17"/>
     </row>
     <row r="204" ht="19.5" customHeight="1">
       <c r="A204" s="17"/>
@@ -7968,6 +8176,7 @@
       <c r="AF204" s="17"/>
       <c r="AG204" s="17"/>
       <c r="AH204" s="17"/>
+      <c r="AI204" s="17"/>
     </row>
     <row r="205" ht="19.5" customHeight="1">
       <c r="A205" s="17"/>
@@ -8004,6 +8213,7 @@
       <c r="AF205" s="17"/>
       <c r="AG205" s="17"/>
       <c r="AH205" s="17"/>
+      <c r="AI205" s="17"/>
     </row>
     <row r="206" ht="19.5" customHeight="1">
       <c r="A206" s="17"/>
@@ -8040,6 +8250,7 @@
       <c r="AF206" s="17"/>
       <c r="AG206" s="17"/>
       <c r="AH206" s="17"/>
+      <c r="AI206" s="17"/>
     </row>
     <row r="207" ht="19.5" customHeight="1">
       <c r="A207" s="17"/>
@@ -8076,6 +8287,7 @@
       <c r="AF207" s="17"/>
       <c r="AG207" s="17"/>
       <c r="AH207" s="17"/>
+      <c r="AI207" s="17"/>
     </row>
     <row r="208" ht="19.5" customHeight="1">
       <c r="A208" s="17"/>
@@ -8112,6 +8324,7 @@
       <c r="AF208" s="17"/>
       <c r="AG208" s="17"/>
       <c r="AH208" s="17"/>
+      <c r="AI208" s="17"/>
     </row>
     <row r="209" ht="19.5" customHeight="1">
       <c r="A209" s="17"/>
@@ -8148,6 +8361,7 @@
       <c r="AF209" s="17"/>
       <c r="AG209" s="17"/>
       <c r="AH209" s="17"/>
+      <c r="AI209" s="17"/>
     </row>
     <row r="210" ht="19.5" customHeight="1">
       <c r="A210" s="17"/>
@@ -8184,6 +8398,7 @@
       <c r="AF210" s="17"/>
       <c r="AG210" s="17"/>
       <c r="AH210" s="17"/>
+      <c r="AI210" s="17"/>
     </row>
     <row r="211" ht="19.5" customHeight="1">
       <c r="A211" s="17"/>
@@ -8220,6 +8435,7 @@
       <c r="AF211" s="17"/>
       <c r="AG211" s="17"/>
       <c r="AH211" s="17"/>
+      <c r="AI211" s="17"/>
     </row>
     <row r="212" ht="19.5" customHeight="1">
       <c r="A212" s="17"/>
@@ -8256,6 +8472,7 @@
       <c r="AF212" s="17"/>
       <c r="AG212" s="17"/>
       <c r="AH212" s="17"/>
+      <c r="AI212" s="17"/>
     </row>
     <row r="213" ht="19.5" customHeight="1">
       <c r="A213" s="17"/>
@@ -8292,6 +8509,7 @@
       <c r="AF213" s="17"/>
       <c r="AG213" s="17"/>
       <c r="AH213" s="17"/>
+      <c r="AI213" s="17"/>
     </row>
     <row r="214" ht="19.5" customHeight="1">
       <c r="A214" s="17"/>
@@ -8328,6 +8546,7 @@
       <c r="AF214" s="17"/>
       <c r="AG214" s="17"/>
       <c r="AH214" s="17"/>
+      <c r="AI214" s="17"/>
     </row>
     <row r="215" ht="19.5" customHeight="1">
       <c r="A215" s="17"/>
@@ -8364,6 +8583,7 @@
       <c r="AF215" s="17"/>
       <c r="AG215" s="17"/>
       <c r="AH215" s="17"/>
+      <c r="AI215" s="17"/>
     </row>
     <row r="216" ht="19.5" customHeight="1">
       <c r="A216" s="17"/>
@@ -8400,6 +8620,7 @@
       <c r="AF216" s="17"/>
       <c r="AG216" s="17"/>
       <c r="AH216" s="17"/>
+      <c r="AI216" s="17"/>
     </row>
     <row r="217" ht="19.5" customHeight="1">
       <c r="A217" s="17"/>
@@ -8436,6 +8657,7 @@
       <c r="AF217" s="17"/>
       <c r="AG217" s="17"/>
       <c r="AH217" s="17"/>
+      <c r="AI217" s="17"/>
     </row>
     <row r="218" ht="19.5" customHeight="1">
       <c r="A218" s="17"/>
@@ -8472,6 +8694,7 @@
       <c r="AF218" s="17"/>
       <c r="AG218" s="17"/>
       <c r="AH218" s="17"/>
+      <c r="AI218" s="17"/>
     </row>
     <row r="219" ht="19.5" customHeight="1">
       <c r="A219" s="17"/>
@@ -8508,6 +8731,7 @@
       <c r="AF219" s="17"/>
       <c r="AG219" s="17"/>
       <c r="AH219" s="17"/>
+      <c r="AI219" s="17"/>
     </row>
     <row r="220" ht="19.5" customHeight="1">
       <c r="A220" s="17"/>
@@ -8544,6 +8768,7 @@
       <c r="AF220" s="17"/>
       <c r="AG220" s="17"/>
       <c r="AH220" s="17"/>
+      <c r="AI220" s="17"/>
     </row>
     <row r="221" ht="19.5" customHeight="1">
       <c r="A221" s="17"/>
@@ -8580,6 +8805,7 @@
       <c r="AF221" s="17"/>
       <c r="AG221" s="17"/>
       <c r="AH221" s="17"/>
+      <c r="AI221" s="17"/>
     </row>
     <row r="222" ht="19.5" customHeight="1">
       <c r="A222" s="17"/>
@@ -8616,6 +8842,7 @@
       <c r="AF222" s="17"/>
       <c r="AG222" s="17"/>
       <c r="AH222" s="17"/>
+      <c r="AI222" s="17"/>
     </row>
     <row r="223" ht="19.5" customHeight="1">
       <c r="A223" s="17"/>
@@ -8652,6 +8879,7 @@
       <c r="AF223" s="17"/>
       <c r="AG223" s="17"/>
       <c r="AH223" s="17"/>
+      <c r="AI223" s="17"/>
     </row>
     <row r="224" ht="19.5" customHeight="1">
       <c r="A224" s="17"/>
@@ -8688,6 +8916,7 @@
       <c r="AF224" s="17"/>
       <c r="AG224" s="17"/>
       <c r="AH224" s="17"/>
+      <c r="AI224" s="17"/>
     </row>
     <row r="225" ht="19.5" customHeight="1">
       <c r="A225" s="17"/>
@@ -8724,6 +8953,7 @@
       <c r="AF225" s="17"/>
       <c r="AG225" s="17"/>
       <c r="AH225" s="17"/>
+      <c r="AI225" s="17"/>
     </row>
     <row r="226" ht="19.5" customHeight="1">
       <c r="A226" s="17"/>
@@ -8760,6 +8990,7 @@
       <c r="AF226" s="17"/>
       <c r="AG226" s="17"/>
       <c r="AH226" s="17"/>
+      <c r="AI226" s="17"/>
     </row>
     <row r="227" ht="19.5" customHeight="1">
       <c r="A227" s="17"/>
@@ -8796,6 +9027,7 @@
       <c r="AF227" s="17"/>
       <c r="AG227" s="17"/>
       <c r="AH227" s="17"/>
+      <c r="AI227" s="17"/>
     </row>
     <row r="228" ht="19.5" customHeight="1">
       <c r="A228" s="17"/>
@@ -8832,6 +9064,7 @@
       <c r="AF228" s="17"/>
       <c r="AG228" s="17"/>
       <c r="AH228" s="17"/>
+      <c r="AI228" s="17"/>
     </row>
     <row r="229" ht="19.5" customHeight="1">
       <c r="A229" s="17"/>
@@ -8868,6 +9101,7 @@
       <c r="AF229" s="17"/>
       <c r="AG229" s="17"/>
       <c r="AH229" s="17"/>
+      <c r="AI229" s="17"/>
     </row>
     <row r="230" ht="19.5" customHeight="1">
       <c r="A230" s="17"/>
@@ -8904,6 +9138,7 @@
       <c r="AF230" s="17"/>
       <c r="AG230" s="17"/>
       <c r="AH230" s="17"/>
+      <c r="AI230" s="17"/>
     </row>
     <row r="231" ht="19.5" customHeight="1">
       <c r="A231" s="17"/>
@@ -8940,6 +9175,7 @@
       <c r="AF231" s="17"/>
       <c r="AG231" s="17"/>
       <c r="AH231" s="17"/>
+      <c r="AI231" s="17"/>
     </row>
     <row r="232" ht="19.5" customHeight="1">
       <c r="A232" s="17"/>
@@ -8976,6 +9212,7 @@
       <c r="AF232" s="17"/>
       <c r="AG232" s="17"/>
       <c r="AH232" s="17"/>
+      <c r="AI232" s="17"/>
     </row>
     <row r="233" ht="19.5" customHeight="1">
       <c r="A233" s="17"/>
@@ -9012,6 +9249,7 @@
       <c r="AF233" s="17"/>
       <c r="AG233" s="17"/>
       <c r="AH233" s="17"/>
+      <c r="AI233" s="17"/>
     </row>
     <row r="234" ht="19.5" customHeight="1">
       <c r="A234" s="17"/>
@@ -9048,6 +9286,7 @@
       <c r="AF234" s="17"/>
       <c r="AG234" s="17"/>
       <c r="AH234" s="17"/>
+      <c r="AI234" s="17"/>
     </row>
     <row r="235" ht="19.5" customHeight="1">
       <c r="A235" s="17"/>
@@ -9084,6 +9323,7 @@
       <c r="AF235" s="17"/>
       <c r="AG235" s="17"/>
       <c r="AH235" s="17"/>
+      <c r="AI235" s="17"/>
     </row>
     <row r="236" ht="19.5" customHeight="1">
       <c r="A236" s="17"/>
@@ -9120,6 +9360,7 @@
       <c r="AF236" s="17"/>
       <c r="AG236" s="17"/>
       <c r="AH236" s="17"/>
+      <c r="AI236" s="17"/>
     </row>
     <row r="237" ht="19.5" customHeight="1">
       <c r="A237" s="17"/>
@@ -9156,6 +9397,7 @@
       <c r="AF237" s="17"/>
       <c r="AG237" s="17"/>
       <c r="AH237" s="17"/>
+      <c r="AI237" s="17"/>
     </row>
     <row r="238" ht="19.5" customHeight="1">
       <c r="A238" s="17"/>
@@ -9192,6 +9434,7 @@
       <c r="AF238" s="17"/>
       <c r="AG238" s="17"/>
       <c r="AH238" s="17"/>
+      <c r="AI238" s="17"/>
     </row>
     <row r="239" ht="19.5" customHeight="1">
       <c r="A239" s="17"/>
@@ -9228,6 +9471,7 @@
       <c r="AF239" s="17"/>
       <c r="AG239" s="17"/>
       <c r="AH239" s="17"/>
+      <c r="AI239" s="17"/>
     </row>
     <row r="240" ht="19.5" customHeight="1">
       <c r="A240" s="17"/>
@@ -9264,6 +9508,7 @@
       <c r="AF240" s="17"/>
       <c r="AG240" s="17"/>
       <c r="AH240" s="17"/>
+      <c r="AI240" s="17"/>
     </row>
     <row r="241" ht="19.5" customHeight="1">
       <c r="A241" s="17"/>
@@ -9300,6 +9545,7 @@
       <c r="AF241" s="17"/>
       <c r="AG241" s="17"/>
       <c r="AH241" s="17"/>
+      <c r="AI241" s="17"/>
     </row>
     <row r="242" ht="19.5" customHeight="1">
       <c r="A242" s="17"/>
@@ -9336,6 +9582,7 @@
       <c r="AF242" s="17"/>
       <c r="AG242" s="17"/>
       <c r="AH242" s="17"/>
+      <c r="AI242" s="17"/>
     </row>
     <row r="243" ht="19.5" customHeight="1">
       <c r="A243" s="17"/>
@@ -9372,6 +9619,7 @@
       <c r="AF243" s="17"/>
       <c r="AG243" s="17"/>
       <c r="AH243" s="17"/>
+      <c r="AI243" s="17"/>
     </row>
     <row r="244" ht="19.5" customHeight="1">
       <c r="A244" s="17"/>
@@ -9408,6 +9656,7 @@
       <c r="AF244" s="17"/>
       <c r="AG244" s="17"/>
       <c r="AH244" s="17"/>
+      <c r="AI244" s="17"/>
     </row>
     <row r="245" ht="19.5" customHeight="1">
       <c r="A245" s="17"/>
@@ -9444,6 +9693,7 @@
       <c r="AF245" s="17"/>
       <c r="AG245" s="17"/>
       <c r="AH245" s="17"/>
+      <c r="AI245" s="17"/>
     </row>
     <row r="246" ht="19.5" customHeight="1">
       <c r="A246" s="17"/>
@@ -9480,6 +9730,7 @@
       <c r="AF246" s="17"/>
       <c r="AG246" s="17"/>
       <c r="AH246" s="17"/>
+      <c r="AI246" s="17"/>
     </row>
     <row r="247" ht="19.5" customHeight="1">
       <c r="A247" s="17"/>
@@ -9516,6 +9767,7 @@
       <c r="AF247" s="17"/>
       <c r="AG247" s="17"/>
       <c r="AH247" s="17"/>
+      <c r="AI247" s="17"/>
     </row>
     <row r="248" ht="19.5" customHeight="1">
       <c r="A248" s="17"/>
@@ -9552,6 +9804,7 @@
       <c r="AF248" s="17"/>
       <c r="AG248" s="17"/>
       <c r="AH248" s="17"/>
+      <c r="AI248" s="17"/>
     </row>
     <row r="249" ht="19.5" customHeight="1">
       <c r="A249" s="17"/>
@@ -9588,6 +9841,7 @@
       <c r="AF249" s="17"/>
       <c r="AG249" s="17"/>
       <c r="AH249" s="17"/>
+      <c r="AI249" s="17"/>
     </row>
     <row r="250" ht="19.5" customHeight="1">
       <c r="A250" s="17"/>
@@ -9624,6 +9878,7 @@
       <c r="AF250" s="17"/>
       <c r="AG250" s="17"/>
       <c r="AH250" s="17"/>
+      <c r="AI250" s="17"/>
     </row>
     <row r="251" ht="19.5" customHeight="1">
       <c r="A251" s="17"/>
@@ -9660,6 +9915,7 @@
       <c r="AF251" s="17"/>
       <c r="AG251" s="17"/>
       <c r="AH251" s="17"/>
+      <c r="AI251" s="17"/>
     </row>
     <row r="252" ht="19.5" customHeight="1">
       <c r="A252" s="17"/>
@@ -9696,6 +9952,7 @@
       <c r="AF252" s="17"/>
       <c r="AG252" s="17"/>
       <c r="AH252" s="17"/>
+      <c r="AI252" s="17"/>
     </row>
     <row r="253" ht="19.5" customHeight="1">
       <c r="A253" s="17"/>
@@ -9732,6 +9989,7 @@
       <c r="AF253" s="17"/>
       <c r="AG253" s="17"/>
       <c r="AH253" s="17"/>
+      <c r="AI253" s="17"/>
     </row>
     <row r="254" ht="19.5" customHeight="1">
       <c r="A254" s="17"/>
@@ -9768,6 +10026,7 @@
       <c r="AF254" s="17"/>
       <c r="AG254" s="17"/>
       <c r="AH254" s="17"/>
+      <c r="AI254" s="17"/>
     </row>
     <row r="255" ht="19.5" customHeight="1">
       <c r="A255" s="17"/>
@@ -9804,6 +10063,7 @@
       <c r="AF255" s="17"/>
       <c r="AG255" s="17"/>
       <c r="AH255" s="17"/>
+      <c r="AI255" s="17"/>
     </row>
     <row r="256" ht="19.5" customHeight="1">
       <c r="A256" s="17"/>
@@ -9840,6 +10100,7 @@
       <c r="AF256" s="17"/>
       <c r="AG256" s="17"/>
       <c r="AH256" s="17"/>
+      <c r="AI256" s="17"/>
     </row>
     <row r="257" ht="19.5" customHeight="1">
       <c r="A257" s="17"/>
@@ -9876,6 +10137,7 @@
       <c r="AF257" s="17"/>
       <c r="AG257" s="17"/>
       <c r="AH257" s="17"/>
+      <c r="AI257" s="17"/>
     </row>
     <row r="258" ht="19.5" customHeight="1">
       <c r="A258" s="17"/>
@@ -9912,6 +10174,7 @@
       <c r="AF258" s="17"/>
       <c r="AG258" s="17"/>
       <c r="AH258" s="17"/>
+      <c r="AI258" s="17"/>
     </row>
     <row r="259" ht="19.5" customHeight="1">
       <c r="A259" s="17"/>
@@ -9948,6 +10211,7 @@
       <c r="AF259" s="17"/>
       <c r="AG259" s="17"/>
       <c r="AH259" s="17"/>
+      <c r="AI259" s="17"/>
     </row>
     <row r="260" ht="19.5" customHeight="1">
       <c r="A260" s="17"/>
@@ -9984,6 +10248,7 @@
       <c r="AF260" s="17"/>
       <c r="AG260" s="17"/>
       <c r="AH260" s="17"/>
+      <c r="AI260" s="17"/>
     </row>
     <row r="261" ht="19.5" customHeight="1">
       <c r="A261" s="17"/>
@@ -10020,6 +10285,7 @@
       <c r="AF261" s="17"/>
       <c r="AG261" s="17"/>
       <c r="AH261" s="17"/>
+      <c r="AI261" s="17"/>
     </row>
     <row r="262" ht="19.5" customHeight="1">
       <c r="A262" s="17"/>
@@ -10056,6 +10322,7 @@
       <c r="AF262" s="17"/>
       <c r="AG262" s="17"/>
       <c r="AH262" s="17"/>
+      <c r="AI262" s="17"/>
     </row>
     <row r="263" ht="19.5" customHeight="1">
       <c r="A263" s="17"/>
@@ -10092,6 +10359,7 @@
       <c r="AF263" s="17"/>
       <c r="AG263" s="17"/>
       <c r="AH263" s="17"/>
+      <c r="AI263" s="17"/>
     </row>
     <row r="264" ht="19.5" customHeight="1">
       <c r="A264" s="17"/>
@@ -10128,6 +10396,7 @@
       <c r="AF264" s="17"/>
       <c r="AG264" s="17"/>
       <c r="AH264" s="17"/>
+      <c r="AI264" s="17"/>
     </row>
     <row r="265" ht="19.5" customHeight="1">
       <c r="A265" s="17"/>
@@ -10164,6 +10433,7 @@
       <c r="AF265" s="17"/>
       <c r="AG265" s="17"/>
       <c r="AH265" s="17"/>
+      <c r="AI265" s="17"/>
     </row>
     <row r="266" ht="19.5" customHeight="1">
       <c r="A266" s="17"/>
@@ -10200,6 +10470,7 @@
       <c r="AF266" s="17"/>
       <c r="AG266" s="17"/>
       <c r="AH266" s="17"/>
+      <c r="AI266" s="17"/>
     </row>
     <row r="267" ht="19.5" customHeight="1">
       <c r="A267" s="17"/>
@@ -10236,6 +10507,7 @@
       <c r="AF267" s="17"/>
       <c r="AG267" s="17"/>
       <c r="AH267" s="17"/>
+      <c r="AI267" s="17"/>
     </row>
     <row r="268" ht="19.5" customHeight="1">
       <c r="A268" s="17"/>
@@ -10272,6 +10544,7 @@
       <c r="AF268" s="17"/>
       <c r="AG268" s="17"/>
       <c r="AH268" s="17"/>
+      <c r="AI268" s="17"/>
     </row>
     <row r="269" ht="19.5" customHeight="1">
       <c r="A269" s="17"/>
@@ -10308,6 +10581,7 @@
       <c r="AF269" s="17"/>
       <c r="AG269" s="17"/>
       <c r="AH269" s="17"/>
+      <c r="AI269" s="17"/>
     </row>
     <row r="270" ht="19.5" customHeight="1">
       <c r="A270" s="17"/>
@@ -10344,6 +10618,7 @@
       <c r="AF270" s="17"/>
       <c r="AG270" s="17"/>
       <c r="AH270" s="17"/>
+      <c r="AI270" s="17"/>
     </row>
     <row r="271" ht="19.5" customHeight="1">
       <c r="A271" s="17"/>
@@ -10380,6 +10655,7 @@
       <c r="AF271" s="17"/>
       <c r="AG271" s="17"/>
       <c r="AH271" s="17"/>
+      <c r="AI271" s="17"/>
     </row>
     <row r="272" ht="19.5" customHeight="1">
       <c r="A272" s="17"/>
@@ -10416,6 +10692,7 @@
       <c r="AF272" s="17"/>
       <c r="AG272" s="17"/>
       <c r="AH272" s="17"/>
+      <c r="AI272" s="17"/>
     </row>
     <row r="273" ht="19.5" customHeight="1">
       <c r="A273" s="17"/>
@@ -10452,6 +10729,7 @@
       <c r="AF273" s="17"/>
       <c r="AG273" s="17"/>
       <c r="AH273" s="17"/>
+      <c r="AI273" s="17"/>
     </row>
     <row r="274" ht="19.5" customHeight="1">
       <c r="A274" s="17"/>
@@ -10488,6 +10766,7 @@
       <c r="AF274" s="17"/>
       <c r="AG274" s="17"/>
       <c r="AH274" s="17"/>
+      <c r="AI274" s="17"/>
     </row>
     <row r="275" ht="19.5" customHeight="1">
       <c r="A275" s="17"/>
@@ -10524,6 +10803,7 @@
       <c r="AF275" s="17"/>
       <c r="AG275" s="17"/>
       <c r="AH275" s="17"/>
+      <c r="AI275" s="17"/>
     </row>
     <row r="276" ht="19.5" customHeight="1">
       <c r="A276" s="17"/>
@@ -10560,6 +10840,7 @@
       <c r="AF276" s="17"/>
       <c r="AG276" s="17"/>
       <c r="AH276" s="17"/>
+      <c r="AI276" s="17"/>
     </row>
     <row r="277" ht="19.5" customHeight="1">
       <c r="A277" s="17"/>
@@ -10596,6 +10877,7 @@
       <c r="AF277" s="17"/>
       <c r="AG277" s="17"/>
       <c r="AH277" s="17"/>
+      <c r="AI277" s="17"/>
     </row>
     <row r="278" ht="19.5" customHeight="1">
       <c r="A278" s="17"/>
@@ -10632,6 +10914,7 @@
       <c r="AF278" s="17"/>
       <c r="AG278" s="17"/>
       <c r="AH278" s="17"/>
+      <c r="AI278" s="17"/>
     </row>
     <row r="279" ht="19.5" customHeight="1">
       <c r="A279" s="17"/>
@@ -10668,6 +10951,7 @@
       <c r="AF279" s="17"/>
       <c r="AG279" s="17"/>
       <c r="AH279" s="17"/>
+      <c r="AI279" s="17"/>
     </row>
     <row r="280" ht="19.5" customHeight="1">
       <c r="A280" s="17"/>
@@ -10704,6 +10988,7 @@
       <c r="AF280" s="17"/>
       <c r="AG280" s="17"/>
       <c r="AH280" s="17"/>
+      <c r="AI280" s="17"/>
     </row>
     <row r="281" ht="19.5" customHeight="1">
       <c r="A281" s="17"/>
@@ -10740,6 +11025,7 @@
       <c r="AF281" s="17"/>
       <c r="AG281" s="17"/>
       <c r="AH281" s="17"/>
+      <c r="AI281" s="17"/>
     </row>
     <row r="282" ht="19.5" customHeight="1">
       <c r="A282" s="17"/>
@@ -10776,6 +11062,7 @@
       <c r="AF282" s="17"/>
       <c r="AG282" s="17"/>
       <c r="AH282" s="17"/>
+      <c r="AI282" s="17"/>
     </row>
     <row r="283" ht="19.5" customHeight="1">
       <c r="A283" s="17"/>
@@ -10812,6 +11099,7 @@
       <c r="AF283" s="17"/>
       <c r="AG283" s="17"/>
       <c r="AH283" s="17"/>
+      <c r="AI283" s="17"/>
     </row>
     <row r="284" ht="19.5" customHeight="1">
       <c r="A284" s="17"/>
@@ -10848,6 +11136,7 @@
       <c r="AF284" s="17"/>
       <c r="AG284" s="17"/>
       <c r="AH284" s="17"/>
+      <c r="AI284" s="17"/>
     </row>
     <row r="285" ht="19.5" customHeight="1">
       <c r="A285" s="17"/>
@@ -10884,6 +11173,7 @@
       <c r="AF285" s="17"/>
       <c r="AG285" s="17"/>
       <c r="AH285" s="17"/>
+      <c r="AI285" s="17"/>
     </row>
     <row r="286" ht="19.5" customHeight="1">
       <c r="A286" s="17"/>
@@ -10920,6 +11210,7 @@
       <c r="AF286" s="17"/>
       <c r="AG286" s="17"/>
       <c r="AH286" s="17"/>
+      <c r="AI286" s="17"/>
     </row>
     <row r="287" ht="19.5" customHeight="1">
       <c r="A287" s="17"/>
@@ -10956,6 +11247,7 @@
       <c r="AF287" s="17"/>
       <c r="AG287" s="17"/>
       <c r="AH287" s="17"/>
+      <c r="AI287" s="17"/>
     </row>
     <row r="288" ht="19.5" customHeight="1">
       <c r="A288" s="17"/>
@@ -10992,6 +11284,7 @@
       <c r="AF288" s="17"/>
       <c r="AG288" s="17"/>
       <c r="AH288" s="17"/>
+      <c r="AI288" s="17"/>
     </row>
     <row r="289" ht="19.5" customHeight="1">
       <c r="A289" s="17"/>
@@ -11028,6 +11321,7 @@
       <c r="AF289" s="17"/>
       <c r="AG289" s="17"/>
       <c r="AH289" s="17"/>
+      <c r="AI289" s="17"/>
     </row>
     <row r="290" ht="19.5" customHeight="1">
       <c r="A290" s="17"/>
@@ -11064,6 +11358,7 @@
       <c r="AF290" s="17"/>
       <c r="AG290" s="17"/>
       <c r="AH290" s="17"/>
+      <c r="AI290" s="17"/>
     </row>
     <row r="291" ht="19.5" customHeight="1">
       <c r="A291" s="17"/>
@@ -11100,6 +11395,7 @@
       <c r="AF291" s="17"/>
       <c r="AG291" s="17"/>
       <c r="AH291" s="17"/>
+      <c r="AI291" s="17"/>
     </row>
     <row r="292" ht="19.5" customHeight="1">
       <c r="A292" s="17"/>
@@ -11136,6 +11432,7 @@
       <c r="AF292" s="17"/>
       <c r="AG292" s="17"/>
       <c r="AH292" s="17"/>
+      <c r="AI292" s="17"/>
     </row>
     <row r="293" ht="19.5" customHeight="1">
       <c r="A293" s="17"/>
@@ -11172,6 +11469,7 @@
       <c r="AF293" s="17"/>
       <c r="AG293" s="17"/>
       <c r="AH293" s="17"/>
+      <c r="AI293" s="17"/>
     </row>
     <row r="294" ht="19.5" customHeight="1">
       <c r="A294" s="17"/>
@@ -11208,6 +11506,7 @@
       <c r="AF294" s="17"/>
       <c r="AG294" s="17"/>
       <c r="AH294" s="17"/>
+      <c r="AI294" s="17"/>
     </row>
     <row r="295" ht="19.5" customHeight="1">
       <c r="A295" s="17"/>
@@ -11244,6 +11543,7 @@
       <c r="AF295" s="17"/>
       <c r="AG295" s="17"/>
       <c r="AH295" s="17"/>
+      <c r="AI295" s="17"/>
     </row>
     <row r="296" ht="19.5" customHeight="1">
       <c r="A296" s="17"/>
@@ -11280,6 +11580,7 @@
       <c r="AF296" s="17"/>
       <c r="AG296" s="17"/>
       <c r="AH296" s="17"/>
+      <c r="AI296" s="17"/>
     </row>
     <row r="297" ht="19.5" customHeight="1">
       <c r="A297" s="17"/>
@@ -11316,6 +11617,7 @@
       <c r="AF297" s="17"/>
       <c r="AG297" s="17"/>
       <c r="AH297" s="17"/>
+      <c r="AI297" s="17"/>
     </row>
     <row r="298" ht="19.5" customHeight="1">
       <c r="A298" s="17"/>
@@ -11352,6 +11654,7 @@
       <c r="AF298" s="17"/>
       <c r="AG298" s="17"/>
       <c r="AH298" s="17"/>
+      <c r="AI298" s="17"/>
     </row>
     <row r="299" ht="19.5" customHeight="1">
       <c r="A299" s="17"/>
@@ -11388,6 +11691,7 @@
       <c r="AF299" s="17"/>
       <c r="AG299" s="17"/>
       <c r="AH299" s="17"/>
+      <c r="AI299" s="17"/>
     </row>
     <row r="300" ht="19.5" customHeight="1">
       <c r="A300" s="17"/>
@@ -11424,6 +11728,7 @@
       <c r="AF300" s="17"/>
       <c r="AG300" s="17"/>
       <c r="AH300" s="17"/>
+      <c r="AI300" s="17"/>
     </row>
     <row r="301" ht="19.5" customHeight="1">
       <c r="A301" s="17"/>
@@ -11460,6 +11765,7 @@
       <c r="AF301" s="17"/>
       <c r="AG301" s="17"/>
       <c r="AH301" s="17"/>
+      <c r="AI301" s="17"/>
     </row>
     <row r="302" ht="19.5" customHeight="1">
       <c r="A302" s="17"/>
@@ -11496,6 +11802,7 @@
       <c r="AF302" s="17"/>
       <c r="AG302" s="17"/>
       <c r="AH302" s="17"/>
+      <c r="AI302" s="17"/>
     </row>
     <row r="303" ht="19.5" customHeight="1">
       <c r="A303" s="17"/>
@@ -11532,6 +11839,7 @@
       <c r="AF303" s="17"/>
       <c r="AG303" s="17"/>
       <c r="AH303" s="17"/>
+      <c r="AI303" s="17"/>
     </row>
     <row r="304" ht="19.5" customHeight="1">
       <c r="A304" s="17"/>
@@ -11568,6 +11876,7 @@
       <c r="AF304" s="17"/>
       <c r="AG304" s="17"/>
       <c r="AH304" s="17"/>
+      <c r="AI304" s="17"/>
     </row>
     <row r="305" ht="19.5" customHeight="1">
       <c r="A305" s="17"/>
@@ -11604,6 +11913,7 @@
       <c r="AF305" s="17"/>
       <c r="AG305" s="17"/>
       <c r="AH305" s="17"/>
+      <c r="AI305" s="17"/>
     </row>
     <row r="306" ht="19.5" customHeight="1">
       <c r="A306" s="17"/>
@@ -11640,6 +11950,7 @@
       <c r="AF306" s="17"/>
       <c r="AG306" s="17"/>
       <c r="AH306" s="17"/>
+      <c r="AI306" s="17"/>
     </row>
     <row r="307" ht="19.5" customHeight="1">
       <c r="A307" s="17"/>
@@ -11676,6 +11987,7 @@
       <c r="AF307" s="17"/>
       <c r="AG307" s="17"/>
       <c r="AH307" s="17"/>
+      <c r="AI307" s="17"/>
     </row>
     <row r="308" ht="19.5" customHeight="1">
       <c r="A308" s="17"/>
@@ -11712,6 +12024,7 @@
       <c r="AF308" s="17"/>
       <c r="AG308" s="17"/>
       <c r="AH308" s="17"/>
+      <c r="AI308" s="17"/>
     </row>
     <row r="309" ht="19.5" customHeight="1">
       <c r="A309" s="17"/>
@@ -11748,6 +12061,7 @@
       <c r="AF309" s="17"/>
       <c r="AG309" s="17"/>
       <c r="AH309" s="17"/>
+      <c r="AI309" s="17"/>
     </row>
     <row r="310" ht="19.5" customHeight="1">
       <c r="A310" s="17"/>
@@ -11784,6 +12098,7 @@
       <c r="AF310" s="17"/>
       <c r="AG310" s="17"/>
       <c r="AH310" s="17"/>
+      <c r="AI310" s="17"/>
     </row>
     <row r="311" ht="19.5" customHeight="1">
       <c r="A311" s="17"/>
@@ -11820,6 +12135,7 @@
       <c r="AF311" s="17"/>
       <c r="AG311" s="17"/>
       <c r="AH311" s="17"/>
+      <c r="AI311" s="17"/>
     </row>
     <row r="312" ht="19.5" customHeight="1">
       <c r="A312" s="17"/>
@@ -11856,6 +12172,7 @@
       <c r="AF312" s="17"/>
       <c r="AG312" s="17"/>
       <c r="AH312" s="17"/>
+      <c r="AI312" s="17"/>
     </row>
     <row r="313" ht="19.5" customHeight="1">
       <c r="A313" s="17"/>
@@ -11892,6 +12209,7 @@
       <c r="AF313" s="17"/>
       <c r="AG313" s="17"/>
       <c r="AH313" s="17"/>
+      <c r="AI313" s="17"/>
     </row>
     <row r="314" ht="19.5" customHeight="1">
       <c r="A314" s="17"/>
@@ -11928,6 +12246,7 @@
       <c r="AF314" s="17"/>
       <c r="AG314" s="17"/>
       <c r="AH314" s="17"/>
+      <c r="AI314" s="17"/>
     </row>
     <row r="315" ht="19.5" customHeight="1">
       <c r="A315" s="17"/>
@@ -11964,6 +12283,7 @@
       <c r="AF315" s="17"/>
       <c r="AG315" s="17"/>
       <c r="AH315" s="17"/>
+      <c r="AI315" s="17"/>
     </row>
     <row r="316" ht="19.5" customHeight="1">
       <c r="A316" s="17"/>
@@ -12000,6 +12320,7 @@
       <c r="AF316" s="17"/>
       <c r="AG316" s="17"/>
       <c r="AH316" s="17"/>
+      <c r="AI316" s="17"/>
     </row>
     <row r="317" ht="19.5" customHeight="1">
       <c r="A317" s="17"/>
@@ -12036,6 +12357,7 @@
       <c r="AF317" s="17"/>
       <c r="AG317" s="17"/>
       <c r="AH317" s="17"/>
+      <c r="AI317" s="17"/>
     </row>
     <row r="318" ht="19.5" customHeight="1">
       <c r="A318" s="17"/>
@@ -12072,6 +12394,7 @@
       <c r="AF318" s="17"/>
       <c r="AG318" s="17"/>
       <c r="AH318" s="17"/>
+      <c r="AI318" s="17"/>
     </row>
     <row r="319" ht="19.5" customHeight="1">
       <c r="A319" s="17"/>
@@ -12108,6 +12431,7 @@
       <c r="AF319" s="17"/>
       <c r="AG319" s="17"/>
       <c r="AH319" s="17"/>
+      <c r="AI319" s="17"/>
     </row>
     <row r="320" ht="19.5" customHeight="1">
       <c r="A320" s="17"/>
@@ -12144,6 +12468,7 @@
       <c r="AF320" s="17"/>
       <c r="AG320" s="17"/>
       <c r="AH320" s="17"/>
+      <c r="AI320" s="17"/>
     </row>
     <row r="321" ht="19.5" customHeight="1">
       <c r="A321" s="17"/>
@@ -12180,6 +12505,7 @@
       <c r="AF321" s="17"/>
       <c r="AG321" s="17"/>
       <c r="AH321" s="17"/>
+      <c r="AI321" s="17"/>
     </row>
     <row r="322" ht="19.5" customHeight="1">
       <c r="A322" s="17"/>
@@ -12216,6 +12542,7 @@
       <c r="AF322" s="17"/>
       <c r="AG322" s="17"/>
       <c r="AH322" s="17"/>
+      <c r="AI322" s="17"/>
     </row>
     <row r="323" ht="19.5" customHeight="1">
       <c r="A323" s="17"/>
@@ -12252,6 +12579,7 @@
       <c r="AF323" s="17"/>
       <c r="AG323" s="17"/>
       <c r="AH323" s="17"/>
+      <c r="AI323" s="17"/>
     </row>
     <row r="324" ht="19.5" customHeight="1">
       <c r="A324" s="17"/>
@@ -12288,6 +12616,7 @@
       <c r="AF324" s="17"/>
       <c r="AG324" s="17"/>
       <c r="AH324" s="17"/>
+      <c r="AI324" s="17"/>
     </row>
     <row r="325" ht="19.5" customHeight="1">
       <c r="A325" s="17"/>
@@ -12324,6 +12653,7 @@
       <c r="AF325" s="17"/>
       <c r="AG325" s="17"/>
       <c r="AH325" s="17"/>
+      <c r="AI325" s="17"/>
     </row>
     <row r="326" ht="19.5" customHeight="1">
       <c r="A326" s="17"/>
@@ -12360,6 +12690,7 @@
       <c r="AF326" s="17"/>
       <c r="AG326" s="17"/>
       <c r="AH326" s="17"/>
+      <c r="AI326" s="17"/>
     </row>
     <row r="327" ht="19.5" customHeight="1">
       <c r="A327" s="17"/>
@@ -12396,6 +12727,7 @@
       <c r="AF327" s="17"/>
       <c r="AG327" s="17"/>
       <c r="AH327" s="17"/>
+      <c r="AI327" s="17"/>
     </row>
     <row r="328" ht="19.5" customHeight="1">
       <c r="A328" s="17"/>
@@ -12432,6 +12764,7 @@
       <c r="AF328" s="17"/>
       <c r="AG328" s="17"/>
       <c r="AH328" s="17"/>
+      <c r="AI328" s="17"/>
     </row>
     <row r="329" ht="19.5" customHeight="1">
       <c r="A329" s="17"/>
@@ -12468,6 +12801,7 @@
       <c r="AF329" s="17"/>
       <c r="AG329" s="17"/>
       <c r="AH329" s="17"/>
+      <c r="AI329" s="17"/>
     </row>
     <row r="330" ht="19.5" customHeight="1">
       <c r="A330" s="17"/>
@@ -12504,6 +12838,7 @@
       <c r="AF330" s="17"/>
       <c r="AG330" s="17"/>
       <c r="AH330" s="17"/>
+      <c r="AI330" s="17"/>
     </row>
     <row r="331" ht="19.5" customHeight="1">
       <c r="A331" s="17"/>
@@ -12540,6 +12875,7 @@
       <c r="AF331" s="17"/>
       <c r="AG331" s="17"/>
       <c r="AH331" s="17"/>
+      <c r="AI331" s="17"/>
     </row>
     <row r="332" ht="19.5" customHeight="1">
       <c r="A332" s="17"/>
@@ -12576,6 +12912,7 @@
       <c r="AF332" s="17"/>
       <c r="AG332" s="17"/>
       <c r="AH332" s="17"/>
+      <c r="AI332" s="17"/>
     </row>
     <row r="333" ht="19.5" customHeight="1">
       <c r="A333" s="17"/>
@@ -12612,6 +12949,7 @@
       <c r="AF333" s="17"/>
       <c r="AG333" s="17"/>
       <c r="AH333" s="17"/>
+      <c r="AI333" s="17"/>
     </row>
     <row r="334" ht="19.5" customHeight="1">
       <c r="A334" s="17"/>
@@ -12648,6 +12986,7 @@
       <c r="AF334" s="17"/>
       <c r="AG334" s="17"/>
       <c r="AH334" s="17"/>
+      <c r="AI334" s="17"/>
     </row>
     <row r="335" ht="19.5" customHeight="1">
       <c r="A335" s="17"/>
@@ -12684,6 +13023,7 @@
       <c r="AF335" s="17"/>
       <c r="AG335" s="17"/>
       <c r="AH335" s="17"/>
+      <c r="AI335" s="17"/>
     </row>
     <row r="336" ht="19.5" customHeight="1">
       <c r="A336" s="17"/>
@@ -12720,6 +13060,7 @@
       <c r="AF336" s="17"/>
       <c r="AG336" s="17"/>
       <c r="AH336" s="17"/>
+      <c r="AI336" s="17"/>
     </row>
     <row r="337" ht="19.5" customHeight="1">
       <c r="A337" s="17"/>
@@ -12756,6 +13097,7 @@
       <c r="AF337" s="17"/>
       <c r="AG337" s="17"/>
       <c r="AH337" s="17"/>
+      <c r="AI337" s="17"/>
     </row>
     <row r="338" ht="19.5" customHeight="1">
       <c r="A338" s="17"/>
@@ -12792,6 +13134,7 @@
       <c r="AF338" s="17"/>
       <c r="AG338" s="17"/>
       <c r="AH338" s="17"/>
+      <c r="AI338" s="17"/>
     </row>
     <row r="339" ht="19.5" customHeight="1">
       <c r="A339" s="17"/>
@@ -12828,6 +13171,7 @@
       <c r="AF339" s="17"/>
       <c r="AG339" s="17"/>
       <c r="AH339" s="17"/>
+      <c r="AI339" s="17"/>
     </row>
     <row r="340" ht="19.5" customHeight="1">
       <c r="A340" s="17"/>
@@ -12864,6 +13208,7 @@
       <c r="AF340" s="17"/>
       <c r="AG340" s="17"/>
       <c r="AH340" s="17"/>
+      <c r="AI340" s="17"/>
     </row>
     <row r="341" ht="19.5" customHeight="1">
       <c r="A341" s="17"/>
@@ -12900,6 +13245,7 @@
       <c r="AF341" s="17"/>
       <c r="AG341" s="17"/>
       <c r="AH341" s="17"/>
+      <c r="AI341" s="17"/>
     </row>
     <row r="342" ht="19.5" customHeight="1">
       <c r="A342" s="17"/>
@@ -12936,6 +13282,7 @@
       <c r="AF342" s="17"/>
       <c r="AG342" s="17"/>
       <c r="AH342" s="17"/>
+      <c r="AI342" s="17"/>
     </row>
     <row r="343" ht="19.5" customHeight="1">
       <c r="A343" s="17"/>
@@ -12972,6 +13319,7 @@
       <c r="AF343" s="17"/>
       <c r="AG343" s="17"/>
       <c r="AH343" s="17"/>
+      <c r="AI343" s="17"/>
     </row>
     <row r="344" ht="19.5" customHeight="1">
       <c r="A344" s="17"/>
@@ -13008,6 +13356,7 @@
       <c r="AF344" s="17"/>
       <c r="AG344" s="17"/>
       <c r="AH344" s="17"/>
+      <c r="AI344" s="17"/>
     </row>
     <row r="345" ht="19.5" customHeight="1">
       <c r="A345" s="17"/>
@@ -13044,6 +13393,7 @@
       <c r="AF345" s="17"/>
       <c r="AG345" s="17"/>
       <c r="AH345" s="17"/>
+      <c r="AI345" s="17"/>
     </row>
     <row r="346" ht="19.5" customHeight="1">
       <c r="A346" s="17"/>
@@ -13080,6 +13430,7 @@
       <c r="AF346" s="17"/>
       <c r="AG346" s="17"/>
       <c r="AH346" s="17"/>
+      <c r="AI346" s="17"/>
     </row>
     <row r="347" ht="19.5" customHeight="1">
       <c r="A347" s="17"/>
@@ -13116,6 +13467,7 @@
       <c r="AF347" s="17"/>
       <c r="AG347" s="17"/>
       <c r="AH347" s="17"/>
+      <c r="AI347" s="17"/>
     </row>
     <row r="348" ht="19.5" customHeight="1">
       <c r="A348" s="17"/>
@@ -13152,6 +13504,7 @@
       <c r="AF348" s="17"/>
       <c r="AG348" s="17"/>
       <c r="AH348" s="17"/>
+      <c r="AI348" s="17"/>
     </row>
     <row r="349" ht="19.5" customHeight="1">
       <c r="A349" s="17"/>
@@ -13188,6 +13541,7 @@
       <c r="AF349" s="17"/>
       <c r="AG349" s="17"/>
       <c r="AH349" s="17"/>
+      <c r="AI349" s="17"/>
     </row>
     <row r="350" ht="19.5" customHeight="1">
       <c r="A350" s="17"/>
@@ -13224,6 +13578,7 @@
       <c r="AF350" s="17"/>
       <c r="AG350" s="17"/>
       <c r="AH350" s="17"/>
+      <c r="AI350" s="17"/>
     </row>
     <row r="351" ht="19.5" customHeight="1">
       <c r="A351" s="17"/>
@@ -13260,6 +13615,7 @@
       <c r="AF351" s="17"/>
       <c r="AG351" s="17"/>
       <c r="AH351" s="17"/>
+      <c r="AI351" s="17"/>
     </row>
     <row r="352" ht="19.5" customHeight="1">
       <c r="A352" s="17"/>
@@ -13296,6 +13652,7 @@
       <c r="AF352" s="17"/>
       <c r="AG352" s="17"/>
       <c r="AH352" s="17"/>
+      <c r="AI352" s="17"/>
     </row>
     <row r="353" ht="19.5" customHeight="1">
       <c r="A353" s="17"/>
@@ -13332,6 +13689,7 @@
       <c r="AF353" s="17"/>
       <c r="AG353" s="17"/>
       <c r="AH353" s="17"/>
+      <c r="AI353" s="17"/>
     </row>
     <row r="354" ht="19.5" customHeight="1">
       <c r="A354" s="17"/>
@@ -13368,6 +13726,7 @@
       <c r="AF354" s="17"/>
       <c r="AG354" s="17"/>
       <c r="AH354" s="17"/>
+      <c r="AI354" s="17"/>
     </row>
     <row r="355" ht="19.5" customHeight="1">
       <c r="A355" s="17"/>
@@ -13404,6 +13763,7 @@
       <c r="AF355" s="17"/>
       <c r="AG355" s="17"/>
       <c r="AH355" s="17"/>
+      <c r="AI355" s="17"/>
     </row>
     <row r="356" ht="19.5" customHeight="1">
       <c r="A356" s="17"/>
@@ -13440,6 +13800,7 @@
       <c r="AF356" s="17"/>
       <c r="AG356" s="17"/>
       <c r="AH356" s="17"/>
+      <c r="AI356" s="17"/>
     </row>
     <row r="357" ht="19.5" customHeight="1">
       <c r="A357" s="17"/>
@@ -13476,6 +13837,7 @@
       <c r="AF357" s="17"/>
       <c r="AG357" s="17"/>
       <c r="AH357" s="17"/>
+      <c r="AI357" s="17"/>
     </row>
     <row r="358" ht="19.5" customHeight="1">
       <c r="A358" s="17"/>
@@ -13512,6 +13874,7 @@
       <c r="AF358" s="17"/>
       <c r="AG358" s="17"/>
       <c r="AH358" s="17"/>
+      <c r="AI358" s="17"/>
     </row>
     <row r="359" ht="19.5" customHeight="1">
       <c r="A359" s="17"/>
@@ -13548,6 +13911,7 @@
       <c r="AF359" s="17"/>
       <c r="AG359" s="17"/>
       <c r="AH359" s="17"/>
+      <c r="AI359" s="17"/>
     </row>
     <row r="360" ht="19.5" customHeight="1">
       <c r="A360" s="17"/>
@@ -13584,6 +13948,7 @@
       <c r="AF360" s="17"/>
       <c r="AG360" s="17"/>
       <c r="AH360" s="17"/>
+      <c r="AI360" s="17"/>
     </row>
     <row r="361" ht="19.5" customHeight="1">
       <c r="A361" s="17"/>
@@ -13620,6 +13985,7 @@
       <c r="AF361" s="17"/>
       <c r="AG361" s="17"/>
       <c r="AH361" s="17"/>
+      <c r="AI361" s="17"/>
     </row>
     <row r="362" ht="19.5" customHeight="1">
       <c r="A362" s="17"/>
@@ -13656,6 +14022,7 @@
       <c r="AF362" s="17"/>
       <c r="AG362" s="17"/>
       <c r="AH362" s="17"/>
+      <c r="AI362" s="17"/>
     </row>
     <row r="363" ht="19.5" customHeight="1">
       <c r="A363" s="17"/>
@@ -13692,6 +14059,7 @@
       <c r="AF363" s="17"/>
       <c r="AG363" s="17"/>
       <c r="AH363" s="17"/>
+      <c r="AI363" s="17"/>
     </row>
     <row r="364" ht="19.5" customHeight="1">
       <c r="A364" s="17"/>
@@ -13728,6 +14096,7 @@
       <c r="AF364" s="17"/>
       <c r="AG364" s="17"/>
       <c r="AH364" s="17"/>
+      <c r="AI364" s="17"/>
     </row>
     <row r="365" ht="19.5" customHeight="1">
       <c r="A365" s="17"/>
@@ -13764,6 +14133,7 @@
       <c r="AF365" s="17"/>
       <c r="AG365" s="17"/>
       <c r="AH365" s="17"/>
+      <c r="AI365" s="17"/>
     </row>
     <row r="366" ht="19.5" customHeight="1">
       <c r="A366" s="17"/>
@@ -13800,6 +14170,7 @@
       <c r="AF366" s="17"/>
       <c r="AG366" s="17"/>
       <c r="AH366" s="17"/>
+      <c r="AI366" s="17"/>
     </row>
     <row r="367" ht="19.5" customHeight="1">
       <c r="A367" s="17"/>
@@ -13836,6 +14207,7 @@
       <c r="AF367" s="17"/>
       <c r="AG367" s="17"/>
       <c r="AH367" s="17"/>
+      <c r="AI367" s="17"/>
     </row>
     <row r="368" ht="19.5" customHeight="1">
       <c r="A368" s="17"/>
@@ -13872,6 +14244,7 @@
       <c r="AF368" s="17"/>
       <c r="AG368" s="17"/>
       <c r="AH368" s="17"/>
+      <c r="AI368" s="17"/>
     </row>
     <row r="369" ht="19.5" customHeight="1">
       <c r="A369" s="17"/>
@@ -13908,6 +14281,7 @@
       <c r="AF369" s="17"/>
       <c r="AG369" s="17"/>
       <c r="AH369" s="17"/>
+      <c r="AI369" s="17"/>
     </row>
     <row r="370" ht="19.5" customHeight="1">
       <c r="A370" s="17"/>
@@ -13944,6 +14318,7 @@
       <c r="AF370" s="17"/>
       <c r="AG370" s="17"/>
       <c r="AH370" s="17"/>
+      <c r="AI370" s="17"/>
     </row>
     <row r="371" ht="19.5" customHeight="1">
       <c r="A371" s="17"/>
@@ -13980,6 +14355,7 @@
       <c r="AF371" s="17"/>
       <c r="AG371" s="17"/>
       <c r="AH371" s="17"/>
+      <c r="AI371" s="17"/>
     </row>
     <row r="372" ht="19.5" customHeight="1">
       <c r="A372" s="17"/>
@@ -14016,6 +14392,7 @@
       <c r="AF372" s="17"/>
       <c r="AG372" s="17"/>
       <c r="AH372" s="17"/>
+      <c r="AI372" s="17"/>
     </row>
     <row r="373" ht="19.5" customHeight="1">
       <c r="A373" s="17"/>
@@ -14052,6 +14429,7 @@
       <c r="AF373" s="17"/>
       <c r="AG373" s="17"/>
       <c r="AH373" s="17"/>
+      <c r="AI373" s="17"/>
     </row>
     <row r="374" ht="19.5" customHeight="1">
       <c r="A374" s="17"/>
@@ -14088,6 +14466,7 @@
       <c r="AF374" s="17"/>
       <c r="AG374" s="17"/>
       <c r="AH374" s="17"/>
+      <c r="AI374" s="17"/>
     </row>
     <row r="375" ht="19.5" customHeight="1">
       <c r="A375" s="17"/>
@@ -14124,6 +14503,7 @@
       <c r="AF375" s="17"/>
       <c r="AG375" s="17"/>
       <c r="AH375" s="17"/>
+      <c r="AI375" s="17"/>
     </row>
     <row r="376" ht="19.5" customHeight="1">
       <c r="A376" s="17"/>
@@ -14160,6 +14540,7 @@
       <c r="AF376" s="17"/>
       <c r="AG376" s="17"/>
       <c r="AH376" s="17"/>
+      <c r="AI376" s="17"/>
     </row>
     <row r="377" ht="19.5" customHeight="1">
       <c r="A377" s="17"/>
@@ -14196,6 +14577,7 @@
       <c r="AF377" s="17"/>
       <c r="AG377" s="17"/>
       <c r="AH377" s="17"/>
+      <c r="AI377" s="17"/>
     </row>
     <row r="378" ht="19.5" customHeight="1">
       <c r="A378" s="17"/>
@@ -14232,6 +14614,7 @@
       <c r="AF378" s="17"/>
       <c r="AG378" s="17"/>
       <c r="AH378" s="17"/>
+      <c r="AI378" s="17"/>
     </row>
     <row r="379" ht="19.5" customHeight="1">
       <c r="A379" s="17"/>
@@ -14268,6 +14651,7 @@
       <c r="AF379" s="17"/>
       <c r="AG379" s="17"/>
       <c r="AH379" s="17"/>
+      <c r="AI379" s="17"/>
     </row>
     <row r="380" ht="19.5" customHeight="1">
       <c r="A380" s="17"/>
@@ -14304,6 +14688,7 @@
       <c r="AF380" s="17"/>
       <c r="AG380" s="17"/>
       <c r="AH380" s="17"/>
+      <c r="AI380" s="17"/>
     </row>
     <row r="381" ht="19.5" customHeight="1">
       <c r="A381" s="17"/>
@@ -14340,6 +14725,7 @@
       <c r="AF381" s="17"/>
       <c r="AG381" s="17"/>
       <c r="AH381" s="17"/>
+      <c r="AI381" s="17"/>
     </row>
     <row r="382" ht="19.5" customHeight="1">
       <c r="A382" s="17"/>
@@ -14376,6 +14762,7 @@
       <c r="AF382" s="17"/>
       <c r="AG382" s="17"/>
       <c r="AH382" s="17"/>
+      <c r="AI382" s="17"/>
     </row>
     <row r="383" ht="19.5" customHeight="1">
       <c r="A383" s="17"/>
@@ -14412,6 +14799,7 @@
       <c r="AF383" s="17"/>
       <c r="AG383" s="17"/>
       <c r="AH383" s="17"/>
+      <c r="AI383" s="17"/>
     </row>
     <row r="384" ht="19.5" customHeight="1">
       <c r="A384" s="17"/>
@@ -14448,6 +14836,7 @@
       <c r="AF384" s="17"/>
       <c r="AG384" s="17"/>
       <c r="AH384" s="17"/>
+      <c r="AI384" s="17"/>
     </row>
     <row r="385" ht="19.5" customHeight="1">
       <c r="A385" s="17"/>
@@ -14484,6 +14873,7 @@
       <c r="AF385" s="17"/>
       <c r="AG385" s="17"/>
       <c r="AH385" s="17"/>
+      <c r="AI385" s="17"/>
     </row>
     <row r="386" ht="19.5" customHeight="1">
       <c r="A386" s="17"/>
@@ -14520,6 +14910,7 @@
       <c r="AF386" s="17"/>
       <c r="AG386" s="17"/>
       <c r="AH386" s="17"/>
+      <c r="AI386" s="17"/>
     </row>
     <row r="387" ht="19.5" customHeight="1">
       <c r="A387" s="17"/>
@@ -14556,6 +14947,7 @@
       <c r="AF387" s="17"/>
       <c r="AG387" s="17"/>
       <c r="AH387" s="17"/>
+      <c r="AI387" s="17"/>
     </row>
     <row r="388" ht="19.5" customHeight="1">
       <c r="A388" s="17"/>
@@ -14592,6 +14984,7 @@
       <c r="AF388" s="17"/>
       <c r="AG388" s="17"/>
       <c r="AH388" s="17"/>
+      <c r="AI388" s="17"/>
     </row>
     <row r="389" ht="19.5" customHeight="1">
       <c r="A389" s="17"/>
@@ -14628,6 +15021,7 @@
       <c r="AF389" s="17"/>
       <c r="AG389" s="17"/>
       <c r="AH389" s="17"/>
+      <c r="AI389" s="17"/>
     </row>
     <row r="390" ht="19.5" customHeight="1">
       <c r="A390" s="17"/>
@@ -14664,6 +15058,7 @@
       <c r="AF390" s="17"/>
       <c r="AG390" s="17"/>
       <c r="AH390" s="17"/>
+      <c r="AI390" s="17"/>
     </row>
     <row r="391" ht="19.5" customHeight="1">
       <c r="A391" s="17"/>
@@ -14700,6 +15095,7 @@
       <c r="AF391" s="17"/>
       <c r="AG391" s="17"/>
       <c r="AH391" s="17"/>
+      <c r="AI391" s="17"/>
     </row>
     <row r="392" ht="19.5" customHeight="1">
       <c r="A392" s="17"/>
@@ -14736,6 +15132,7 @@
       <c r="AF392" s="17"/>
       <c r="AG392" s="17"/>
       <c r="AH392" s="17"/>
+      <c r="AI392" s="17"/>
     </row>
     <row r="393" ht="19.5" customHeight="1">
       <c r="A393" s="17"/>
@@ -14772,6 +15169,7 @@
       <c r="AF393" s="17"/>
       <c r="AG393" s="17"/>
       <c r="AH393" s="17"/>
+      <c r="AI393" s="17"/>
     </row>
     <row r="394" ht="19.5" customHeight="1">
       <c r="A394" s="17"/>
@@ -14808,6 +15206,7 @@
       <c r="AF394" s="17"/>
       <c r="AG394" s="17"/>
       <c r="AH394" s="17"/>
+      <c r="AI394" s="17"/>
     </row>
     <row r="395" ht="19.5" customHeight="1">
       <c r="A395" s="17"/>
@@ -14844,6 +15243,7 @@
       <c r="AF395" s="17"/>
       <c r="AG395" s="17"/>
       <c r="AH395" s="17"/>
+      <c r="AI395" s="17"/>
     </row>
     <row r="396" ht="19.5" customHeight="1">
       <c r="A396" s="17"/>
@@ -14880,6 +15280,7 @@
       <c r="AF396" s="17"/>
       <c r="AG396" s="17"/>
       <c r="AH396" s="17"/>
+      <c r="AI396" s="17"/>
     </row>
     <row r="397" ht="19.5" customHeight="1">
       <c r="A397" s="17"/>
@@ -14916,6 +15317,7 @@
       <c r="AF397" s="17"/>
       <c r="AG397" s="17"/>
       <c r="AH397" s="17"/>
+      <c r="AI397" s="17"/>
     </row>
     <row r="398" ht="19.5" customHeight="1">
       <c r="A398" s="17"/>
@@ -14952,6 +15354,7 @@
       <c r="AF398" s="17"/>
       <c r="AG398" s="17"/>
       <c r="AH398" s="17"/>
+      <c r="AI398" s="17"/>
     </row>
     <row r="399" ht="19.5" customHeight="1">
       <c r="A399" s="17"/>
@@ -14988,6 +15391,7 @@
       <c r="AF399" s="17"/>
       <c r="AG399" s="17"/>
       <c r="AH399" s="17"/>
+      <c r="AI399" s="17"/>
     </row>
     <row r="400" ht="19.5" customHeight="1">
       <c r="A400" s="17"/>
@@ -15024,6 +15428,7 @@
       <c r="AF400" s="17"/>
       <c r="AG400" s="17"/>
       <c r="AH400" s="17"/>
+      <c r="AI400" s="17"/>
     </row>
     <row r="401" ht="19.5" customHeight="1">
       <c r="A401" s="17"/>
@@ -15060,6 +15465,7 @@
       <c r="AF401" s="17"/>
       <c r="AG401" s="17"/>
       <c r="AH401" s="17"/>
+      <c r="AI401" s="17"/>
     </row>
     <row r="402" ht="19.5" customHeight="1">
       <c r="A402" s="17"/>
@@ -15096,6 +15502,7 @@
       <c r="AF402" s="17"/>
       <c r="AG402" s="17"/>
       <c r="AH402" s="17"/>
+      <c r="AI402" s="17"/>
     </row>
     <row r="403" ht="19.5" customHeight="1">
       <c r="A403" s="17"/>
@@ -15132,6 +15539,7 @@
       <c r="AF403" s="17"/>
       <c r="AG403" s="17"/>
       <c r="AH403" s="17"/>
+      <c r="AI403" s="17"/>
     </row>
     <row r="404" ht="19.5" customHeight="1">
       <c r="A404" s="17"/>
@@ -15168,6 +15576,7 @@
       <c r="AF404" s="17"/>
       <c r="AG404" s="17"/>
       <c r="AH404" s="17"/>
+      <c r="AI404" s="17"/>
     </row>
     <row r="405" ht="19.5" customHeight="1">
       <c r="A405" s="17"/>
@@ -15204,6 +15613,7 @@
       <c r="AF405" s="17"/>
       <c r="AG405" s="17"/>
       <c r="AH405" s="17"/>
+      <c r="AI405" s="17"/>
     </row>
     <row r="406" ht="19.5" customHeight="1">
       <c r="A406" s="17"/>
@@ -15240,6 +15650,7 @@
       <c r="AF406" s="17"/>
       <c r="AG406" s="17"/>
       <c r="AH406" s="17"/>
+      <c r="AI406" s="17"/>
     </row>
     <row r="407" ht="19.5" customHeight="1">
       <c r="A407" s="17"/>
@@ -15276,6 +15687,7 @@
       <c r="AF407" s="17"/>
       <c r="AG407" s="17"/>
       <c r="AH407" s="17"/>
+      <c r="AI407" s="17"/>
     </row>
     <row r="408" ht="19.5" customHeight="1">
       <c r="A408" s="17"/>
@@ -15312,6 +15724,7 @@
       <c r="AF408" s="17"/>
       <c r="AG408" s="17"/>
       <c r="AH408" s="17"/>
+      <c r="AI408" s="17"/>
     </row>
     <row r="409" ht="19.5" customHeight="1">
       <c r="A409" s="17"/>
@@ -15348,6 +15761,7 @@
       <c r="AF409" s="17"/>
       <c r="AG409" s="17"/>
       <c r="AH409" s="17"/>
+      <c r="AI409" s="17"/>
     </row>
     <row r="410" ht="19.5" customHeight="1">
       <c r="A410" s="17"/>
@@ -15384,6 +15798,7 @@
       <c r="AF410" s="17"/>
       <c r="AG410" s="17"/>
       <c r="AH410" s="17"/>
+      <c r="AI410" s="17"/>
     </row>
     <row r="411" ht="19.5" customHeight="1">
       <c r="A411" s="17"/>
@@ -15420,6 +15835,7 @@
       <c r="AF411" s="17"/>
       <c r="AG411" s="17"/>
       <c r="AH411" s="17"/>
+      <c r="AI411" s="17"/>
     </row>
     <row r="412" ht="19.5" customHeight="1">
       <c r="A412" s="17"/>
@@ -15456,6 +15872,7 @@
       <c r="AF412" s="17"/>
       <c r="AG412" s="17"/>
       <c r="AH412" s="17"/>
+      <c r="AI412" s="17"/>
     </row>
     <row r="413" ht="19.5" customHeight="1">
       <c r="A413" s="17"/>
@@ -15492,6 +15909,7 @@
       <c r="AF413" s="17"/>
       <c r="AG413" s="17"/>
       <c r="AH413" s="17"/>
+      <c r="AI413" s="17"/>
     </row>
     <row r="414" ht="19.5" customHeight="1">
       <c r="A414" s="17"/>
@@ -15528,6 +15946,7 @@
       <c r="AF414" s="17"/>
       <c r="AG414" s="17"/>
       <c r="AH414" s="17"/>
+      <c r="AI414" s="17"/>
     </row>
     <row r="415" ht="19.5" customHeight="1">
       <c r="A415" s="17"/>
@@ -15564,6 +15983,7 @@
       <c r="AF415" s="17"/>
       <c r="AG415" s="17"/>
       <c r="AH415" s="17"/>
+      <c r="AI415" s="17"/>
     </row>
     <row r="416" ht="19.5" customHeight="1">
       <c r="A416" s="17"/>
@@ -15600,6 +16020,7 @@
       <c r="AF416" s="17"/>
       <c r="AG416" s="17"/>
       <c r="AH416" s="17"/>
+      <c r="AI416" s="17"/>
     </row>
     <row r="417" ht="19.5" customHeight="1">
       <c r="A417" s="17"/>
@@ -15636,6 +16057,7 @@
       <c r="AF417" s="17"/>
       <c r="AG417" s="17"/>
       <c r="AH417" s="17"/>
+      <c r="AI417" s="17"/>
     </row>
     <row r="418" ht="19.5" customHeight="1">
       <c r="A418" s="17"/>
@@ -15672,6 +16094,7 @@
       <c r="AF418" s="17"/>
       <c r="AG418" s="17"/>
       <c r="AH418" s="17"/>
+      <c r="AI418" s="17"/>
     </row>
     <row r="419" ht="19.5" customHeight="1">
       <c r="A419" s="17"/>
@@ -15708,6 +16131,7 @@
       <c r="AF419" s="17"/>
       <c r="AG419" s="17"/>
       <c r="AH419" s="17"/>
+      <c r="AI419" s="17"/>
     </row>
     <row r="420" ht="19.5" customHeight="1">
       <c r="A420" s="17"/>
@@ -15744,6 +16168,7 @@
       <c r="AF420" s="17"/>
       <c r="AG420" s="17"/>
       <c r="AH420" s="17"/>
+      <c r="AI420" s="17"/>
     </row>
     <row r="421" ht="19.5" customHeight="1">
       <c r="A421" s="17"/>
@@ -15780,6 +16205,7 @@
       <c r="AF421" s="17"/>
       <c r="AG421" s="17"/>
       <c r="AH421" s="17"/>
+      <c r="AI421" s="17"/>
     </row>
     <row r="422" ht="19.5" customHeight="1">
       <c r="A422" s="17"/>
@@ -15816,6 +16242,7 @@
       <c r="AF422" s="17"/>
       <c r="AG422" s="17"/>
       <c r="AH422" s="17"/>
+      <c r="AI422" s="17"/>
     </row>
     <row r="423" ht="19.5" customHeight="1">
       <c r="A423" s="17"/>
@@ -15852,6 +16279,7 @@
       <c r="AF423" s="17"/>
       <c r="AG423" s="17"/>
       <c r="AH423" s="17"/>
+      <c r="AI423" s="17"/>
     </row>
     <row r="424" ht="19.5" customHeight="1">
       <c r="A424" s="17"/>
@@ -15888,6 +16316,7 @@
       <c r="AF424" s="17"/>
       <c r="AG424" s="17"/>
       <c r="AH424" s="17"/>
+      <c r="AI424" s="17"/>
     </row>
     <row r="425" ht="19.5" customHeight="1">
       <c r="A425" s="17"/>
@@ -15924,6 +16353,7 @@
       <c r="AF425" s="17"/>
       <c r="AG425" s="17"/>
       <c r="AH425" s="17"/>
+      <c r="AI425" s="17"/>
     </row>
     <row r="426" ht="19.5" customHeight="1">
       <c r="A426" s="17"/>
@@ -15960,6 +16390,7 @@
       <c r="AF426" s="17"/>
       <c r="AG426" s="17"/>
       <c r="AH426" s="17"/>
+      <c r="AI426" s="17"/>
     </row>
     <row r="427" ht="19.5" customHeight="1">
       <c r="A427" s="17"/>
@@ -15996,6 +16427,7 @@
       <c r="AF427" s="17"/>
       <c r="AG427" s="17"/>
       <c r="AH427" s="17"/>
+      <c r="AI427" s="17"/>
     </row>
     <row r="428" ht="19.5" customHeight="1">
       <c r="A428" s="17"/>
@@ -16032,6 +16464,7 @@
       <c r="AF428" s="17"/>
       <c r="AG428" s="17"/>
       <c r="AH428" s="17"/>
+      <c r="AI428" s="17"/>
     </row>
     <row r="429" ht="19.5" customHeight="1">
       <c r="A429" s="17"/>
@@ -16068,6 +16501,7 @@
       <c r="AF429" s="17"/>
       <c r="AG429" s="17"/>
       <c r="AH429" s="17"/>
+      <c r="AI429" s="17"/>
     </row>
     <row r="430" ht="19.5" customHeight="1">
       <c r="A430" s="17"/>
@@ -16104,6 +16538,7 @@
       <c r="AF430" s="17"/>
       <c r="AG430" s="17"/>
       <c r="AH430" s="17"/>
+      <c r="AI430" s="17"/>
     </row>
     <row r="431" ht="19.5" customHeight="1">
       <c r="A431" s="17"/>
@@ -16140,6 +16575,7 @@
       <c r="AF431" s="17"/>
       <c r="AG431" s="17"/>
       <c r="AH431" s="17"/>
+      <c r="AI431" s="17"/>
     </row>
     <row r="432" ht="19.5" customHeight="1">
       <c r="A432" s="17"/>
@@ -16176,6 +16612,7 @@
       <c r="AF432" s="17"/>
       <c r="AG432" s="17"/>
       <c r="AH432" s="17"/>
+      <c r="AI432" s="17"/>
     </row>
     <row r="433" ht="19.5" customHeight="1">
       <c r="A433" s="17"/>
@@ -16212,6 +16649,7 @@
       <c r="AF433" s="17"/>
       <c r="AG433" s="17"/>
       <c r="AH433" s="17"/>
+      <c r="AI433" s="17"/>
     </row>
     <row r="434" ht="19.5" customHeight="1">
       <c r="A434" s="17"/>
@@ -16248,6 +16686,7 @@
       <c r="AF434" s="17"/>
       <c r="AG434" s="17"/>
       <c r="AH434" s="17"/>
+      <c r="AI434" s="17"/>
     </row>
     <row r="435" ht="19.5" customHeight="1">
       <c r="A435" s="17"/>
@@ -16284,6 +16723,7 @@
       <c r="AF435" s="17"/>
       <c r="AG435" s="17"/>
       <c r="AH435" s="17"/>
+      <c r="AI435" s="17"/>
     </row>
     <row r="436" ht="19.5" customHeight="1">
       <c r="A436" s="17"/>
@@ -16320,6 +16760,7 @@
       <c r="AF436" s="17"/>
       <c r="AG436" s="17"/>
       <c r="AH436" s="17"/>
+      <c r="AI436" s="17"/>
     </row>
     <row r="437" ht="19.5" customHeight="1">
       <c r="A437" s="17"/>
@@ -16356,6 +16797,7 @@
       <c r="AF437" s="17"/>
       <c r="AG437" s="17"/>
       <c r="AH437" s="17"/>
+      <c r="AI437" s="17"/>
     </row>
     <row r="438" ht="19.5" customHeight="1">
       <c r="A438" s="17"/>
@@ -16392,6 +16834,7 @@
       <c r="AF438" s="17"/>
       <c r="AG438" s="17"/>
       <c r="AH438" s="17"/>
+      <c r="AI438" s="17"/>
     </row>
     <row r="439" ht="19.5" customHeight="1">
       <c r="A439" s="17"/>
@@ -16428,6 +16871,7 @@
       <c r="AF439" s="17"/>
       <c r="AG439" s="17"/>
       <c r="AH439" s="17"/>
+      <c r="AI439" s="17"/>
     </row>
     <row r="440" ht="19.5" customHeight="1">
       <c r="A440" s="17"/>
@@ -16464,6 +16908,7 @@
       <c r="AF440" s="17"/>
       <c r="AG440" s="17"/>
       <c r="AH440" s="17"/>
+      <c r="AI440" s="17"/>
     </row>
     <row r="441" ht="19.5" customHeight="1">
       <c r="A441" s="17"/>
@@ -16500,6 +16945,7 @@
       <c r="AF441" s="17"/>
       <c r="AG441" s="17"/>
       <c r="AH441" s="17"/>
+      <c r="AI441" s="17"/>
     </row>
     <row r="442" ht="19.5" customHeight="1">
       <c r="A442" s="17"/>
@@ -16536,6 +16982,7 @@
       <c r="AF442" s="17"/>
       <c r="AG442" s="17"/>
       <c r="AH442" s="17"/>
+      <c r="AI442" s="17"/>
     </row>
     <row r="443" ht="19.5" customHeight="1">
       <c r="A443" s="17"/>
@@ -16572,6 +17019,7 @@
       <c r="AF443" s="17"/>
       <c r="AG443" s="17"/>
       <c r="AH443" s="17"/>
+      <c r="AI443" s="17"/>
     </row>
     <row r="444" ht="19.5" customHeight="1">
       <c r="A444" s="17"/>
@@ -16608,6 +17056,7 @@
       <c r="AF444" s="17"/>
       <c r="AG444" s="17"/>
       <c r="AH444" s="17"/>
+      <c r="AI444" s="17"/>
     </row>
     <row r="445" ht="19.5" customHeight="1">
       <c r="A445" s="17"/>
@@ -16644,6 +17093,7 @@
       <c r="AF445" s="17"/>
       <c r="AG445" s="17"/>
       <c r="AH445" s="17"/>
+      <c r="AI445" s="17"/>
     </row>
     <row r="446" ht="19.5" customHeight="1">
       <c r="A446" s="17"/>
@@ -16680,6 +17130,7 @@
       <c r="AF446" s="17"/>
       <c r="AG446" s="17"/>
       <c r="AH446" s="17"/>
+      <c r="AI446" s="17"/>
     </row>
     <row r="447" ht="19.5" customHeight="1">
       <c r="A447" s="17"/>
@@ -16716,6 +17167,7 @@
       <c r="AF447" s="17"/>
       <c r="AG447" s="17"/>
       <c r="AH447" s="17"/>
+      <c r="AI447" s="17"/>
     </row>
     <row r="448" ht="19.5" customHeight="1">
       <c r="A448" s="17"/>
@@ -16752,6 +17204,7 @@
       <c r="AF448" s="17"/>
       <c r="AG448" s="17"/>
       <c r="AH448" s="17"/>
+      <c r="AI448" s="17"/>
     </row>
     <row r="449" ht="19.5" customHeight="1">
       <c r="A449" s="17"/>
@@ -16788,6 +17241,7 @@
       <c r="AF449" s="17"/>
       <c r="AG449" s="17"/>
       <c r="AH449" s="17"/>
+      <c r="AI449" s="17"/>
     </row>
     <row r="450" ht="19.5" customHeight="1">
       <c r="A450" s="17"/>
@@ -16824,6 +17278,7 @@
       <c r="AF450" s="17"/>
       <c r="AG450" s="17"/>
       <c r="AH450" s="17"/>
+      <c r="AI450" s="17"/>
     </row>
     <row r="451" ht="19.5" customHeight="1">
       <c r="A451" s="17"/>
@@ -16860,6 +17315,7 @@
       <c r="AF451" s="17"/>
       <c r="AG451" s="17"/>
       <c r="AH451" s="17"/>
+      <c r="AI451" s="17"/>
     </row>
     <row r="452" ht="19.5" customHeight="1">
       <c r="A452" s="17"/>
@@ -16896,6 +17352,7 @@
       <c r="AF452" s="17"/>
       <c r="AG452" s="17"/>
       <c r="AH452" s="17"/>
+      <c r="AI452" s="17"/>
     </row>
     <row r="453" ht="19.5" customHeight="1">
       <c r="A453" s="17"/>
@@ -16932,6 +17389,7 @@
       <c r="AF453" s="17"/>
       <c r="AG453" s="17"/>
       <c r="AH453" s="17"/>
+      <c r="AI453" s="17"/>
     </row>
     <row r="454" ht="19.5" customHeight="1">
       <c r="A454" s="17"/>
@@ -16968,6 +17426,7 @@
       <c r="AF454" s="17"/>
       <c r="AG454" s="17"/>
       <c r="AH454" s="17"/>
+      <c r="AI454" s="17"/>
     </row>
     <row r="455" ht="19.5" customHeight="1">
       <c r="A455" s="17"/>
@@ -17004,6 +17463,7 @@
       <c r="AF455" s="17"/>
       <c r="AG455" s="17"/>
       <c r="AH455" s="17"/>
+      <c r="AI455" s="17"/>
     </row>
     <row r="456" ht="19.5" customHeight="1">
       <c r="A456" s="17"/>
@@ -17040,6 +17500,7 @@
       <c r="AF456" s="17"/>
       <c r="AG456" s="17"/>
       <c r="AH456" s="17"/>
+      <c r="AI456" s="17"/>
     </row>
     <row r="457" ht="19.5" customHeight="1">
       <c r="A457" s="17"/>
@@ -17076,6 +17537,7 @@
       <c r="AF457" s="17"/>
       <c r="AG457" s="17"/>
       <c r="AH457" s="17"/>
+      <c r="AI457" s="17"/>
     </row>
     <row r="458" ht="19.5" customHeight="1">
       <c r="A458" s="17"/>
@@ -17112,6 +17574,7 @@
       <c r="AF458" s="17"/>
       <c r="AG458" s="17"/>
       <c r="AH458" s="17"/>
+      <c r="AI458" s="17"/>
     </row>
     <row r="459" ht="19.5" customHeight="1">
       <c r="A459" s="17"/>
@@ -17148,6 +17611,7 @@
       <c r="AF459" s="17"/>
       <c r="AG459" s="17"/>
       <c r="AH459" s="17"/>
+      <c r="AI459" s="17"/>
     </row>
     <row r="460" ht="19.5" customHeight="1">
       <c r="A460" s="17"/>
@@ -17184,6 +17648,7 @@
       <c r="AF460" s="17"/>
       <c r="AG460" s="17"/>
       <c r="AH460" s="17"/>
+      <c r="AI460" s="17"/>
     </row>
     <row r="461" ht="19.5" customHeight="1">
       <c r="A461" s="17"/>
@@ -17220,6 +17685,7 @@
       <c r="AF461" s="17"/>
       <c r="AG461" s="17"/>
       <c r="AH461" s="17"/>
+      <c r="AI461" s="17"/>
     </row>
     <row r="462" ht="19.5" customHeight="1">
       <c r="A462" s="17"/>
@@ -17256,6 +17722,7 @@
       <c r="AF462" s="17"/>
       <c r="AG462" s="17"/>
       <c r="AH462" s="17"/>
+      <c r="AI462" s="17"/>
     </row>
     <row r="463" ht="19.5" customHeight="1">
       <c r="A463" s="17"/>
@@ -17292,6 +17759,7 @@
       <c r="AF463" s="17"/>
       <c r="AG463" s="17"/>
       <c r="AH463" s="17"/>
+      <c r="AI463" s="17"/>
     </row>
     <row r="464" ht="19.5" customHeight="1">
       <c r="A464" s="17"/>
@@ -17328,6 +17796,7 @@
       <c r="AF464" s="17"/>
       <c r="AG464" s="17"/>
       <c r="AH464" s="17"/>
+      <c r="AI464" s="17"/>
     </row>
     <row r="465" ht="19.5" customHeight="1">
       <c r="A465" s="17"/>
@@ -17364,6 +17833,7 @@
       <c r="AF465" s="17"/>
       <c r="AG465" s="17"/>
       <c r="AH465" s="17"/>
+      <c r="AI465" s="17"/>
     </row>
     <row r="466" ht="19.5" customHeight="1">
       <c r="A466" s="17"/>
@@ -17400,6 +17870,7 @@
       <c r="AF466" s="17"/>
       <c r="AG466" s="17"/>
       <c r="AH466" s="17"/>
+      <c r="AI466" s="17"/>
     </row>
     <row r="467" ht="19.5" customHeight="1">
       <c r="A467" s="17"/>
@@ -17436,6 +17907,7 @@
       <c r="AF467" s="17"/>
       <c r="AG467" s="17"/>
       <c r="AH467" s="17"/>
+      <c r="AI467" s="17"/>
     </row>
     <row r="468" ht="19.5" customHeight="1">
       <c r="A468" s="17"/>
@@ -17472,6 +17944,7 @@
       <c r="AF468" s="17"/>
       <c r="AG468" s="17"/>
       <c r="AH468" s="17"/>
+      <c r="AI468" s="17"/>
     </row>
     <row r="469" ht="19.5" customHeight="1">
       <c r="A469" s="17"/>
@@ -17508,6 +17981,7 @@
       <c r="AF469" s="17"/>
       <c r="AG469" s="17"/>
       <c r="AH469" s="17"/>
+      <c r="AI469" s="17"/>
     </row>
     <row r="470" ht="19.5" customHeight="1">
       <c r="A470" s="17"/>
@@ -17544,6 +18018,7 @@
       <c r="AF470" s="17"/>
       <c r="AG470" s="17"/>
       <c r="AH470" s="17"/>
+      <c r="AI470" s="17"/>
     </row>
     <row r="471" ht="19.5" customHeight="1">
       <c r="A471" s="17"/>
@@ -17580,6 +18055,7 @@
       <c r="AF471" s="17"/>
       <c r="AG471" s="17"/>
       <c r="AH471" s="17"/>
+      <c r="AI471" s="17"/>
     </row>
     <row r="472" ht="19.5" customHeight="1">
       <c r="A472" s="17"/>
@@ -17616,6 +18092,7 @@
       <c r="AF472" s="17"/>
       <c r="AG472" s="17"/>
       <c r="AH472" s="17"/>
+      <c r="AI472" s="17"/>
     </row>
     <row r="473" ht="19.5" customHeight="1">
       <c r="A473" s="17"/>
@@ -17652,6 +18129,7 @@
       <c r="AF473" s="17"/>
       <c r="AG473" s="17"/>
       <c r="AH473" s="17"/>
+      <c r="AI473" s="17"/>
     </row>
     <row r="474" ht="19.5" customHeight="1">
       <c r="A474" s="17"/>
@@ -17688,6 +18166,7 @@
       <c r="AF474" s="17"/>
       <c r="AG474" s="17"/>
       <c r="AH474" s="17"/>
+      <c r="AI474" s="17"/>
     </row>
     <row r="475" ht="19.5" customHeight="1">
       <c r="A475" s="17"/>
@@ -17724,6 +18203,7 @@
       <c r="AF475" s="17"/>
       <c r="AG475" s="17"/>
       <c r="AH475" s="17"/>
+      <c r="AI475" s="17"/>
     </row>
     <row r="476" ht="19.5" customHeight="1">
       <c r="A476" s="17"/>
@@ -17760,6 +18240,7 @@
       <c r="AF476" s="17"/>
       <c r="AG476" s="17"/>
       <c r="AH476" s="17"/>
+      <c r="AI476" s="17"/>
     </row>
     <row r="477" ht="19.5" customHeight="1">
       <c r="A477" s="17"/>
@@ -17796,6 +18277,7 @@
       <c r="AF477" s="17"/>
       <c r="AG477" s="17"/>
       <c r="AH477" s="17"/>
+      <c r="AI477" s="17"/>
     </row>
     <row r="478" ht="19.5" customHeight="1">
       <c r="A478" s="17"/>
@@ -17832,6 +18314,7 @@
       <c r="AF478" s="17"/>
       <c r="AG478" s="17"/>
       <c r="AH478" s="17"/>
+      <c r="AI478" s="17"/>
     </row>
     <row r="479" ht="19.5" customHeight="1">
       <c r="A479" s="17"/>
@@ -17868,6 +18351,7 @@
       <c r="AF479" s="17"/>
       <c r="AG479" s="17"/>
       <c r="AH479" s="17"/>
+      <c r="AI479" s="17"/>
     </row>
     <row r="480" ht="19.5" customHeight="1">
       <c r="A480" s="17"/>
@@ -17904,6 +18388,7 @@
       <c r="AF480" s="17"/>
       <c r="AG480" s="17"/>
       <c r="AH480" s="17"/>
+      <c r="AI480" s="17"/>
     </row>
     <row r="481" ht="19.5" customHeight="1">
       <c r="A481" s="17"/>
@@ -17940,6 +18425,7 @@
       <c r="AF481" s="17"/>
       <c r="AG481" s="17"/>
       <c r="AH481" s="17"/>
+      <c r="AI481" s="17"/>
     </row>
     <row r="482" ht="19.5" customHeight="1">
       <c r="A482" s="17"/>
@@ -17976,6 +18462,7 @@
       <c r="AF482" s="17"/>
       <c r="AG482" s="17"/>
       <c r="AH482" s="17"/>
+      <c r="AI482" s="17"/>
     </row>
     <row r="483" ht="19.5" customHeight="1">
       <c r="A483" s="17"/>
@@ -18012,6 +18499,7 @@
       <c r="AF483" s="17"/>
       <c r="AG483" s="17"/>
       <c r="AH483" s="17"/>
+      <c r="AI483" s="17"/>
     </row>
     <row r="484" ht="19.5" customHeight="1">
       <c r="A484" s="17"/>
@@ -18048,6 +18536,7 @@
       <c r="AF484" s="17"/>
       <c r="AG484" s="17"/>
       <c r="AH484" s="17"/>
+      <c r="AI484" s="17"/>
     </row>
     <row r="485" ht="19.5" customHeight="1">
       <c r="A485" s="17"/>
@@ -18084,6 +18573,7 @@
       <c r="AF485" s="17"/>
       <c r="AG485" s="17"/>
       <c r="AH485" s="17"/>
+      <c r="AI485" s="17"/>
     </row>
     <row r="486" ht="19.5" customHeight="1">
       <c r="A486" s="17"/>
@@ -18120,6 +18610,7 @@
       <c r="AF486" s="17"/>
       <c r="AG486" s="17"/>
       <c r="AH486" s="17"/>
+      <c r="AI486" s="17"/>
     </row>
     <row r="487" ht="19.5" customHeight="1">
       <c r="A487" s="17"/>
@@ -18156,6 +18647,7 @@
       <c r="AF487" s="17"/>
       <c r="AG487" s="17"/>
       <c r="AH487" s="17"/>
+      <c r="AI487" s="17"/>
     </row>
     <row r="488" ht="19.5" customHeight="1">
       <c r="A488" s="17"/>
@@ -18192,6 +18684,7 @@
       <c r="AF488" s="17"/>
       <c r="AG488" s="17"/>
       <c r="AH488" s="17"/>
+      <c r="AI488" s="17"/>
     </row>
     <row r="489" ht="19.5" customHeight="1">
       <c r="A489" s="17"/>
@@ -18228,6 +18721,7 @@
       <c r="AF489" s="17"/>
       <c r="AG489" s="17"/>
       <c r="AH489" s="17"/>
+      <c r="AI489" s="17"/>
     </row>
     <row r="490" ht="19.5" customHeight="1">
       <c r="A490" s="17"/>
@@ -18264,6 +18758,7 @@
       <c r="AF490" s="17"/>
       <c r="AG490" s="17"/>
       <c r="AH490" s="17"/>
+      <c r="AI490" s="17"/>
     </row>
     <row r="491" ht="19.5" customHeight="1">
       <c r="A491" s="17"/>
@@ -18300,6 +18795,7 @@
       <c r="AF491" s="17"/>
       <c r="AG491" s="17"/>
       <c r="AH491" s="17"/>
+      <c r="AI491" s="17"/>
     </row>
     <row r="492" ht="19.5" customHeight="1">
       <c r="A492" s="17"/>
@@ -18336,6 +18832,7 @@
       <c r="AF492" s="17"/>
       <c r="AG492" s="17"/>
       <c r="AH492" s="17"/>
+      <c r="AI492" s="17"/>
     </row>
     <row r="493" ht="19.5" customHeight="1">
       <c r="A493" s="17"/>
@@ -18372,6 +18869,7 @@
       <c r="AF493" s="17"/>
       <c r="AG493" s="17"/>
       <c r="AH493" s="17"/>
+      <c r="AI493" s="17"/>
     </row>
     <row r="494" ht="19.5" customHeight="1">
       <c r="A494" s="17"/>
@@ -18408,6 +18906,7 @@
       <c r="AF494" s="17"/>
       <c r="AG494" s="17"/>
       <c r="AH494" s="17"/>
+      <c r="AI494" s="17"/>
     </row>
     <row r="495" ht="19.5" customHeight="1">
       <c r="A495" s="17"/>
@@ -18444,6 +18943,7 @@
       <c r="AF495" s="17"/>
       <c r="AG495" s="17"/>
       <c r="AH495" s="17"/>
+      <c r="AI495" s="17"/>
     </row>
     <row r="496" ht="19.5" customHeight="1">
       <c r="A496" s="17"/>
@@ -18480,6 +18980,7 @@
       <c r="AF496" s="17"/>
       <c r="AG496" s="17"/>
       <c r="AH496" s="17"/>
+      <c r="AI496" s="17"/>
     </row>
     <row r="497" ht="19.5" customHeight="1">
       <c r="A497" s="17"/>
@@ -18516,6 +19017,7 @@
       <c r="AF497" s="17"/>
       <c r="AG497" s="17"/>
       <c r="AH497" s="17"/>
+      <c r="AI497" s="17"/>
     </row>
     <row r="498" ht="19.5" customHeight="1">
       <c r="A498" s="17"/>
@@ -18552,6 +19054,7 @@
       <c r="AF498" s="17"/>
       <c r="AG498" s="17"/>
       <c r="AH498" s="17"/>
+      <c r="AI498" s="17"/>
     </row>
     <row r="499" ht="19.5" customHeight="1">
       <c r="A499" s="17"/>
@@ -18588,6 +19091,7 @@
       <c r="AF499" s="17"/>
       <c r="AG499" s="17"/>
       <c r="AH499" s="17"/>
+      <c r="AI499" s="17"/>
     </row>
     <row r="500" ht="19.5" customHeight="1">
       <c r="A500" s="17"/>
@@ -18624,6 +19128,7 @@
       <c r="AF500" s="17"/>
       <c r="AG500" s="17"/>
       <c r="AH500" s="17"/>
+      <c r="AI500" s="17"/>
     </row>
     <row r="501" ht="19.5" customHeight="1">
       <c r="A501" s="17"/>
@@ -18660,6 +19165,7 @@
       <c r="AF501" s="17"/>
       <c r="AG501" s="17"/>
       <c r="AH501" s="17"/>
+      <c r="AI501" s="17"/>
     </row>
     <row r="502" ht="19.5" customHeight="1">
       <c r="A502" s="17"/>
@@ -18696,6 +19202,7 @@
       <c r="AF502" s="17"/>
       <c r="AG502" s="17"/>
       <c r="AH502" s="17"/>
+      <c r="AI502" s="17"/>
     </row>
     <row r="503" ht="19.5" customHeight="1">
       <c r="A503" s="17"/>
@@ -18732,6 +19239,7 @@
       <c r="AF503" s="17"/>
       <c r="AG503" s="17"/>
       <c r="AH503" s="17"/>
+      <c r="AI503" s="17"/>
     </row>
     <row r="504" ht="19.5" customHeight="1">
       <c r="A504" s="17"/>
@@ -18768,6 +19276,7 @@
       <c r="AF504" s="17"/>
       <c r="AG504" s="17"/>
       <c r="AH504" s="17"/>
+      <c r="AI504" s="17"/>
     </row>
     <row r="505" ht="19.5" customHeight="1">
       <c r="A505" s="17"/>
@@ -18804,6 +19313,7 @@
       <c r="AF505" s="17"/>
       <c r="AG505" s="17"/>
       <c r="AH505" s="17"/>
+      <c r="AI505" s="17"/>
     </row>
     <row r="506" ht="19.5" customHeight="1">
       <c r="A506" s="17"/>
@@ -18840,6 +19350,7 @@
       <c r="AF506" s="17"/>
       <c r="AG506" s="17"/>
       <c r="AH506" s="17"/>
+      <c r="AI506" s="17"/>
     </row>
     <row r="507" ht="19.5" customHeight="1">
       <c r="A507" s="17"/>
@@ -18876,6 +19387,7 @@
       <c r="AF507" s="17"/>
       <c r="AG507" s="17"/>
       <c r="AH507" s="17"/>
+      <c r="AI507" s="17"/>
     </row>
     <row r="508" ht="19.5" customHeight="1">
       <c r="A508" s="17"/>
@@ -18912,6 +19424,7 @@
       <c r="AF508" s="17"/>
       <c r="AG508" s="17"/>
       <c r="AH508" s="17"/>
+      <c r="AI508" s="17"/>
     </row>
     <row r="509" ht="19.5" customHeight="1">
       <c r="A509" s="17"/>
@@ -18948,6 +19461,7 @@
       <c r="AF509" s="17"/>
       <c r="AG509" s="17"/>
       <c r="AH509" s="17"/>
+      <c r="AI509" s="17"/>
     </row>
     <row r="510" ht="19.5" customHeight="1">
       <c r="A510" s="17"/>
@@ -18984,6 +19498,7 @@
       <c r="AF510" s="17"/>
       <c r="AG510" s="17"/>
       <c r="AH510" s="17"/>
+      <c r="AI510" s="17"/>
     </row>
     <row r="511" ht="19.5" customHeight="1">
       <c r="A511" s="17"/>
@@ -19020,6 +19535,7 @@
       <c r="AF511" s="17"/>
       <c r="AG511" s="17"/>
       <c r="AH511" s="17"/>
+      <c r="AI511" s="17"/>
     </row>
     <row r="512" ht="19.5" customHeight="1">
       <c r="A512" s="17"/>
@@ -19056,6 +19572,7 @@
       <c r="AF512" s="17"/>
       <c r="AG512" s="17"/>
       <c r="AH512" s="17"/>
+      <c r="AI512" s="17"/>
     </row>
     <row r="513" ht="19.5" customHeight="1">
       <c r="A513" s="17"/>
@@ -19092,6 +19609,7 @@
       <c r="AF513" s="17"/>
       <c r="AG513" s="17"/>
       <c r="AH513" s="17"/>
+      <c r="AI513" s="17"/>
     </row>
     <row r="514" ht="19.5" customHeight="1">
       <c r="A514" s="17"/>
@@ -19128,6 +19646,7 @@
       <c r="AF514" s="17"/>
       <c r="AG514" s="17"/>
       <c r="AH514" s="17"/>
+      <c r="AI514" s="17"/>
     </row>
     <row r="515" ht="19.5" customHeight="1">
       <c r="A515" s="17"/>
@@ -19164,6 +19683,7 @@
       <c r="AF515" s="17"/>
       <c r="AG515" s="17"/>
       <c r="AH515" s="17"/>
+      <c r="AI515" s="17"/>
     </row>
     <row r="516" ht="19.5" customHeight="1">
       <c r="A516" s="17"/>
@@ -19200,6 +19720,7 @@
       <c r="AF516" s="17"/>
       <c r="AG516" s="17"/>
       <c r="AH516" s="17"/>
+      <c r="AI516" s="17"/>
     </row>
     <row r="517" ht="19.5" customHeight="1">
       <c r="A517" s="17"/>
@@ -19236,6 +19757,7 @@
       <c r="AF517" s="17"/>
       <c r="AG517" s="17"/>
       <c r="AH517" s="17"/>
+      <c r="AI517" s="17"/>
     </row>
     <row r="518" ht="19.5" customHeight="1">
       <c r="A518" s="17"/>
@@ -19272,6 +19794,7 @@
       <c r="AF518" s="17"/>
       <c r="AG518" s="17"/>
       <c r="AH518" s="17"/>
+      <c r="AI518" s="17"/>
     </row>
     <row r="519" ht="19.5" customHeight="1">
       <c r="A519" s="17"/>
@@ -19308,6 +19831,7 @@
       <c r="AF519" s="17"/>
       <c r="AG519" s="17"/>
       <c r="AH519" s="17"/>
+      <c r="AI519" s="17"/>
     </row>
     <row r="520" ht="19.5" customHeight="1">
       <c r="A520" s="17"/>
@@ -19344,6 +19868,7 @@
       <c r="AF520" s="17"/>
       <c r="AG520" s="17"/>
       <c r="AH520" s="17"/>
+      <c r="AI520" s="17"/>
     </row>
     <row r="521" ht="19.5" customHeight="1">
       <c r="A521" s="17"/>
@@ -19380,6 +19905,7 @@
       <c r="AF521" s="17"/>
       <c r="AG521" s="17"/>
       <c r="AH521" s="17"/>
+      <c r="AI521" s="17"/>
     </row>
     <row r="522" ht="19.5" customHeight="1">
       <c r="A522" s="17"/>
@@ -19416,6 +19942,7 @@
       <c r="AF522" s="17"/>
       <c r="AG522" s="17"/>
       <c r="AH522" s="17"/>
+      <c r="AI522" s="17"/>
     </row>
     <row r="523" ht="19.5" customHeight="1">
       <c r="A523" s="17"/>
@@ -19452,6 +19979,7 @@
       <c r="AF523" s="17"/>
       <c r="AG523" s="17"/>
       <c r="AH523" s="17"/>
+      <c r="AI523" s="17"/>
     </row>
     <row r="524" ht="19.5" customHeight="1">
       <c r="A524" s="17"/>
@@ -19488,6 +20016,7 @@
       <c r="AF524" s="17"/>
       <c r="AG524" s="17"/>
       <c r="AH524" s="17"/>
+      <c r="AI524" s="17"/>
     </row>
     <row r="525" ht="19.5" customHeight="1">
       <c r="A525" s="17"/>
@@ -19524,6 +20053,7 @@
       <c r="AF525" s="17"/>
       <c r="AG525" s="17"/>
       <c r="AH525" s="17"/>
+      <c r="AI525" s="17"/>
     </row>
     <row r="526" ht="19.5" customHeight="1">
       <c r="A526" s="17"/>
@@ -19560,6 +20090,7 @@
       <c r="AF526" s="17"/>
       <c r="AG526" s="17"/>
       <c r="AH526" s="17"/>
+      <c r="AI526" s="17"/>
     </row>
     <row r="527" ht="19.5" customHeight="1">
       <c r="A527" s="17"/>
@@ -19596,6 +20127,7 @@
       <c r="AF527" s="17"/>
       <c r="AG527" s="17"/>
       <c r="AH527" s="17"/>
+      <c r="AI527" s="17"/>
     </row>
     <row r="528" ht="19.5" customHeight="1">
       <c r="A528" s="17"/>
@@ -19632,6 +20164,7 @@
       <c r="AF528" s="17"/>
       <c r="AG528" s="17"/>
       <c r="AH528" s="17"/>
+      <c r="AI528" s="17"/>
     </row>
     <row r="529" ht="19.5" customHeight="1">
       <c r="A529" s="17"/>
@@ -19668,6 +20201,7 @@
       <c r="AF529" s="17"/>
       <c r="AG529" s="17"/>
       <c r="AH529" s="17"/>
+      <c r="AI529" s="17"/>
     </row>
     <row r="530" ht="19.5" customHeight="1">
       <c r="A530" s="17"/>
@@ -19704,6 +20238,7 @@
       <c r="AF530" s="17"/>
       <c r="AG530" s="17"/>
       <c r="AH530" s="17"/>
+      <c r="AI530" s="17"/>
     </row>
     <row r="531" ht="19.5" customHeight="1">
       <c r="A531" s="17"/>
@@ -19740,6 +20275,7 @@
       <c r="AF531" s="17"/>
       <c r="AG531" s="17"/>
       <c r="AH531" s="17"/>
+      <c r="AI531" s="17"/>
     </row>
     <row r="532" ht="19.5" customHeight="1">
       <c r="A532" s="17"/>
@@ -19776,6 +20312,7 @@
       <c r="AF532" s="17"/>
       <c r="AG532" s="17"/>
       <c r="AH532" s="17"/>
+      <c r="AI532" s="17"/>
     </row>
     <row r="533" ht="19.5" customHeight="1">
       <c r="A533" s="17"/>
@@ -19812,6 +20349,7 @@
       <c r="AF533" s="17"/>
       <c r="AG533" s="17"/>
       <c r="AH533" s="17"/>
+      <c r="AI533" s="17"/>
     </row>
     <row r="534" ht="19.5" customHeight="1">
       <c r="A534" s="17"/>
@@ -19848,6 +20386,7 @@
       <c r="AF534" s="17"/>
       <c r="AG534" s="17"/>
       <c r="AH534" s="17"/>
+      <c r="AI534" s="17"/>
     </row>
     <row r="535" ht="19.5" customHeight="1">
       <c r="A535" s="17"/>
@@ -19884,6 +20423,7 @@
       <c r="AF535" s="17"/>
       <c r="AG535" s="17"/>
       <c r="AH535" s="17"/>
+      <c r="AI535" s="17"/>
     </row>
     <row r="536" ht="19.5" customHeight="1">
       <c r="A536" s="17"/>
@@ -19920,6 +20460,7 @@
       <c r="AF536" s="17"/>
       <c r="AG536" s="17"/>
       <c r="AH536" s="17"/>
+      <c r="AI536" s="17"/>
     </row>
     <row r="537" ht="19.5" customHeight="1">
       <c r="A537" s="17"/>
@@ -19956,6 +20497,7 @@
       <c r="AF537" s="17"/>
       <c r="AG537" s="17"/>
       <c r="AH537" s="17"/>
+      <c r="AI537" s="17"/>
     </row>
     <row r="538" ht="19.5" customHeight="1">
       <c r="A538" s="17"/>
@@ -19992,6 +20534,7 @@
       <c r="AF538" s="17"/>
       <c r="AG538" s="17"/>
       <c r="AH538" s="17"/>
+      <c r="AI538" s="17"/>
     </row>
     <row r="539" ht="19.5" customHeight="1">
       <c r="A539" s="17"/>
@@ -20028,6 +20571,7 @@
       <c r="AF539" s="17"/>
       <c r="AG539" s="17"/>
       <c r="AH539" s="17"/>
+      <c r="AI539" s="17"/>
     </row>
     <row r="540" ht="19.5" customHeight="1">
       <c r="A540" s="17"/>
@@ -20064,6 +20608,7 @@
       <c r="AF540" s="17"/>
       <c r="AG540" s="17"/>
       <c r="AH540" s="17"/>
+      <c r="AI540" s="17"/>
     </row>
     <row r="541" ht="19.5" customHeight="1">
       <c r="A541" s="17"/>
@@ -20100,6 +20645,7 @@
       <c r="AF541" s="17"/>
       <c r="AG541" s="17"/>
       <c r="AH541" s="17"/>
+      <c r="AI541" s="17"/>
     </row>
     <row r="542" ht="19.5" customHeight="1">
       <c r="A542" s="17"/>
@@ -20136,6 +20682,7 @@
       <c r="AF542" s="17"/>
       <c r="AG542" s="17"/>
       <c r="AH542" s="17"/>
+      <c r="AI542" s="17"/>
     </row>
     <row r="543" ht="19.5" customHeight="1">
       <c r="A543" s="17"/>
@@ -20172,6 +20719,7 @@
       <c r="AF543" s="17"/>
       <c r="AG543" s="17"/>
       <c r="AH543" s="17"/>
+      <c r="AI543" s="17"/>
     </row>
     <row r="544" ht="19.5" customHeight="1">
       <c r="A544" s="17"/>
@@ -20208,6 +20756,7 @@
       <c r="AF544" s="17"/>
       <c r="AG544" s="17"/>
       <c r="AH544" s="17"/>
+      <c r="AI544" s="17"/>
     </row>
     <row r="545" ht="19.5" customHeight="1">
       <c r="A545" s="17"/>
@@ -20244,6 +20793,7 @@
       <c r="AF545" s="17"/>
       <c r="AG545" s="17"/>
       <c r="AH545" s="17"/>
+      <c r="AI545" s="17"/>
     </row>
     <row r="546" ht="19.5" customHeight="1">
       <c r="A546" s="17"/>
@@ -20280,6 +20830,7 @@
       <c r="AF546" s="17"/>
       <c r="AG546" s="17"/>
       <c r="AH546" s="17"/>
+      <c r="AI546" s="17"/>
     </row>
     <row r="547" ht="19.5" customHeight="1">
       <c r="A547" s="17"/>
@@ -20316,6 +20867,7 @@
       <c r="AF547" s="17"/>
       <c r="AG547" s="17"/>
       <c r="AH547" s="17"/>
+      <c r="AI547" s="17"/>
     </row>
     <row r="548" ht="19.5" customHeight="1">
       <c r="A548" s="17"/>
@@ -20352,6 +20904,7 @@
       <c r="AF548" s="17"/>
       <c r="AG548" s="17"/>
       <c r="AH548" s="17"/>
+      <c r="AI548" s="17"/>
     </row>
     <row r="549" ht="19.5" customHeight="1">
       <c r="A549" s="17"/>
@@ -20388,6 +20941,7 @@
       <c r="AF549" s="17"/>
       <c r="AG549" s="17"/>
       <c r="AH549" s="17"/>
+      <c r="AI549" s="17"/>
     </row>
     <row r="550" ht="19.5" customHeight="1">
       <c r="A550" s="17"/>
@@ -20424,6 +20978,7 @@
       <c r="AF550" s="17"/>
       <c r="AG550" s="17"/>
       <c r="AH550" s="17"/>
+      <c r="AI550" s="17"/>
     </row>
     <row r="551" ht="19.5" customHeight="1">
       <c r="A551" s="17"/>
@@ -20460,6 +21015,7 @@
       <c r="AF551" s="17"/>
       <c r="AG551" s="17"/>
       <c r="AH551" s="17"/>
+      <c r="AI551" s="17"/>
     </row>
     <row r="552" ht="19.5" customHeight="1">
       <c r="A552" s="17"/>
@@ -20496,6 +21052,7 @@
       <c r="AF552" s="17"/>
       <c r="AG552" s="17"/>
       <c r="AH552" s="17"/>
+      <c r="AI552" s="17"/>
     </row>
     <row r="553" ht="19.5" customHeight="1">
       <c r="A553" s="17"/>
@@ -20532,6 +21089,7 @@
       <c r="AF553" s="17"/>
       <c r="AG553" s="17"/>
       <c r="AH553" s="17"/>
+      <c r="AI553" s="17"/>
     </row>
     <row r="554" ht="19.5" customHeight="1">
       <c r="A554" s="17"/>
@@ -20568,6 +21126,7 @@
       <c r="AF554" s="17"/>
       <c r="AG554" s="17"/>
       <c r="AH554" s="17"/>
+      <c r="AI554" s="17"/>
     </row>
     <row r="555" ht="19.5" customHeight="1">
       <c r="A555" s="17"/>
@@ -20604,6 +21163,7 @@
       <c r="AF555" s="17"/>
       <c r="AG555" s="17"/>
       <c r="AH555" s="17"/>
+      <c r="AI555" s="17"/>
     </row>
     <row r="556" ht="19.5" customHeight="1">
       <c r="A556" s="17"/>
@@ -20640,6 +21200,7 @@
       <c r="AF556" s="17"/>
       <c r="AG556" s="17"/>
       <c r="AH556" s="17"/>
+      <c r="AI556" s="17"/>
     </row>
     <row r="557" ht="19.5" customHeight="1">
       <c r="A557" s="17"/>
@@ -20676,6 +21237,7 @@
       <c r="AF557" s="17"/>
       <c r="AG557" s="17"/>
       <c r="AH557" s="17"/>
+      <c r="AI557" s="17"/>
     </row>
     <row r="558" ht="19.5" customHeight="1">
       <c r="A558" s="17"/>
@@ -20712,6 +21274,7 @@
       <c r="AF558" s="17"/>
       <c r="AG558" s="17"/>
       <c r="AH558" s="17"/>
+      <c r="AI558" s="17"/>
     </row>
     <row r="559" ht="19.5" customHeight="1">
       <c r="A559" s="17"/>
@@ -20748,6 +21311,7 @@
       <c r="AF559" s="17"/>
       <c r="AG559" s="17"/>
       <c r="AH559" s="17"/>
+      <c r="AI559" s="17"/>
     </row>
     <row r="560" ht="19.5" customHeight="1">
       <c r="A560" s="17"/>
@@ -20784,6 +21348,7 @@
       <c r="AF560" s="17"/>
       <c r="AG560" s="17"/>
       <c r="AH560" s="17"/>
+      <c r="AI560" s="17"/>
     </row>
     <row r="561" ht="19.5" customHeight="1">
       <c r="A561" s="17"/>
@@ -20820,6 +21385,7 @@
       <c r="AF561" s="17"/>
       <c r="AG561" s="17"/>
       <c r="AH561" s="17"/>
+      <c r="AI561" s="17"/>
     </row>
     <row r="562" ht="19.5" customHeight="1">
       <c r="A562" s="17"/>
@@ -20856,6 +21422,7 @@
       <c r="AF562" s="17"/>
       <c r="AG562" s="17"/>
       <c r="AH562" s="17"/>
+      <c r="AI562" s="17"/>
     </row>
     <row r="563" ht="19.5" customHeight="1">
       <c r="A563" s="17"/>
@@ -20892,6 +21459,7 @@
       <c r="AF563" s="17"/>
       <c r="AG563" s="17"/>
       <c r="AH563" s="17"/>
+      <c r="AI563" s="17"/>
     </row>
     <row r="564" ht="19.5" customHeight="1">
       <c r="A564" s="17"/>
@@ -20928,6 +21496,7 @@
       <c r="AF564" s="17"/>
       <c r="AG564" s="17"/>
       <c r="AH564" s="17"/>
+      <c r="AI564" s="17"/>
     </row>
     <row r="565" ht="19.5" customHeight="1">
       <c r="A565" s="17"/>
@@ -20964,6 +21533,7 @@
       <c r="AF565" s="17"/>
       <c r="AG565" s="17"/>
       <c r="AH565" s="17"/>
+      <c r="AI565" s="17"/>
     </row>
     <row r="566" ht="19.5" customHeight="1">
       <c r="A566" s="17"/>
@@ -21000,6 +21570,7 @@
       <c r="AF566" s="17"/>
       <c r="AG566" s="17"/>
       <c r="AH566" s="17"/>
+      <c r="AI566" s="17"/>
     </row>
     <row r="567" ht="19.5" customHeight="1">
       <c r="A567" s="17"/>
@@ -21036,6 +21607,7 @@
       <c r="AF567" s="17"/>
       <c r="AG567" s="17"/>
       <c r="AH567" s="17"/>
+      <c r="AI567" s="17"/>
     </row>
     <row r="568" ht="19.5" customHeight="1">
       <c r="A568" s="17"/>
@@ -21072,6 +21644,7 @@
       <c r="AF568" s="17"/>
       <c r="AG568" s="17"/>
       <c r="AH568" s="17"/>
+      <c r="AI568" s="17"/>
     </row>
     <row r="569" ht="19.5" customHeight="1">
       <c r="A569" s="17"/>
@@ -21108,6 +21681,7 @@
       <c r="AF569" s="17"/>
       <c r="AG569" s="17"/>
       <c r="AH569" s="17"/>
+      <c r="AI569" s="17"/>
     </row>
     <row r="570" ht="19.5" customHeight="1">
       <c r="A570" s="17"/>
@@ -21144,6 +21718,7 @@
       <c r="AF570" s="17"/>
       <c r="AG570" s="17"/>
       <c r="AH570" s="17"/>
+      <c r="AI570" s="17"/>
     </row>
     <row r="571" ht="19.5" customHeight="1">
       <c r="A571" s="17"/>
@@ -21180,6 +21755,7 @@
       <c r="AF571" s="17"/>
       <c r="AG571" s="17"/>
       <c r="AH571" s="17"/>
+      <c r="AI571" s="17"/>
     </row>
     <row r="572" ht="19.5" customHeight="1">
       <c r="A572" s="17"/>
@@ -21216,6 +21792,7 @@
       <c r="AF572" s="17"/>
       <c r="AG572" s="17"/>
       <c r="AH572" s="17"/>
+      <c r="AI572" s="17"/>
     </row>
     <row r="573" ht="19.5" customHeight="1">
       <c r="A573" s="17"/>
@@ -21252,6 +21829,7 @@
       <c r="AF573" s="17"/>
       <c r="AG573" s="17"/>
       <c r="AH573" s="17"/>
+      <c r="AI573" s="17"/>
     </row>
     <row r="574" ht="19.5" customHeight="1">
       <c r="A574" s="17"/>
@@ -21288,6 +21866,7 @@
       <c r="AF574" s="17"/>
       <c r="AG574" s="17"/>
       <c r="AH574" s="17"/>
+      <c r="AI574" s="17"/>
     </row>
     <row r="575" ht="19.5" customHeight="1">
       <c r="A575" s="17"/>
@@ -21324,6 +21903,7 @@
       <c r="AF575" s="17"/>
       <c r="AG575" s="17"/>
       <c r="AH575" s="17"/>
+      <c r="AI575" s="17"/>
     </row>
     <row r="576" ht="19.5" customHeight="1">
       <c r="A576" s="17"/>
@@ -21360,6 +21940,7 @@
       <c r="AF576" s="17"/>
       <c r="AG576" s="17"/>
       <c r="AH576" s="17"/>
+      <c r="AI576" s="17"/>
     </row>
     <row r="577" ht="19.5" customHeight="1">
       <c r="A577" s="17"/>
@@ -21396,6 +21977,7 @@
       <c r="AF577" s="17"/>
       <c r="AG577" s="17"/>
       <c r="AH577" s="17"/>
+      <c r="AI577" s="17"/>
     </row>
     <row r="578" ht="19.5" customHeight="1">
       <c r="A578" s="17"/>
@@ -21432,6 +22014,7 @@
       <c r="AF578" s="17"/>
       <c r="AG578" s="17"/>
       <c r="AH578" s="17"/>
+      <c r="AI578" s="17"/>
     </row>
     <row r="579" ht="19.5" customHeight="1">
       <c r="A579" s="17"/>
@@ -21468,6 +22051,7 @@
       <c r="AF579" s="17"/>
       <c r="AG579" s="17"/>
       <c r="AH579" s="17"/>
+      <c r="AI579" s="17"/>
     </row>
     <row r="580" ht="19.5" customHeight="1">
       <c r="A580" s="17"/>
@@ -21504,6 +22088,7 @@
       <c r="AF580" s="17"/>
       <c r="AG580" s="17"/>
       <c r="AH580" s="17"/>
+      <c r="AI580" s="17"/>
     </row>
     <row r="581" ht="19.5" customHeight="1">
       <c r="A581" s="17"/>
@@ -21540,6 +22125,7 @@
       <c r="AF581" s="17"/>
       <c r="AG581" s="17"/>
       <c r="AH581" s="17"/>
+      <c r="AI581" s="17"/>
     </row>
     <row r="582" ht="19.5" customHeight="1">
       <c r="A582" s="17"/>
@@ -21576,6 +22162,7 @@
       <c r="AF582" s="17"/>
       <c r="AG582" s="17"/>
       <c r="AH582" s="17"/>
+      <c r="AI582" s="17"/>
     </row>
     <row r="583" ht="19.5" customHeight="1">
       <c r="A583" s="17"/>
@@ -21612,6 +22199,7 @@
       <c r="AF583" s="17"/>
       <c r="AG583" s="17"/>
       <c r="AH583" s="17"/>
+      <c r="AI583" s="17"/>
     </row>
     <row r="584" ht="19.5" customHeight="1">
       <c r="A584" s="17"/>
@@ -21648,6 +22236,7 @@
       <c r="AF584" s="17"/>
       <c r="AG584" s="17"/>
       <c r="AH584" s="17"/>
+      <c r="AI584" s="17"/>
     </row>
     <row r="585" ht="19.5" customHeight="1">
       <c r="A585" s="17"/>
@@ -21684,6 +22273,7 @@
       <c r="AF585" s="17"/>
       <c r="AG585" s="17"/>
       <c r="AH585" s="17"/>
+      <c r="AI585" s="17"/>
     </row>
     <row r="586" ht="19.5" customHeight="1">
       <c r="A586" s="17"/>
@@ -21720,6 +22310,7 @@
       <c r="AF586" s="17"/>
       <c r="AG586" s="17"/>
       <c r="AH586" s="17"/>
+      <c r="AI586" s="17"/>
     </row>
     <row r="587" ht="19.5" customHeight="1">
       <c r="A587" s="17"/>
@@ -21756,6 +22347,7 @@
       <c r="AF587" s="17"/>
       <c r="AG587" s="17"/>
       <c r="AH587" s="17"/>
+      <c r="AI587" s="17"/>
     </row>
     <row r="588" ht="19.5" customHeight="1">
       <c r="A588" s="17"/>
@@ -21792,6 +22384,7 @@
       <c r="AF588" s="17"/>
       <c r="AG588" s="17"/>
       <c r="AH588" s="17"/>
+      <c r="AI588" s="17"/>
     </row>
     <row r="589" ht="19.5" customHeight="1">
       <c r="A589" s="17"/>
@@ -21828,6 +22421,7 @@
       <c r="AF589" s="17"/>
       <c r="AG589" s="17"/>
       <c r="AH589" s="17"/>
+      <c r="AI589" s="17"/>
     </row>
     <row r="590" ht="19.5" customHeight="1">
       <c r="A590" s="17"/>
@@ -21864,6 +22458,7 @@
       <c r="AF590" s="17"/>
       <c r="AG590" s="17"/>
       <c r="AH590" s="17"/>
+      <c r="AI590" s="17"/>
     </row>
     <row r="591" ht="19.5" customHeight="1">
       <c r="A591" s="17"/>
@@ -21900,6 +22495,7 @@
       <c r="AF591" s="17"/>
       <c r="AG591" s="17"/>
       <c r="AH591" s="17"/>
+      <c r="AI591" s="17"/>
     </row>
     <row r="592" ht="19.5" customHeight="1">
       <c r="A592" s="17"/>
@@ -21936,6 +22532,7 @@
       <c r="AF592" s="17"/>
       <c r="AG592" s="17"/>
       <c r="AH592" s="17"/>
+      <c r="AI592" s="17"/>
     </row>
     <row r="593" ht="19.5" customHeight="1">
       <c r="A593" s="17"/>
@@ -21972,6 +22569,7 @@
       <c r="AF593" s="17"/>
       <c r="AG593" s="17"/>
       <c r="AH593" s="17"/>
+      <c r="AI593" s="17"/>
     </row>
     <row r="594" ht="19.5" customHeight="1">
       <c r="A594" s="17"/>
@@ -22008,6 +22606,7 @@
       <c r="AF594" s="17"/>
       <c r="AG594" s="17"/>
       <c r="AH594" s="17"/>
+      <c r="AI594" s="17"/>
     </row>
     <row r="595" ht="19.5" customHeight="1">
       <c r="A595" s="17"/>
@@ -22044,6 +22643,7 @@
       <c r="AF595" s="17"/>
       <c r="AG595" s="17"/>
       <c r="AH595" s="17"/>
+      <c r="AI595" s="17"/>
     </row>
     <row r="596" ht="19.5" customHeight="1">
       <c r="A596" s="17"/>
@@ -22080,6 +22680,7 @@
       <c r="AF596" s="17"/>
       <c r="AG596" s="17"/>
       <c r="AH596" s="17"/>
+      <c r="AI596" s="17"/>
     </row>
     <row r="597" ht="19.5" customHeight="1">
       <c r="A597" s="17"/>
@@ -22116,6 +22717,7 @@
       <c r="AF597" s="17"/>
       <c r="AG597" s="17"/>
       <c r="AH597" s="17"/>
+      <c r="AI597" s="17"/>
     </row>
     <row r="598" ht="19.5" customHeight="1">
       <c r="A598" s="17"/>
@@ -22152,6 +22754,7 @@
       <c r="AF598" s="17"/>
       <c r="AG598" s="17"/>
       <c r="AH598" s="17"/>
+      <c r="AI598" s="17"/>
     </row>
     <row r="599" ht="19.5" customHeight="1">
       <c r="A599" s="17"/>
@@ -22188,6 +22791,7 @@
       <c r="AF599" s="17"/>
       <c r="AG599" s="17"/>
       <c r="AH599" s="17"/>
+      <c r="AI599" s="17"/>
     </row>
     <row r="600" ht="19.5" customHeight="1">
       <c r="A600" s="17"/>
@@ -22224,6 +22828,7 @@
       <c r="AF600" s="17"/>
       <c r="AG600" s="17"/>
       <c r="AH600" s="17"/>
+      <c r="AI600" s="17"/>
     </row>
     <row r="601" ht="19.5" customHeight="1">
       <c r="A601" s="17"/>
@@ -22260,6 +22865,7 @@
       <c r="AF601" s="17"/>
       <c r="AG601" s="17"/>
       <c r="AH601" s="17"/>
+      <c r="AI601" s="17"/>
     </row>
     <row r="602" ht="19.5" customHeight="1">
       <c r="A602" s="17"/>
@@ -22296,6 +22902,7 @@
       <c r="AF602" s="17"/>
       <c r="AG602" s="17"/>
       <c r="AH602" s="17"/>
+      <c r="AI602" s="17"/>
     </row>
     <row r="603" ht="19.5" customHeight="1">
       <c r="A603" s="17"/>
@@ -22332,6 +22939,7 @@
       <c r="AF603" s="17"/>
       <c r="AG603" s="17"/>
       <c r="AH603" s="17"/>
+      <c r="AI603" s="17"/>
     </row>
     <row r="604" ht="19.5" customHeight="1">
       <c r="A604" s="17"/>
@@ -22368,6 +22976,7 @@
       <c r="AF604" s="17"/>
       <c r="AG604" s="17"/>
       <c r="AH604" s="17"/>
+      <c r="AI604" s="17"/>
     </row>
     <row r="605" ht="19.5" customHeight="1">
       <c r="A605" s="17"/>
@@ -22404,6 +23013,7 @@
       <c r="AF605" s="17"/>
       <c r="AG605" s="17"/>
       <c r="AH605" s="17"/>
+      <c r="AI605" s="17"/>
     </row>
     <row r="606" ht="19.5" customHeight="1">
       <c r="A606" s="17"/>
@@ -22440,6 +23050,7 @@
       <c r="AF606" s="17"/>
       <c r="AG606" s="17"/>
       <c r="AH606" s="17"/>
+      <c r="AI606" s="17"/>
     </row>
     <row r="607" ht="19.5" customHeight="1">
       <c r="A607" s="17"/>
@@ -22476,6 +23087,7 @@
       <c r="AF607" s="17"/>
       <c r="AG607" s="17"/>
       <c r="AH607" s="17"/>
+      <c r="AI607" s="17"/>
     </row>
     <row r="608" ht="19.5" customHeight="1">
       <c r="A608" s="17"/>
@@ -22512,6 +23124,7 @@
       <c r="AF608" s="17"/>
       <c r="AG608" s="17"/>
       <c r="AH608" s="17"/>
+      <c r="AI608" s="17"/>
     </row>
     <row r="609" ht="19.5" customHeight="1">
       <c r="A609" s="17"/>
@@ -22548,6 +23161,7 @@
       <c r="AF609" s="17"/>
       <c r="AG609" s="17"/>
       <c r="AH609" s="17"/>
+      <c r="AI609" s="17"/>
     </row>
     <row r="610" ht="19.5" customHeight="1">
       <c r="A610" s="17"/>
@@ -22584,6 +23198,7 @@
       <c r="AF610" s="17"/>
       <c r="AG610" s="17"/>
       <c r="AH610" s="17"/>
+      <c r="AI610" s="17"/>
     </row>
     <row r="611" ht="19.5" customHeight="1">
       <c r="A611" s="17"/>
@@ -22620,6 +23235,7 @@
       <c r="AF611" s="17"/>
       <c r="AG611" s="17"/>
       <c r="AH611" s="17"/>
+      <c r="AI611" s="17"/>
     </row>
     <row r="612" ht="19.5" customHeight="1">
       <c r="A612" s="17"/>
@@ -22656,6 +23272,7 @@
       <c r="AF612" s="17"/>
       <c r="AG612" s="17"/>
       <c r="AH612" s="17"/>
+      <c r="AI612" s="17"/>
     </row>
     <row r="613" ht="19.5" customHeight="1">
       <c r="A613" s="17"/>
@@ -22692,6 +23309,7 @@
       <c r="AF613" s="17"/>
       <c r="AG613" s="17"/>
       <c r="AH613" s="17"/>
+      <c r="AI613" s="17"/>
     </row>
     <row r="614" ht="19.5" customHeight="1">
       <c r="A614" s="17"/>
@@ -22728,6 +23346,7 @@
       <c r="AF614" s="17"/>
       <c r="AG614" s="17"/>
       <c r="AH614" s="17"/>
+      <c r="AI614" s="17"/>
     </row>
     <row r="615" ht="19.5" customHeight="1">
       <c r="A615" s="17"/>
@@ -22764,6 +23383,7 @@
       <c r="AF615" s="17"/>
       <c r="AG615" s="17"/>
       <c r="AH615" s="17"/>
+      <c r="AI615" s="17"/>
     </row>
     <row r="616" ht="19.5" customHeight="1">
       <c r="A616" s="17"/>
@@ -22800,6 +23420,7 @@
       <c r="AF616" s="17"/>
       <c r="AG616" s="17"/>
       <c r="AH616" s="17"/>
+      <c r="AI616" s="17"/>
     </row>
     <row r="617" ht="19.5" customHeight="1">
       <c r="A617" s="17"/>
@@ -22836,6 +23457,7 @@
       <c r="AF617" s="17"/>
       <c r="AG617" s="17"/>
       <c r="AH617" s="17"/>
+      <c r="AI617" s="17"/>
     </row>
     <row r="618" ht="19.5" customHeight="1">
       <c r="A618" s="17"/>
@@ -22872,6 +23494,7 @@
       <c r="AF618" s="17"/>
       <c r="AG618" s="17"/>
       <c r="AH618" s="17"/>
+      <c r="AI618" s="17"/>
     </row>
     <row r="619" ht="19.5" customHeight="1">
       <c r="A619" s="17"/>
@@ -22908,6 +23531,7 @@
       <c r="AF619" s="17"/>
       <c r="AG619" s="17"/>
       <c r="AH619" s="17"/>
+      <c r="AI619" s="17"/>
     </row>
     <row r="620" ht="19.5" customHeight="1">
       <c r="A620" s="17"/>
@@ -22944,6 +23568,7 @@
       <c r="AF620" s="17"/>
       <c r="AG620" s="17"/>
       <c r="AH620" s="17"/>
+      <c r="AI620" s="17"/>
     </row>
     <row r="621" ht="19.5" customHeight="1">
       <c r="A621" s="17"/>
@@ -22980,6 +23605,7 @@
       <c r="AF621" s="17"/>
       <c r="AG621" s="17"/>
       <c r="AH621" s="17"/>
+      <c r="AI621" s="17"/>
     </row>
     <row r="622" ht="19.5" customHeight="1">
       <c r="A622" s="17"/>
@@ -23016,6 +23642,7 @@
       <c r="AF622" s="17"/>
       <c r="AG622" s="17"/>
       <c r="AH622" s="17"/>
+      <c r="AI622" s="17"/>
     </row>
     <row r="623" ht="19.5" customHeight="1">
       <c r="A623" s="17"/>
@@ -23052,6 +23679,7 @@
       <c r="AF623" s="17"/>
       <c r="AG623" s="17"/>
       <c r="AH623" s="17"/>
+      <c r="AI623" s="17"/>
     </row>
     <row r="624" ht="19.5" customHeight="1">
       <c r="A624" s="17"/>
@@ -23088,6 +23716,7 @@
       <c r="AF624" s="17"/>
       <c r="AG624" s="17"/>
       <c r="AH624" s="17"/>
+      <c r="AI624" s="17"/>
     </row>
     <row r="625" ht="19.5" customHeight="1">
       <c r="A625" s="17"/>
@@ -23124,6 +23753,7 @@
       <c r="AF625" s="17"/>
       <c r="AG625" s="17"/>
       <c r="AH625" s="17"/>
+      <c r="AI625" s="17"/>
     </row>
     <row r="626" ht="19.5" customHeight="1">
       <c r="A626" s="17"/>
@@ -23160,6 +23790,7 @@
       <c r="AF626" s="17"/>
       <c r="AG626" s="17"/>
       <c r="AH626" s="17"/>
+      <c r="AI626" s="17"/>
     </row>
     <row r="627" ht="19.5" customHeight="1">
       <c r="A627" s="17"/>
@@ -23196,6 +23827,7 @@
       <c r="AF627" s="17"/>
       <c r="AG627" s="17"/>
       <c r="AH627" s="17"/>
+      <c r="AI627" s="17"/>
     </row>
     <row r="628" ht="19.5" customHeight="1">
       <c r="A628" s="17"/>
@@ -23232,6 +23864,7 @@
       <c r="AF628" s="17"/>
       <c r="AG628" s="17"/>
       <c r="AH628" s="17"/>
+      <c r="AI628" s="17"/>
     </row>
     <row r="629" ht="19.5" customHeight="1">
       <c r="A629" s="17"/>
@@ -23268,6 +23901,7 @@
       <c r="AF629" s="17"/>
       <c r="AG629" s="17"/>
       <c r="AH629" s="17"/>
+      <c r="AI629" s="17"/>
     </row>
     <row r="630" ht="19.5" customHeight="1">
       <c r="A630" s="17"/>
@@ -23304,6 +23938,7 @@
       <c r="AF630" s="17"/>
       <c r="AG630" s="17"/>
       <c r="AH630" s="17"/>
+      <c r="AI630" s="17"/>
     </row>
     <row r="631" ht="19.5" customHeight="1">
       <c r="A631" s="17"/>
@@ -23340,6 +23975,7 @@
       <c r="AF631" s="17"/>
       <c r="AG631" s="17"/>
       <c r="AH631" s="17"/>
+      <c r="AI631" s="17"/>
     </row>
     <row r="632" ht="19.5" customHeight="1">
       <c r="A632" s="17"/>
@@ -23376,6 +24012,7 @@
       <c r="AF632" s="17"/>
       <c r="AG632" s="17"/>
       <c r="AH632" s="17"/>
+      <c r="AI632" s="17"/>
     </row>
     <row r="633" ht="19.5" customHeight="1">
       <c r="A633" s="17"/>
@@ -23412,6 +24049,7 @@
       <c r="AF633" s="17"/>
       <c r="AG633" s="17"/>
       <c r="AH633" s="17"/>
+      <c r="AI633" s="17"/>
     </row>
     <row r="634" ht="19.5" customHeight="1">
       <c r="A634" s="17"/>
@@ -23448,6 +24086,7 @@
       <c r="AF634" s="17"/>
       <c r="AG634" s="17"/>
       <c r="AH634" s="17"/>
+      <c r="AI634" s="17"/>
     </row>
     <row r="635" ht="19.5" customHeight="1">
       <c r="A635" s="17"/>
@@ -23484,6 +24123,7 @@
       <c r="AF635" s="17"/>
       <c r="AG635" s="17"/>
       <c r="AH635" s="17"/>
+      <c r="AI635" s="17"/>
     </row>
     <row r="636" ht="19.5" customHeight="1">
       <c r="A636" s="17"/>
@@ -23520,6 +24160,7 @@
       <c r="AF636" s="17"/>
       <c r="AG636" s="17"/>
       <c r="AH636" s="17"/>
+      <c r="AI636" s="17"/>
     </row>
     <row r="637" ht="19.5" customHeight="1">
       <c r="A637" s="17"/>
@@ -23556,6 +24197,7 @@
       <c r="AF637" s="17"/>
       <c r="AG637" s="17"/>
       <c r="AH637" s="17"/>
+      <c r="AI637" s="17"/>
     </row>
     <row r="638" ht="19.5" customHeight="1">
       <c r="A638" s="17"/>
@@ -23592,6 +24234,7 @@
       <c r="AF638" s="17"/>
       <c r="AG638" s="17"/>
       <c r="AH638" s="17"/>
+      <c r="AI638" s="17"/>
     </row>
     <row r="639" ht="19.5" customHeight="1">
       <c r="A639" s="17"/>
@@ -23628,6 +24271,7 @@
       <c r="AF639" s="17"/>
       <c r="AG639" s="17"/>
       <c r="AH639" s="17"/>
+      <c r="AI639" s="17"/>
     </row>
     <row r="640" ht="19.5" customHeight="1">
       <c r="A640" s="17"/>
@@ -23664,6 +24308,7 @@
       <c r="AF640" s="17"/>
       <c r="AG640" s="17"/>
       <c r="AH640" s="17"/>
+      <c r="AI640" s="17"/>
     </row>
     <row r="641" ht="19.5" customHeight="1">
       <c r="A641" s="17"/>
@@ -23700,6 +24345,7 @@
       <c r="AF641" s="17"/>
       <c r="AG641" s="17"/>
       <c r="AH641" s="17"/>
+      <c r="AI641" s="17"/>
     </row>
     <row r="642" ht="19.5" customHeight="1">
       <c r="A642" s="17"/>
@@ -23736,6 +24382,7 @@
       <c r="AF642" s="17"/>
       <c r="AG642" s="17"/>
       <c r="AH642" s="17"/>
+      <c r="AI642" s="17"/>
     </row>
     <row r="643" ht="19.5" customHeight="1">
       <c r="A643" s="17"/>
@@ -23772,6 +24419,7 @@
       <c r="AF643" s="17"/>
       <c r="AG643" s="17"/>
       <c r="AH643" s="17"/>
+      <c r="AI643" s="17"/>
     </row>
     <row r="644" ht="19.5" customHeight="1">
       <c r="A644" s="17"/>
@@ -23808,6 +24456,7 @@
       <c r="AF644" s="17"/>
       <c r="AG644" s="17"/>
       <c r="AH644" s="17"/>
+      <c r="AI644" s="17"/>
     </row>
     <row r="645" ht="19.5" customHeight="1">
       <c r="A645" s="17"/>
@@ -23844,6 +24493,7 @@
       <c r="AF645" s="17"/>
       <c r="AG645" s="17"/>
       <c r="AH645" s="17"/>
+      <c r="AI645" s="17"/>
     </row>
     <row r="646" ht="19.5" customHeight="1">
       <c r="A646" s="17"/>
@@ -23880,6 +24530,7 @@
       <c r="AF646" s="17"/>
       <c r="AG646" s="17"/>
       <c r="AH646" s="17"/>
+      <c r="AI646" s="17"/>
     </row>
     <row r="647" ht="19.5" customHeight="1">
       <c r="A647" s="17"/>
@@ -23916,6 +24567,7 @@
       <c r="AF647" s="17"/>
       <c r="AG647" s="17"/>
       <c r="AH647" s="17"/>
+      <c r="AI647" s="17"/>
     </row>
     <row r="648" ht="19.5" customHeight="1">
       <c r="A648" s="17"/>
@@ -23952,6 +24604,7 @@
       <c r="AF648" s="17"/>
       <c r="AG648" s="17"/>
       <c r="AH648" s="17"/>
+      <c r="AI648" s="17"/>
     </row>
     <row r="649" ht="19.5" customHeight="1">
       <c r="A649" s="17"/>
@@ -23988,6 +24641,7 @@
       <c r="AF649" s="17"/>
       <c r="AG649" s="17"/>
       <c r="AH649" s="17"/>
+      <c r="AI649" s="17"/>
     </row>
     <row r="650" ht="19.5" customHeight="1">
       <c r="A650" s="17"/>
@@ -24024,6 +24678,7 @@
       <c r="AF650" s="17"/>
       <c r="AG650" s="17"/>
       <c r="AH650" s="17"/>
+      <c r="AI650" s="17"/>
     </row>
     <row r="651" ht="19.5" customHeight="1">
       <c r="A651" s="17"/>
@@ -24060,6 +24715,7 @@
       <c r="AF651" s="17"/>
       <c r="AG651" s="17"/>
       <c r="AH651" s="17"/>
+      <c r="AI651" s="17"/>
     </row>
     <row r="652" ht="19.5" customHeight="1">
       <c r="A652" s="17"/>
@@ -24096,6 +24752,7 @@
       <c r="AF652" s="17"/>
       <c r="AG652" s="17"/>
       <c r="AH652" s="17"/>
+      <c r="AI652" s="17"/>
     </row>
     <row r="653" ht="19.5" customHeight="1">
       <c r="A653" s="17"/>
@@ -24132,6 +24789,7 @@
       <c r="AF653" s="17"/>
       <c r="AG653" s="17"/>
       <c r="AH653" s="17"/>
+      <c r="AI653" s="17"/>
     </row>
     <row r="654" ht="19.5" customHeight="1">
       <c r="A654" s="17"/>
@@ -24168,6 +24826,7 @@
       <c r="AF654" s="17"/>
       <c r="AG654" s="17"/>
       <c r="AH654" s="17"/>
+      <c r="AI654" s="17"/>
     </row>
     <row r="655" ht="19.5" customHeight="1">
       <c r="A655" s="17"/>
@@ -24204,6 +24863,7 @@
       <c r="AF655" s="17"/>
       <c r="AG655" s="17"/>
       <c r="AH655" s="17"/>
+      <c r="AI655" s="17"/>
     </row>
     <row r="656" ht="19.5" customHeight="1">
       <c r="A656" s="17"/>
@@ -24240,6 +24900,7 @@
       <c r="AF656" s="17"/>
       <c r="AG656" s="17"/>
       <c r="AH656" s="17"/>
+      <c r="AI656" s="17"/>
     </row>
     <row r="657" ht="19.5" customHeight="1">
       <c r="A657" s="17"/>
@@ -24276,6 +24937,7 @@
       <c r="AF657" s="17"/>
       <c r="AG657" s="17"/>
       <c r="AH657" s="17"/>
+      <c r="AI657" s="17"/>
     </row>
     <row r="658" ht="19.5" customHeight="1">
       <c r="A658" s="17"/>
@@ -24312,6 +24974,7 @@
       <c r="AF658" s="17"/>
       <c r="AG658" s="17"/>
       <c r="AH658" s="17"/>
+      <c r="AI658" s="17"/>
     </row>
     <row r="659" ht="19.5" customHeight="1">
       <c r="A659" s="17"/>
@@ -24348,6 +25011,7 @@
       <c r="AF659" s="17"/>
       <c r="AG659" s="17"/>
       <c r="AH659" s="17"/>
+      <c r="AI659" s="17"/>
     </row>
     <row r="660" ht="19.5" customHeight="1">
       <c r="A660" s="17"/>
@@ -24384,6 +25048,7 @@
       <c r="AF660" s="17"/>
       <c r="AG660" s="17"/>
       <c r="AH660" s="17"/>
+      <c r="AI660" s="17"/>
     </row>
     <row r="661" ht="19.5" customHeight="1">
       <c r="A661" s="17"/>
@@ -24420,6 +25085,7 @@
       <c r="AF661" s="17"/>
       <c r="AG661" s="17"/>
       <c r="AH661" s="17"/>
+      <c r="AI661" s="17"/>
     </row>
     <row r="662" ht="19.5" customHeight="1">
       <c r="A662" s="17"/>
@@ -24456,6 +25122,7 @@
       <c r="AF662" s="17"/>
       <c r="AG662" s="17"/>
       <c r="AH662" s="17"/>
+      <c r="AI662" s="17"/>
     </row>
     <row r="663" ht="19.5" customHeight="1">
       <c r="A663" s="17"/>
@@ -24492,6 +25159,7 @@
       <c r="AF663" s="17"/>
       <c r="AG663" s="17"/>
       <c r="AH663" s="17"/>
+      <c r="AI663" s="17"/>
     </row>
     <row r="664" ht="19.5" customHeight="1">
       <c r="A664" s="17"/>
@@ -24528,6 +25196,7 @@
       <c r="AF664" s="17"/>
       <c r="AG664" s="17"/>
       <c r="AH664" s="17"/>
+      <c r="AI664" s="17"/>
     </row>
     <row r="665" ht="19.5" customHeight="1">
       <c r="A665" s="17"/>
@@ -24564,6 +25233,7 @@
       <c r="AF665" s="17"/>
       <c r="AG665" s="17"/>
       <c r="AH665" s="17"/>
+      <c r="AI665" s="17"/>
     </row>
     <row r="666" ht="19.5" customHeight="1">
       <c r="A666" s="17"/>
@@ -24600,6 +25270,7 @@
       <c r="AF666" s="17"/>
       <c r="AG666" s="17"/>
       <c r="AH666" s="17"/>
+      <c r="AI666" s="17"/>
     </row>
     <row r="667" ht="19.5" customHeight="1">
       <c r="A667" s="17"/>
@@ -24636,6 +25307,7 @@
       <c r="AF667" s="17"/>
       <c r="AG667" s="17"/>
       <c r="AH667" s="17"/>
+      <c r="AI667" s="17"/>
     </row>
     <row r="668" ht="19.5" customHeight="1">
       <c r="A668" s="17"/>
@@ -24672,6 +25344,7 @@
       <c r="AF668" s="17"/>
       <c r="AG668" s="17"/>
       <c r="AH668" s="17"/>
+      <c r="AI668" s="17"/>
     </row>
     <row r="669" ht="19.5" customHeight="1">
       <c r="A669" s="17"/>
@@ -24708,6 +25381,7 @@
       <c r="AF669" s="17"/>
       <c r="AG669" s="17"/>
       <c r="AH669" s="17"/>
+      <c r="AI669" s="17"/>
     </row>
     <row r="670" ht="19.5" customHeight="1">
       <c r="A670" s="17"/>
@@ -24744,6 +25418,7 @@
       <c r="AF670" s="17"/>
       <c r="AG670" s="17"/>
       <c r="AH670" s="17"/>
+      <c r="AI670" s="17"/>
     </row>
     <row r="671" ht="19.5" customHeight="1">
       <c r="A671" s="17"/>
@@ -24780,6 +25455,7 @@
       <c r="AF671" s="17"/>
       <c r="AG671" s="17"/>
       <c r="AH671" s="17"/>
+      <c r="AI671" s="17"/>
     </row>
     <row r="672" ht="19.5" customHeight="1">
       <c r="A672" s="17"/>
@@ -24816,6 +25492,7 @@
       <c r="AF672" s="17"/>
       <c r="AG672" s="17"/>
       <c r="AH672" s="17"/>
+      <c r="AI672" s="17"/>
     </row>
     <row r="673" ht="19.5" customHeight="1">
       <c r="A673" s="17"/>
@@ -24852,6 +25529,7 @@
       <c r="AF673" s="17"/>
       <c r="AG673" s="17"/>
       <c r="AH673" s="17"/>
+      <c r="AI673" s="17"/>
     </row>
     <row r="674" ht="19.5" customHeight="1">
       <c r="A674" s="17"/>
@@ -24888,6 +25566,7 @@
       <c r="AF674" s="17"/>
       <c r="AG674" s="17"/>
       <c r="AH674" s="17"/>
+      <c r="AI674" s="17"/>
     </row>
     <row r="675" ht="19.5" customHeight="1">
       <c r="A675" s="17"/>
@@ -24924,6 +25603,7 @@
       <c r="AF675" s="17"/>
       <c r="AG675" s="17"/>
       <c r="AH675" s="17"/>
+      <c r="AI675" s="17"/>
     </row>
     <row r="676" ht="19.5" customHeight="1">
       <c r="A676" s="17"/>
@@ -24960,6 +25640,7 @@
       <c r="AF676" s="17"/>
       <c r="AG676" s="17"/>
       <c r="AH676" s="17"/>
+      <c r="AI676" s="17"/>
     </row>
     <row r="677" ht="19.5" customHeight="1">
       <c r="A677" s="17"/>
@@ -24996,6 +25677,7 @@
       <c r="AF677" s="17"/>
       <c r="AG677" s="17"/>
       <c r="AH677" s="17"/>
+      <c r="AI677" s="17"/>
     </row>
     <row r="678" ht="19.5" customHeight="1">
       <c r="A678" s="17"/>
@@ -25032,6 +25714,7 @@
       <c r="AF678" s="17"/>
       <c r="AG678" s="17"/>
       <c r="AH678" s="17"/>
+      <c r="AI678" s="17"/>
     </row>
     <row r="679" ht="19.5" customHeight="1">
       <c r="A679" s="17"/>
@@ -25068,6 +25751,7 @@
       <c r="AF679" s="17"/>
       <c r="AG679" s="17"/>
       <c r="AH679" s="17"/>
+      <c r="AI679" s="17"/>
     </row>
     <row r="680" ht="19.5" customHeight="1">
       <c r="A680" s="17"/>
@@ -25104,6 +25788,7 @@
       <c r="AF680" s="17"/>
       <c r="AG680" s="17"/>
       <c r="AH680" s="17"/>
+      <c r="AI680" s="17"/>
     </row>
     <row r="681" ht="19.5" customHeight="1">
       <c r="A681" s="17"/>
@@ -25140,6 +25825,7 @@
       <c r="AF681" s="17"/>
       <c r="AG681" s="17"/>
       <c r="AH681" s="17"/>
+      <c r="AI681" s="17"/>
     </row>
     <row r="682" ht="19.5" customHeight="1">
       <c r="A682" s="17"/>
@@ -25176,6 +25862,7 @@
       <c r="AF682" s="17"/>
       <c r="AG682" s="17"/>
       <c r="AH682" s="17"/>
+      <c r="AI682" s="17"/>
     </row>
     <row r="683" ht="19.5" customHeight="1">
       <c r="A683" s="17"/>
@@ -25212,6 +25899,7 @@
       <c r="AF683" s="17"/>
       <c r="AG683" s="17"/>
       <c r="AH683" s="17"/>
+      <c r="AI683" s="17"/>
     </row>
     <row r="684" ht="19.5" customHeight="1">
       <c r="A684" s="17"/>
@@ -25248,6 +25936,7 @@
       <c r="AF684" s="17"/>
       <c r="AG684" s="17"/>
       <c r="AH684" s="17"/>
+      <c r="AI684" s="17"/>
     </row>
     <row r="685" ht="19.5" customHeight="1">
       <c r="A685" s="17"/>
@@ -25284,6 +25973,7 @@
       <c r="AF685" s="17"/>
       <c r="AG685" s="17"/>
       <c r="AH685" s="17"/>
+      <c r="AI685" s="17"/>
     </row>
     <row r="686" ht="19.5" customHeight="1">
       <c r="A686" s="17"/>
@@ -25320,6 +26010,7 @@
       <c r="AF686" s="17"/>
       <c r="AG686" s="17"/>
       <c r="AH686" s="17"/>
+      <c r="AI686" s="17"/>
     </row>
     <row r="687" ht="19.5" customHeight="1">
       <c r="A687" s="17"/>
@@ -25356,6 +26047,7 @@
       <c r="AF687" s="17"/>
       <c r="AG687" s="17"/>
       <c r="AH687" s="17"/>
+      <c r="AI687" s="17"/>
     </row>
     <row r="688" ht="19.5" customHeight="1">
       <c r="A688" s="17"/>
@@ -25392,6 +26084,7 @@
       <c r="AF688" s="17"/>
       <c r="AG688" s="17"/>
       <c r="AH688" s="17"/>
+      <c r="AI688" s="17"/>
     </row>
     <row r="689" ht="19.5" customHeight="1">
       <c r="A689" s="17"/>
@@ -25428,6 +26121,7 @@
       <c r="AF689" s="17"/>
       <c r="AG689" s="17"/>
       <c r="AH689" s="17"/>
+      <c r="AI689" s="17"/>
     </row>
     <row r="690" ht="19.5" customHeight="1">
       <c r="A690" s="17"/>
@@ -25464,6 +26158,7 @@
       <c r="AF690" s="17"/>
       <c r="AG690" s="17"/>
       <c r="AH690" s="17"/>
+      <c r="AI690" s="17"/>
     </row>
     <row r="691" ht="19.5" customHeight="1">
       <c r="A691" s="17"/>
@@ -25500,6 +26195,7 @@
       <c r="AF691" s="17"/>
       <c r="AG691" s="17"/>
       <c r="AH691" s="17"/>
+      <c r="AI691" s="17"/>
     </row>
     <row r="692" ht="19.5" customHeight="1">
       <c r="A692" s="17"/>
@@ -25536,6 +26232,7 @@
       <c r="AF692" s="17"/>
       <c r="AG692" s="17"/>
       <c r="AH692" s="17"/>
+      <c r="AI692" s="17"/>
     </row>
     <row r="693" ht="19.5" customHeight="1">
       <c r="A693" s="17"/>
@@ -25572,6 +26269,7 @@
       <c r="AF693" s="17"/>
       <c r="AG693" s="17"/>
       <c r="AH693" s="17"/>
+      <c r="AI693" s="17"/>
     </row>
     <row r="694" ht="19.5" customHeight="1">
       <c r="A694" s="17"/>
@@ -25608,6 +26306,7 @@
       <c r="AF694" s="17"/>
       <c r="AG694" s="17"/>
       <c r="AH694" s="17"/>
+      <c r="AI694" s="17"/>
     </row>
     <row r="695" ht="19.5" customHeight="1">
       <c r="A695" s="17"/>
@@ -25644,6 +26343,7 @@
       <c r="AF695" s="17"/>
       <c r="AG695" s="17"/>
       <c r="AH695" s="17"/>
+      <c r="AI695" s="17"/>
     </row>
     <row r="696" ht="19.5" customHeight="1">
       <c r="A696" s="17"/>
@@ -25680,6 +26380,7 @@
       <c r="AF696" s="17"/>
       <c r="AG696" s="17"/>
       <c r="AH696" s="17"/>
+      <c r="AI696" s="17"/>
     </row>
     <row r="697" ht="19.5" customHeight="1">
       <c r="A697" s="17"/>
@@ -25716,6 +26417,7 @@
       <c r="AF697" s="17"/>
       <c r="AG697" s="17"/>
       <c r="AH697" s="17"/>
+      <c r="AI697" s="17"/>
     </row>
     <row r="698" ht="19.5" customHeight="1">
       <c r="A698" s="17"/>
@@ -25752,6 +26454,7 @@
       <c r="AF698" s="17"/>
       <c r="AG698" s="17"/>
       <c r="AH698" s="17"/>
+      <c r="AI698" s="17"/>
     </row>
     <row r="699" ht="19.5" customHeight="1">
       <c r="A699" s="17"/>
@@ -25788,6 +26491,7 @@
       <c r="AF699" s="17"/>
       <c r="AG699" s="17"/>
       <c r="AH699" s="17"/>
+      <c r="AI699" s="17"/>
     </row>
     <row r="700" ht="19.5" customHeight="1">
       <c r="A700" s="17"/>
@@ -25824,6 +26528,7 @@
       <c r="AF700" s="17"/>
       <c r="AG700" s="17"/>
       <c r="AH700" s="17"/>
+      <c r="AI700" s="17"/>
     </row>
     <row r="701" ht="19.5" customHeight="1">
       <c r="A701" s="17"/>
@@ -25860,6 +26565,7 @@
       <c r="AF701" s="17"/>
       <c r="AG701" s="17"/>
       <c r="AH701" s="17"/>
+      <c r="AI701" s="17"/>
     </row>
     <row r="702" ht="19.5" customHeight="1">
       <c r="A702" s="17"/>
@@ -25896,6 +26602,7 @@
       <c r="AF702" s="17"/>
       <c r="AG702" s="17"/>
       <c r="AH702" s="17"/>
+      <c r="AI702" s="17"/>
     </row>
     <row r="703" ht="19.5" customHeight="1">
       <c r="A703" s="17"/>
@@ -25932,6 +26639,7 @@
       <c r="AF703" s="17"/>
       <c r="AG703" s="17"/>
       <c r="AH703" s="17"/>
+      <c r="AI703" s="17"/>
     </row>
     <row r="704" ht="19.5" customHeight="1">
       <c r="A704" s="17"/>
@@ -25968,6 +26676,7 @@
       <c r="AF704" s="17"/>
       <c r="AG704" s="17"/>
       <c r="AH704" s="17"/>
+      <c r="AI704" s="17"/>
     </row>
     <row r="705" ht="19.5" customHeight="1">
       <c r="A705" s="17"/>
@@ -26004,6 +26713,7 @@
       <c r="AF705" s="17"/>
       <c r="AG705" s="17"/>
       <c r="AH705" s="17"/>
+      <c r="AI705" s="17"/>
     </row>
     <row r="706" ht="19.5" customHeight="1">
       <c r="A706" s="17"/>
@@ -26040,6 +26750,7 @@
       <c r="AF706" s="17"/>
       <c r="AG706" s="17"/>
       <c r="AH706" s="17"/>
+      <c r="AI706" s="17"/>
     </row>
     <row r="707" ht="19.5" customHeight="1">
       <c r="A707" s="17"/>
@@ -26076,6 +26787,7 @@
       <c r="AF707" s="17"/>
       <c r="AG707" s="17"/>
       <c r="AH707" s="17"/>
+      <c r="AI707" s="17"/>
     </row>
     <row r="708" ht="19.5" customHeight="1">
       <c r="A708" s="17"/>
@@ -26112,6 +26824,7 @@
       <c r="AF708" s="17"/>
       <c r="AG708" s="17"/>
       <c r="AH708" s="17"/>
+      <c r="AI708" s="17"/>
     </row>
     <row r="709" ht="19.5" customHeight="1">
       <c r="A709" s="17"/>
@@ -26148,6 +26861,7 @@
       <c r="AF709" s="17"/>
       <c r="AG709" s="17"/>
       <c r="AH709" s="17"/>
+      <c r="AI709" s="17"/>
     </row>
     <row r="710" ht="19.5" customHeight="1">
       <c r="A710" s="17"/>
@@ -26184,6 +26898,7 @@
       <c r="AF710" s="17"/>
       <c r="AG710" s="17"/>
       <c r="AH710" s="17"/>
+      <c r="AI710" s="17"/>
     </row>
     <row r="711" ht="19.5" customHeight="1">
       <c r="A711" s="17"/>
@@ -26220,6 +26935,7 @@
       <c r="AF711" s="17"/>
       <c r="AG711" s="17"/>
       <c r="AH711" s="17"/>
+      <c r="AI711" s="17"/>
     </row>
     <row r="712" ht="19.5" customHeight="1">
       <c r="A712" s="17"/>
@@ -26256,6 +26972,7 @@
       <c r="AF712" s="17"/>
       <c r="AG712" s="17"/>
       <c r="AH712" s="17"/>
+      <c r="AI712" s="17"/>
     </row>
     <row r="713" ht="19.5" customHeight="1">
       <c r="A713" s="17"/>
@@ -26292,6 +27009,7 @@
       <c r="AF713" s="17"/>
       <c r="AG713" s="17"/>
       <c r="AH713" s="17"/>
+      <c r="AI713" s="17"/>
     </row>
     <row r="714" ht="19.5" customHeight="1">
       <c r="A714" s="17"/>
@@ -26328,6 +27046,7 @@
       <c r="AF714" s="17"/>
       <c r="AG714" s="17"/>
       <c r="AH714" s="17"/>
+      <c r="AI714" s="17"/>
     </row>
     <row r="715" ht="19.5" customHeight="1">
       <c r="A715" s="17"/>
@@ -26364,6 +27083,7 @@
       <c r="AF715" s="17"/>
       <c r="AG715" s="17"/>
       <c r="AH715" s="17"/>
+      <c r="AI715" s="17"/>
     </row>
     <row r="716" ht="19.5" customHeight="1">
       <c r="A716" s="17"/>
@@ -26400,6 +27120,7 @@
       <c r="AF716" s="17"/>
       <c r="AG716" s="17"/>
       <c r="AH716" s="17"/>
+      <c r="AI716" s="17"/>
     </row>
     <row r="717" ht="19.5" customHeight="1">
       <c r="A717" s="17"/>
@@ -26436,6 +27157,7 @@
       <c r="AF717" s="17"/>
       <c r="AG717" s="17"/>
       <c r="AH717" s="17"/>
+      <c r="AI717" s="17"/>
     </row>
     <row r="718" ht="19.5" customHeight="1">
       <c r="A718" s="17"/>
@@ -26472,6 +27194,7 @@
       <c r="AF718" s="17"/>
       <c r="AG718" s="17"/>
       <c r="AH718" s="17"/>
+      <c r="AI718" s="17"/>
     </row>
     <row r="719" ht="19.5" customHeight="1">
       <c r="A719" s="17"/>
@@ -26508,6 +27231,7 @@
       <c r="AF719" s="17"/>
       <c r="AG719" s="17"/>
       <c r="AH719" s="17"/>
+      <c r="AI719" s="17"/>
     </row>
     <row r="720" ht="19.5" customHeight="1">
       <c r="A720" s="17"/>
@@ -26544,6 +27268,7 @@
       <c r="AF720" s="17"/>
       <c r="AG720" s="17"/>
       <c r="AH720" s="17"/>
+      <c r="AI720" s="17"/>
     </row>
     <row r="721" ht="19.5" customHeight="1">
       <c r="A721" s="17"/>
@@ -26580,6 +27305,7 @@
       <c r="AF721" s="17"/>
       <c r="AG721" s="17"/>
       <c r="AH721" s="17"/>
+      <c r="AI721" s="17"/>
     </row>
     <row r="722" ht="19.5" customHeight="1">
       <c r="A722" s="17"/>
@@ -26616,6 +27342,7 @@
       <c r="AF722" s="17"/>
       <c r="AG722" s="17"/>
       <c r="AH722" s="17"/>
+      <c r="AI722" s="17"/>
     </row>
     <row r="723" ht="19.5" customHeight="1">
       <c r="A723" s="17"/>
@@ -26652,6 +27379,7 @@
       <c r="AF723" s="17"/>
       <c r="AG723" s="17"/>
       <c r="AH723" s="17"/>
+      <c r="AI723" s="17"/>
     </row>
     <row r="724" ht="19.5" customHeight="1">
       <c r="A724" s="17"/>
@@ -26688,6 +27416,7 @@
       <c r="AF724" s="17"/>
       <c r="AG724" s="17"/>
       <c r="AH724" s="17"/>
+      <c r="AI724" s="17"/>
     </row>
     <row r="725" ht="19.5" customHeight="1">
       <c r="A725" s="17"/>
@@ -26724,6 +27453,7 @@
       <c r="AF725" s="17"/>
       <c r="AG725" s="17"/>
       <c r="AH725" s="17"/>
+      <c r="AI725" s="17"/>
     </row>
     <row r="726" ht="19.5" customHeight="1">
       <c r="A726" s="17"/>
@@ -26760,6 +27490,7 @@
       <c r="AF726" s="17"/>
       <c r="AG726" s="17"/>
       <c r="AH726" s="17"/>
+      <c r="AI726" s="17"/>
     </row>
     <row r="727" ht="19.5" customHeight="1">
       <c r="A727" s="17"/>
@@ -26796,6 +27527,7 @@
       <c r="AF727" s="17"/>
       <c r="AG727" s="17"/>
       <c r="AH727" s="17"/>
+      <c r="AI727" s="17"/>
     </row>
     <row r="728" ht="19.5" customHeight="1">
       <c r="A728" s="17"/>
@@ -26832,6 +27564,7 @@
       <c r="AF728" s="17"/>
       <c r="AG728" s="17"/>
       <c r="AH728" s="17"/>
+      <c r="AI728" s="17"/>
     </row>
     <row r="729" ht="19.5" customHeight="1">
       <c r="A729" s="17"/>
@@ -26868,6 +27601,7 @@
       <c r="AF729" s="17"/>
       <c r="AG729" s="17"/>
       <c r="AH729" s="17"/>
+      <c r="AI729" s="17"/>
     </row>
     <row r="730" ht="19.5" customHeight="1">
       <c r="A730" s="17"/>
@@ -26904,6 +27638,7 @@
       <c r="AF730" s="17"/>
       <c r="AG730" s="17"/>
       <c r="AH730" s="17"/>
+      <c r="AI730" s="17"/>
     </row>
     <row r="731" ht="19.5" customHeight="1">
       <c r="A731" s="17"/>
@@ -26940,6 +27675,7 @@
       <c r="AF731" s="17"/>
       <c r="AG731" s="17"/>
       <c r="AH731" s="17"/>
+      <c r="AI731" s="17"/>
     </row>
     <row r="732" ht="19.5" customHeight="1">
       <c r="A732" s="17"/>
@@ -26976,6 +27712,7 @@
       <c r="AF732" s="17"/>
       <c r="AG732" s="17"/>
       <c r="AH732" s="17"/>
+      <c r="AI732" s="17"/>
     </row>
     <row r="733" ht="19.5" customHeight="1">
       <c r="A733" s="17"/>
@@ -27012,6 +27749,7 @@
       <c r="AF733" s="17"/>
       <c r="AG733" s="17"/>
       <c r="AH733" s="17"/>
+      <c r="AI733" s="17"/>
     </row>
     <row r="734" ht="19.5" customHeight="1">
       <c r="A734" s="17"/>
@@ -27048,6 +27786,7 @@
       <c r="AF734" s="17"/>
       <c r="AG734" s="17"/>
       <c r="AH734" s="17"/>
+      <c r="AI734" s="17"/>
     </row>
     <row r="735" ht="19.5" customHeight="1">
       <c r="A735" s="17"/>
@@ -27084,6 +27823,7 @@
       <c r="AF735" s="17"/>
       <c r="AG735" s="17"/>
       <c r="AH735" s="17"/>
+      <c r="AI735" s="17"/>
     </row>
     <row r="736" ht="19.5" customHeight="1">
       <c r="A736" s="17"/>
@@ -27120,6 +27860,7 @@
       <c r="AF736" s="17"/>
       <c r="AG736" s="17"/>
       <c r="AH736" s="17"/>
+      <c r="AI736" s="17"/>
     </row>
     <row r="737" ht="19.5" customHeight="1">
       <c r="A737" s="17"/>
@@ -27156,6 +27897,7 @@
       <c r="AF737" s="17"/>
       <c r="AG737" s="17"/>
       <c r="AH737" s="17"/>
+      <c r="AI737" s="17"/>
     </row>
     <row r="738" ht="19.5" customHeight="1">
       <c r="A738" s="17"/>
@@ -27192,6 +27934,7 @@
       <c r="AF738" s="17"/>
       <c r="AG738" s="17"/>
       <c r="AH738" s="17"/>
+      <c r="AI738" s="17"/>
     </row>
     <row r="739" ht="19.5" customHeight="1">
       <c r="A739" s="17"/>
@@ -27228,6 +27971,7 @@
       <c r="AF739" s="17"/>
       <c r="AG739" s="17"/>
       <c r="AH739" s="17"/>
+      <c r="AI739" s="17"/>
     </row>
     <row r="740" ht="19.5" customHeight="1">
       <c r="A740" s="17"/>
@@ -27264,6 +28008,7 @@
       <c r="AF740" s="17"/>
       <c r="AG740" s="17"/>
       <c r="AH740" s="17"/>
+      <c r="AI740" s="17"/>
     </row>
     <row r="741" ht="19.5" customHeight="1">
       <c r="A741" s="17"/>
@@ -27300,6 +28045,7 @@
       <c r="AF741" s="17"/>
       <c r="AG741" s="17"/>
       <c r="AH741" s="17"/>
+      <c r="AI741" s="17"/>
     </row>
     <row r="742" ht="19.5" customHeight="1">
       <c r="A742" s="17"/>
@@ -27336,6 +28082,7 @@
       <c r="AF742" s="17"/>
       <c r="AG742" s="17"/>
       <c r="AH742" s="17"/>
+      <c r="AI742" s="17"/>
     </row>
     <row r="743" ht="19.5" customHeight="1">
       <c r="A743" s="17"/>
@@ -27372,6 +28119,7 @@
       <c r="AF743" s="17"/>
       <c r="AG743" s="17"/>
       <c r="AH743" s="17"/>
+      <c r="AI743" s="17"/>
     </row>
     <row r="744" ht="19.5" customHeight="1">
       <c r="A744" s="17"/>
@@ -27408,6 +28156,7 @@
       <c r="AF744" s="17"/>
       <c r="AG744" s="17"/>
       <c r="AH744" s="17"/>
+      <c r="AI744" s="17"/>
     </row>
     <row r="745" ht="19.5" customHeight="1">
       <c r="A745" s="17"/>
@@ -27444,6 +28193,7 @@
       <c r="AF745" s="17"/>
       <c r="AG745" s="17"/>
       <c r="AH745" s="17"/>
+      <c r="AI745" s="17"/>
     </row>
     <row r="746" ht="19.5" customHeight="1">
       <c r="A746" s="17"/>
@@ -27480,6 +28230,7 @@
       <c r="AF746" s="17"/>
       <c r="AG746" s="17"/>
       <c r="AH746" s="17"/>
+      <c r="AI746" s="17"/>
     </row>
     <row r="747" ht="19.5" customHeight="1">
       <c r="A747" s="17"/>
@@ -27516,6 +28267,7 @@
       <c r="AF747" s="17"/>
       <c r="AG747" s="17"/>
       <c r="AH747" s="17"/>
+      <c r="AI747" s="17"/>
     </row>
     <row r="748" ht="19.5" customHeight="1">
       <c r="A748" s="17"/>
@@ -27552,6 +28304,7 @@
       <c r="AF748" s="17"/>
       <c r="AG748" s="17"/>
       <c r="AH748" s="17"/>
+      <c r="AI748" s="17"/>
     </row>
     <row r="749" ht="19.5" customHeight="1">
       <c r="A749" s="17"/>
@@ -27588,6 +28341,7 @@
       <c r="AF749" s="17"/>
       <c r="AG749" s="17"/>
       <c r="AH749" s="17"/>
+      <c r="AI749" s="17"/>
     </row>
     <row r="750" ht="19.5" customHeight="1">
       <c r="A750" s="17"/>
@@ -27624,6 +28378,7 @@
       <c r="AF750" s="17"/>
       <c r="AG750" s="17"/>
       <c r="AH750" s="17"/>
+      <c r="AI750" s="17"/>
     </row>
     <row r="751" ht="19.5" customHeight="1">
       <c r="A751" s="17"/>
@@ -27660,6 +28415,7 @@
       <c r="AF751" s="17"/>
       <c r="AG751" s="17"/>
       <c r="AH751" s="17"/>
+      <c r="AI751" s="17"/>
     </row>
     <row r="752" ht="19.5" customHeight="1">
       <c r="A752" s="17"/>
@@ -27696,6 +28452,7 @@
       <c r="AF752" s="17"/>
       <c r="AG752" s="17"/>
       <c r="AH752" s="17"/>
+      <c r="AI752" s="17"/>
     </row>
     <row r="753" ht="19.5" customHeight="1">
       <c r="A753" s="17"/>
@@ -27732,6 +28489,7 @@
       <c r="AF753" s="17"/>
       <c r="AG753" s="17"/>
       <c r="AH753" s="17"/>
+      <c r="AI753" s="17"/>
     </row>
     <row r="754" ht="19.5" customHeight="1">
       <c r="A754" s="17"/>
@@ -27768,6 +28526,7 @@
       <c r="AF754" s="17"/>
       <c r="AG754" s="17"/>
       <c r="AH754" s="17"/>
+      <c r="AI754" s="17"/>
     </row>
     <row r="755" ht="19.5" customHeight="1">
       <c r="A755" s="17"/>
@@ -27804,6 +28563,7 @@
       <c r="AF755" s="17"/>
       <c r="AG755" s="17"/>
       <c r="AH755" s="17"/>
+      <c r="AI755" s="17"/>
     </row>
     <row r="756" ht="19.5" customHeight="1">
       <c r="A756" s="17"/>
@@ -27840,6 +28600,7 @@
       <c r="AF756" s="17"/>
       <c r="AG756" s="17"/>
       <c r="AH756" s="17"/>
+      <c r="AI756" s="17"/>
     </row>
     <row r="757" ht="19.5" customHeight="1">
       <c r="A757" s="17"/>
@@ -27876,6 +28637,7 @@
       <c r="AF757" s="17"/>
       <c r="AG757" s="17"/>
       <c r="AH757" s="17"/>
+      <c r="AI757" s="17"/>
     </row>
     <row r="758" ht="19.5" customHeight="1">
       <c r="A758" s="17"/>
@@ -27912,6 +28674,7 @@
       <c r="AF758" s="17"/>
       <c r="AG758" s="17"/>
       <c r="AH758" s="17"/>
+      <c r="AI758" s="17"/>
     </row>
     <row r="759" ht="19.5" customHeight="1">
       <c r="A759" s="17"/>
@@ -27948,6 +28711,7 @@
       <c r="AF759" s="17"/>
       <c r="AG759" s="17"/>
       <c r="AH759" s="17"/>
+      <c r="AI759" s="17"/>
     </row>
     <row r="760" ht="19.5" customHeight="1">
       <c r="A760" s="17"/>
@@ -27984,6 +28748,7 @@
       <c r="AF760" s="17"/>
       <c r="AG760" s="17"/>
       <c r="AH760" s="17"/>
+      <c r="AI760" s="17"/>
     </row>
     <row r="761" ht="19.5" customHeight="1">
       <c r="A761" s="17"/>
@@ -28020,6 +28785,7 @@
       <c r="AF761" s="17"/>
       <c r="AG761" s="17"/>
       <c r="AH761" s="17"/>
+      <c r="AI761" s="17"/>
     </row>
     <row r="762" ht="19.5" customHeight="1">
       <c r="A762" s="17"/>
@@ -28056,6 +28822,7 @@
       <c r="AF762" s="17"/>
       <c r="AG762" s="17"/>
       <c r="AH762" s="17"/>
+      <c r="AI762" s="17"/>
     </row>
     <row r="763" ht="19.5" customHeight="1">
       <c r="A763" s="17"/>
@@ -28092,6 +28859,7 @@
       <c r="AF763" s="17"/>
       <c r="AG763" s="17"/>
       <c r="AH763" s="17"/>
+      <c r="AI763" s="17"/>
     </row>
     <row r="764" ht="19.5" customHeight="1">
       <c r="A764" s="17"/>
@@ -28128,6 +28896,7 @@
       <c r="AF764" s="17"/>
       <c r="AG764" s="17"/>
       <c r="AH764" s="17"/>
+      <c r="AI764" s="17"/>
     </row>
     <row r="765" ht="19.5" customHeight="1">
       <c r="A765" s="17"/>
@@ -28164,6 +28933,7 @@
       <c r="AF765" s="17"/>
       <c r="AG765" s="17"/>
       <c r="AH765" s="17"/>
+      <c r="AI765" s="17"/>
     </row>
     <row r="766" ht="19.5" customHeight="1">
       <c r="A766" s="17"/>
@@ -28200,6 +28970,7 @@
       <c r="AF766" s="17"/>
       <c r="AG766" s="17"/>
       <c r="AH766" s="17"/>
+      <c r="AI766" s="17"/>
     </row>
     <row r="767" ht="19.5" customHeight="1">
       <c r="A767" s="17"/>
@@ -28236,6 +29007,7 @@
       <c r="AF767" s="17"/>
       <c r="AG767" s="17"/>
       <c r="AH767" s="17"/>
+      <c r="AI767" s="17"/>
     </row>
     <row r="768" ht="19.5" customHeight="1">
       <c r="A768" s="17"/>
@@ -28272,6 +29044,7 @@
       <c r="AF768" s="17"/>
       <c r="AG768" s="17"/>
       <c r="AH768" s="17"/>
+      <c r="AI768" s="17"/>
     </row>
     <row r="769" ht="19.5" customHeight="1">
       <c r="A769" s="17"/>
@@ -28308,6 +29081,7 @@
       <c r="AF769" s="17"/>
       <c r="AG769" s="17"/>
       <c r="AH769" s="17"/>
+      <c r="AI769" s="17"/>
     </row>
     <row r="770" ht="19.5" customHeight="1">
       <c r="A770" s="17"/>
@@ -28344,6 +29118,7 @@
       <c r="AF770" s="17"/>
       <c r="AG770" s="17"/>
       <c r="AH770" s="17"/>
+      <c r="AI770" s="17"/>
     </row>
     <row r="771" ht="19.5" customHeight="1">
       <c r="A771" s="17"/>
@@ -28380,6 +29155,7 @@
       <c r="AF771" s="17"/>
       <c r="AG771" s="17"/>
       <c r="AH771" s="17"/>
+      <c r="AI771" s="17"/>
     </row>
     <row r="772" ht="19.5" customHeight="1">
       <c r="A772" s="17"/>
@@ -28416,6 +29192,7 @@
       <c r="AF772" s="17"/>
       <c r="AG772" s="17"/>
       <c r="AH772" s="17"/>
+      <c r="AI772" s="17"/>
     </row>
     <row r="773" ht="19.5" customHeight="1">
       <c r="A773" s="17"/>
@@ -28452,6 +29229,7 @@
       <c r="AF773" s="17"/>
       <c r="AG773" s="17"/>
       <c r="AH773" s="17"/>
+      <c r="AI773" s="17"/>
     </row>
     <row r="774" ht="19.5" customHeight="1">
       <c r="A774" s="17"/>
@@ -28488,6 +29266,7 @@
       <c r="AF774" s="17"/>
       <c r="AG774" s="17"/>
       <c r="AH774" s="17"/>
+      <c r="AI774" s="17"/>
     </row>
     <row r="775" ht="19.5" customHeight="1">
       <c r="A775" s="17"/>
@@ -28524,6 +29303,7 @@
       <c r="AF775" s="17"/>
       <c r="AG775" s="17"/>
       <c r="AH775" s="17"/>
+      <c r="AI775" s="17"/>
     </row>
     <row r="776" ht="19.5" customHeight="1">
       <c r="A776" s="17"/>
@@ -28560,6 +29340,7 @@
       <c r="AF776" s="17"/>
       <c r="AG776" s="17"/>
       <c r="AH776" s="17"/>
+      <c r="AI776" s="17"/>
     </row>
     <row r="777" ht="19.5" customHeight="1">
       <c r="A777" s="17"/>
@@ -28596,6 +29377,7 @@
       <c r="AF777" s="17"/>
       <c r="AG777" s="17"/>
       <c r="AH777" s="17"/>
+      <c r="AI777" s="17"/>
     </row>
     <row r="778" ht="19.5" customHeight="1">
       <c r="A778" s="17"/>
@@ -28632,6 +29414,7 @@
       <c r="AF778" s="17"/>
       <c r="AG778" s="17"/>
       <c r="AH778" s="17"/>
+      <c r="AI778" s="17"/>
     </row>
     <row r="779" ht="19.5" customHeight="1">
       <c r="A779" s="17"/>
@@ -28668,6 +29451,7 @@
       <c r="AF779" s="17"/>
       <c r="AG779" s="17"/>
       <c r="AH779" s="17"/>
+      <c r="AI779" s="17"/>
     </row>
     <row r="780" ht="19.5" customHeight="1">
       <c r="A780" s="17"/>
@@ -28704,6 +29488,7 @@
       <c r="AF780" s="17"/>
       <c r="AG780" s="17"/>
       <c r="AH780" s="17"/>
+      <c r="AI780" s="17"/>
     </row>
     <row r="781" ht="19.5" customHeight="1">
       <c r="A781" s="17"/>
@@ -28740,6 +29525,7 @@
       <c r="AF781" s="17"/>
       <c r="AG781" s="17"/>
       <c r="AH781" s="17"/>
+      <c r="AI781" s="17"/>
     </row>
     <row r="782" ht="19.5" customHeight="1">
       <c r="A782" s="17"/>
@@ -28776,6 +29562,7 @@
       <c r="AF782" s="17"/>
       <c r="AG782" s="17"/>
       <c r="AH782" s="17"/>
+      <c r="AI782" s="17"/>
     </row>
     <row r="783" ht="19.5" customHeight="1">
       <c r="A783" s="17"/>
@@ -28812,6 +29599,7 @@
       <c r="AF783" s="17"/>
       <c r="AG783" s="17"/>
       <c r="AH783" s="17"/>
+      <c r="AI783" s="17"/>
     </row>
     <row r="784" ht="19.5" customHeight="1">
       <c r="A784" s="17"/>
@@ -28848,6 +29636,7 @@
       <c r="AF784" s="17"/>
       <c r="AG784" s="17"/>
       <c r="AH784" s="17"/>
+      <c r="AI784" s="17"/>
     </row>
     <row r="785" ht="19.5" customHeight="1">
       <c r="A785" s="17"/>
@@ -28884,6 +29673,7 @@
       <c r="AF785" s="17"/>
       <c r="AG785" s="17"/>
       <c r="AH785" s="17"/>
+      <c r="AI785" s="17"/>
     </row>
     <row r="786" ht="19.5" customHeight="1">
       <c r="A786" s="17"/>
@@ -28920,6 +29710,7 @@
       <c r="AF786" s="17"/>
       <c r="AG786" s="17"/>
       <c r="AH786" s="17"/>
+      <c r="AI786" s="17"/>
     </row>
     <row r="787" ht="19.5" customHeight="1">
       <c r="A787" s="17"/>
@@ -28956,6 +29747,7 @@
       <c r="AF787" s="17"/>
       <c r="AG787" s="17"/>
       <c r="AH787" s="17"/>
+      <c r="AI787" s="17"/>
     </row>
     <row r="788" ht="19.5" customHeight="1">
       <c r="A788" s="17"/>
@@ -28992,6 +29784,7 @@
       <c r="AF788" s="17"/>
       <c r="AG788" s="17"/>
       <c r="AH788" s="17"/>
+      <c r="AI788" s="17"/>
     </row>
     <row r="789" ht="19.5" customHeight="1">
       <c r="A789" s="17"/>
@@ -29028,6 +29821,7 @@
       <c r="AF789" s="17"/>
       <c r="AG789" s="17"/>
       <c r="AH789" s="17"/>
+      <c r="AI789" s="17"/>
     </row>
     <row r="790" ht="19.5" customHeight="1">
       <c r="A790" s="17"/>
@@ -29064,6 +29858,7 @@
       <c r="AF790" s="17"/>
       <c r="AG790" s="17"/>
       <c r="AH790" s="17"/>
+      <c r="AI790" s="17"/>
     </row>
     <row r="791" ht="19.5" customHeight="1">
       <c r="A791" s="17"/>
@@ -29100,6 +29895,7 @@
       <c r="AF791" s="17"/>
       <c r="AG791" s="17"/>
       <c r="AH791" s="17"/>
+      <c r="AI791" s="17"/>
     </row>
     <row r="792" ht="19.5" customHeight="1">
       <c r="A792" s="17"/>
@@ -29136,6 +29932,7 @@
       <c r="AF792" s="17"/>
       <c r="AG792" s="17"/>
       <c r="AH792" s="17"/>
+      <c r="AI792" s="17"/>
     </row>
     <row r="793" ht="19.5" customHeight="1">
       <c r="A793" s="17"/>
@@ -29172,6 +29969,7 @@
       <c r="AF793" s="17"/>
       <c r="AG793" s="17"/>
       <c r="AH793" s="17"/>
+      <c r="AI793" s="17"/>
     </row>
     <row r="794" ht="19.5" customHeight="1">
       <c r="A794" s="17"/>
@@ -29208,6 +30006,7 @@
       <c r="AF794" s="17"/>
       <c r="AG794" s="17"/>
       <c r="AH794" s="17"/>
+      <c r="AI794" s="17"/>
     </row>
     <row r="795" ht="19.5" customHeight="1">
       <c r="A795" s="17"/>
@@ -29244,6 +30043,7 @@
       <c r="AF795" s="17"/>
       <c r="AG795" s="17"/>
       <c r="AH795" s="17"/>
+      <c r="AI795" s="17"/>
     </row>
     <row r="796" ht="19.5" customHeight="1">
       <c r="A796" s="17"/>
@@ -29280,6 +30080,7 @@
       <c r="AF796" s="17"/>
       <c r="AG796" s="17"/>
       <c r="AH796" s="17"/>
+      <c r="AI796" s="17"/>
     </row>
     <row r="797" ht="19.5" customHeight="1">
       <c r="A797" s="17"/>
@@ -29316,6 +30117,7 @@
       <c r="AF797" s="17"/>
       <c r="AG797" s="17"/>
       <c r="AH797" s="17"/>
+      <c r="AI797" s="17"/>
     </row>
     <row r="798" ht="19.5" customHeight="1">
       <c r="A798" s="17"/>
@@ -29352,6 +30154,7 @@
       <c r="AF798" s="17"/>
       <c r="AG798" s="17"/>
       <c r="AH798" s="17"/>
+      <c r="AI798" s="17"/>
     </row>
     <row r="799" ht="19.5" customHeight="1">
       <c r="A799" s="17"/>
@@ -29388,6 +30191,7 @@
       <c r="AF799" s="17"/>
       <c r="AG799" s="17"/>
       <c r="AH799" s="17"/>
+      <c r="AI799" s="17"/>
     </row>
     <row r="800" ht="19.5" customHeight="1">
       <c r="A800" s="17"/>
@@ -29424,6 +30228,7 @@
       <c r="AF800" s="17"/>
       <c r="AG800" s="17"/>
       <c r="AH800" s="17"/>
+      <c r="AI800" s="17"/>
     </row>
     <row r="801" ht="19.5" customHeight="1">
       <c r="A801" s="17"/>
@@ -29460,6 +30265,7 @@
       <c r="AF801" s="17"/>
       <c r="AG801" s="17"/>
       <c r="AH801" s="17"/>
+      <c r="AI801" s="17"/>
     </row>
     <row r="802" ht="19.5" customHeight="1">
       <c r="A802" s="17"/>
@@ -29496,6 +30302,7 @@
       <c r="AF802" s="17"/>
       <c r="AG802" s="17"/>
       <c r="AH802" s="17"/>
+      <c r="AI802" s="17"/>
     </row>
     <row r="803" ht="19.5" customHeight="1">
       <c r="A803" s="17"/>
@@ -29532,6 +30339,7 @@
       <c r="AF803" s="17"/>
       <c r="AG803" s="17"/>
       <c r="AH803" s="17"/>
+      <c r="AI803" s="17"/>
     </row>
     <row r="804" ht="19.5" customHeight="1">
       <c r="A804" s="17"/>
@@ -29568,6 +30376,7 @@
       <c r="AF804" s="17"/>
       <c r="AG804" s="17"/>
       <c r="AH804" s="17"/>
+      <c r="AI804" s="17"/>
     </row>
     <row r="805" ht="19.5" customHeight="1">
       <c r="A805" s="17"/>
@@ -29604,6 +30413,7 @@
       <c r="AF805" s="17"/>
       <c r="AG805" s="17"/>
       <c r="AH805" s="17"/>
+      <c r="AI805" s="17"/>
     </row>
     <row r="806" ht="19.5" customHeight="1">
       <c r="A806" s="17"/>
@@ -29640,6 +30450,7 @@
       <c r="AF806" s="17"/>
       <c r="AG806" s="17"/>
       <c r="AH806" s="17"/>
+      <c r="AI806" s="17"/>
     </row>
     <row r="807" ht="19.5" customHeight="1">
       <c r="A807" s="17"/>
@@ -29676,6 +30487,7 @@
       <c r="AF807" s="17"/>
       <c r="AG807" s="17"/>
       <c r="AH807" s="17"/>
+      <c r="AI807" s="17"/>
     </row>
     <row r="808" ht="19.5" customHeight="1">
       <c r="A808" s="17"/>
@@ -29712,6 +30524,7 @@
       <c r="AF808" s="17"/>
       <c r="AG808" s="17"/>
       <c r="AH808" s="17"/>
+      <c r="AI808" s="17"/>
     </row>
     <row r="809" ht="19.5" customHeight="1">
       <c r="A809" s="17"/>
@@ -29748,6 +30561,7 @@
       <c r="AF809" s="17"/>
       <c r="AG809" s="17"/>
       <c r="AH809" s="17"/>
+      <c r="AI809" s="17"/>
     </row>
     <row r="810" ht="19.5" customHeight="1">
       <c r="A810" s="17"/>
@@ -29784,6 +30598,7 @@
       <c r="AF810" s="17"/>
       <c r="AG810" s="17"/>
       <c r="AH810" s="17"/>
+      <c r="AI810" s="17"/>
     </row>
     <row r="811" ht="19.5" customHeight="1">
       <c r="A811" s="17"/>
@@ -29820,6 +30635,7 @@
       <c r="AF811" s="17"/>
       <c r="AG811" s="17"/>
       <c r="AH811" s="17"/>
+      <c r="AI811" s="17"/>
     </row>
     <row r="812" ht="19.5" customHeight="1">
       <c r="A812" s="17"/>
@@ -29856,6 +30672,7 @@
       <c r="AF812" s="17"/>
       <c r="AG812" s="17"/>
       <c r="AH812" s="17"/>
+      <c r="AI812" s="17"/>
     </row>
     <row r="813" ht="19.5" customHeight="1">
       <c r="A813" s="17"/>
@@ -29892,6 +30709,7 @@
       <c r="AF813" s="17"/>
       <c r="AG813" s="17"/>
       <c r="AH813" s="17"/>
+      <c r="AI813" s="17"/>
     </row>
     <row r="814" ht="19.5" customHeight="1">
       <c r="A814" s="17"/>
@@ -29928,6 +30746,7 @@
       <c r="AF814" s="17"/>
       <c r="AG814" s="17"/>
       <c r="AH814" s="17"/>
+      <c r="AI814" s="17"/>
     </row>
     <row r="815" ht="19.5" customHeight="1">
       <c r="A815" s="17"/>
@@ -29964,6 +30783,7 @@
       <c r="AF815" s="17"/>
       <c r="AG815" s="17"/>
       <c r="AH815" s="17"/>
+      <c r="AI815" s="17"/>
     </row>
     <row r="816" ht="19.5" customHeight="1">
       <c r="A816" s="17"/>
@@ -30000,6 +30820,7 @@
       <c r="AF816" s="17"/>
       <c r="AG816" s="17"/>
       <c r="AH816" s="17"/>
+      <c r="AI816" s="17"/>
     </row>
     <row r="817" ht="19.5" customHeight="1">
       <c r="A817" s="17"/>
@@ -30036,6 +30857,7 @@
       <c r="AF817" s="17"/>
       <c r="AG817" s="17"/>
       <c r="AH817" s="17"/>
+      <c r="AI817" s="17"/>
     </row>
     <row r="818" ht="19.5" customHeight="1">
       <c r="A818" s="17"/>
@@ -30072,6 +30894,7 @@
       <c r="AF818" s="17"/>
       <c r="AG818" s="17"/>
       <c r="AH818" s="17"/>
+      <c r="AI818" s="17"/>
     </row>
     <row r="819" ht="19.5" customHeight="1">
       <c r="A819" s="17"/>
@@ -30108,6 +30931,7 @@
       <c r="AF819" s="17"/>
       <c r="AG819" s="17"/>
       <c r="AH819" s="17"/>
+      <c r="AI819" s="17"/>
     </row>
     <row r="820" ht="19.5" customHeight="1">
       <c r="A820" s="17"/>
@@ -30144,6 +30968,7 @@
       <c r="AF820" s="17"/>
       <c r="AG820" s="17"/>
       <c r="AH820" s="17"/>
+      <c r="AI820" s="17"/>
     </row>
     <row r="821" ht="19.5" customHeight="1">
       <c r="A821" s="17"/>
@@ -30180,6 +31005,7 @@
       <c r="AF821" s="17"/>
       <c r="AG821" s="17"/>
       <c r="AH821" s="17"/>
+      <c r="AI821" s="17"/>
     </row>
     <row r="822" ht="19.5" customHeight="1">
       <c r="A822" s="17"/>
@@ -30216,6 +31042,7 @@
       <c r="AF822" s="17"/>
       <c r="AG822" s="17"/>
       <c r="AH822" s="17"/>
+      <c r="AI822" s="17"/>
     </row>
     <row r="823" ht="19.5" customHeight="1">
       <c r="A823" s="17"/>
@@ -30252,6 +31079,7 @@
       <c r="AF823" s="17"/>
       <c r="AG823" s="17"/>
       <c r="AH823" s="17"/>
+      <c r="AI823" s="17"/>
     </row>
     <row r="824" ht="19.5" customHeight="1">
       <c r="A824" s="17"/>
@@ -30288,6 +31116,7 @@
       <c r="AF824" s="17"/>
       <c r="AG824" s="17"/>
       <c r="AH824" s="17"/>
+      <c r="AI824" s="17"/>
     </row>
     <row r="825" ht="19.5" customHeight="1">
       <c r="A825" s="17"/>
@@ -30324,6 +31153,7 @@
       <c r="AF825" s="17"/>
       <c r="AG825" s="17"/>
       <c r="AH825" s="17"/>
+      <c r="AI825" s="17"/>
     </row>
     <row r="826" ht="19.5" customHeight="1">
       <c r="A826" s="17"/>
@@ -30360,6 +31190,7 @@
       <c r="AF826" s="17"/>
       <c r="AG826" s="17"/>
       <c r="AH826" s="17"/>
+      <c r="AI826" s="17"/>
     </row>
     <row r="827" ht="19.5" customHeight="1">
       <c r="A827" s="17"/>
@@ -30396,6 +31227,7 @@
       <c r="AF827" s="17"/>
       <c r="AG827" s="17"/>
       <c r="AH827" s="17"/>
+      <c r="AI827" s="17"/>
     </row>
     <row r="828" ht="19.5" customHeight="1">
       <c r="A828" s="17"/>
@@ -30432,6 +31264,7 @@
       <c r="AF828" s="17"/>
       <c r="AG828" s="17"/>
       <c r="AH828" s="17"/>
+      <c r="AI828" s="17"/>
     </row>
     <row r="829" ht="19.5" customHeight="1">
       <c r="A829" s="17"/>
@@ -30468,6 +31301,7 @@
       <c r="AF829" s="17"/>
       <c r="AG829" s="17"/>
       <c r="AH829" s="17"/>
+      <c r="AI829" s="17"/>
     </row>
     <row r="830" ht="19.5" customHeight="1">
       <c r="A830" s="17"/>
@@ -30504,6 +31338,7 @@
       <c r="AF830" s="17"/>
       <c r="AG830" s="17"/>
       <c r="AH830" s="17"/>
+      <c r="AI830" s="17"/>
     </row>
     <row r="831" ht="19.5" customHeight="1">
       <c r="A831" s="17"/>
@@ -30540,6 +31375,7 @@
       <c r="AF831" s="17"/>
       <c r="AG831" s="17"/>
       <c r="AH831" s="17"/>
+      <c r="AI831" s="17"/>
     </row>
     <row r="832" ht="19.5" customHeight="1">
       <c r="A832" s="17"/>
@@ -30576,6 +31412,7 @@
       <c r="AF832" s="17"/>
       <c r="AG832" s="17"/>
       <c r="AH832" s="17"/>
+      <c r="AI832" s="17"/>
     </row>
     <row r="833" ht="19.5" customHeight="1">
       <c r="A833" s="17"/>
@@ -30612,6 +31449,7 @@
       <c r="AF833" s="17"/>
       <c r="AG833" s="17"/>
       <c r="AH833" s="17"/>
+      <c r="AI833" s="17"/>
     </row>
     <row r="834" ht="19.5" customHeight="1">
       <c r="A834" s="17"/>
@@ -30648,6 +31486,7 @@
       <c r="AF834" s="17"/>
       <c r="AG834" s="17"/>
       <c r="AH834" s="17"/>
+      <c r="AI834" s="17"/>
     </row>
     <row r="835" ht="19.5" customHeight="1">
       <c r="A835" s="17"/>
@@ -30684,6 +31523,7 @@
       <c r="AF835" s="17"/>
       <c r="AG835" s="17"/>
       <c r="AH835" s="17"/>
+      <c r="AI835" s="17"/>
     </row>
     <row r="836" ht="19.5" customHeight="1">
       <c r="A836" s="17"/>
@@ -30720,6 +31560,7 @@
       <c r="AF836" s="17"/>
       <c r="AG836" s="17"/>
       <c r="AH836" s="17"/>
+      <c r="AI836" s="17"/>
     </row>
     <row r="837" ht="19.5" customHeight="1">
       <c r="A837" s="17"/>
@@ -30756,6 +31597,7 @@
       <c r="AF837" s="17"/>
       <c r="AG837" s="17"/>
       <c r="AH837" s="17"/>
+      <c r="AI837" s="17"/>
     </row>
     <row r="838" ht="19.5" customHeight="1">
       <c r="A838" s="17"/>
@@ -30792,6 +31634,7 @@
       <c r="AF838" s="17"/>
       <c r="AG838" s="17"/>
       <c r="AH838" s="17"/>
+      <c r="AI838" s="17"/>
     </row>
     <row r="839" ht="19.5" customHeight="1">
       <c r="A839" s="17"/>
@@ -30828,6 +31671,7 @@
       <c r="AF839" s="17"/>
       <c r="AG839" s="17"/>
       <c r="AH839" s="17"/>
+      <c r="AI839" s="17"/>
     </row>
     <row r="840" ht="19.5" customHeight="1">
       <c r="A840" s="17"/>
@@ -30864,6 +31708,7 @@
       <c r="AF840" s="17"/>
       <c r="AG840" s="17"/>
       <c r="AH840" s="17"/>
+      <c r="AI840" s="17"/>
     </row>
     <row r="841" ht="19.5" customHeight="1">
       <c r="A841" s="17"/>
@@ -30900,6 +31745,7 @@
       <c r="AF841" s="17"/>
       <c r="AG841" s="17"/>
       <c r="AH841" s="17"/>
+      <c r="AI841" s="17"/>
     </row>
     <row r="842" ht="19.5" customHeight="1">
       <c r="A842" s="17"/>
@@ -30936,6 +31782,7 @@
       <c r="AF842" s="17"/>
       <c r="AG842" s="17"/>
       <c r="AH842" s="17"/>
+      <c r="AI842" s="17"/>
     </row>
     <row r="843" ht="19.5" customHeight="1">
       <c r="A843" s="17"/>
@@ -30972,6 +31819,7 @@
       <c r="AF843" s="17"/>
       <c r="AG843" s="17"/>
       <c r="AH843" s="17"/>
+      <c r="AI843" s="17"/>
     </row>
     <row r="844" ht="19.5" customHeight="1">
       <c r="A844" s="17"/>
@@ -31008,6 +31856,7 @@
       <c r="AF844" s="17"/>
       <c r="AG844" s="17"/>
       <c r="AH844" s="17"/>
+      <c r="AI844" s="17"/>
     </row>
     <row r="845" ht="19.5" customHeight="1">
       <c r="A845" s="17"/>
@@ -31044,6 +31893,7 @@
       <c r="AF845" s="17"/>
       <c r="AG845" s="17"/>
       <c r="AH845" s="17"/>
+      <c r="AI845" s="17"/>
     </row>
     <row r="846" ht="19.5" customHeight="1">
       <c r="A846" s="17"/>
@@ -31080,6 +31930,7 @@
       <c r="AF846" s="17"/>
       <c r="AG846" s="17"/>
       <c r="AH846" s="17"/>
+      <c r="AI846" s="17"/>
     </row>
     <row r="847" ht="19.5" customHeight="1">
       <c r="A847" s="17"/>
@@ -31116,6 +31967,7 @@
       <c r="AF847" s="17"/>
       <c r="AG847" s="17"/>
       <c r="AH847" s="17"/>
+      <c r="AI847" s="17"/>
     </row>
     <row r="848" ht="19.5" customHeight="1">
       <c r="A848" s="17"/>
@@ -31152,6 +32004,7 @@
       <c r="AF848" s="17"/>
       <c r="AG848" s="17"/>
       <c r="AH848" s="17"/>
+      <c r="AI848" s="17"/>
     </row>
     <row r="849" ht="19.5" customHeight="1">
       <c r="A849" s="17"/>
@@ -31188,6 +32041,7 @@
       <c r="AF849" s="17"/>
       <c r="AG849" s="17"/>
       <c r="AH849" s="17"/>
+      <c r="AI849" s="17"/>
     </row>
     <row r="850" ht="19.5" customHeight="1">
       <c r="A850" s="17"/>
@@ -31224,6 +32078,7 @@
       <c r="AF850" s="17"/>
       <c r="AG850" s="17"/>
       <c r="AH850" s="17"/>
+      <c r="AI850" s="17"/>
     </row>
     <row r="851" ht="19.5" customHeight="1">
       <c r="A851" s="17"/>
@@ -31260,6 +32115,7 @@
       <c r="AF851" s="17"/>
       <c r="AG851" s="17"/>
       <c r="AH851" s="17"/>
+      <c r="AI851" s="17"/>
     </row>
     <row r="852" ht="19.5" customHeight="1">
       <c r="A852" s="17"/>
@@ -31296,6 +32152,7 @@
       <c r="AF852" s="17"/>
       <c r="AG852" s="17"/>
       <c r="AH852" s="17"/>
+      <c r="AI852" s="17"/>
     </row>
     <row r="853" ht="19.5" customHeight="1">
       <c r="A853" s="17"/>
@@ -31332,6 +32189,7 @@
       <c r="AF853" s="17"/>
       <c r="AG853" s="17"/>
       <c r="AH853" s="17"/>
+      <c r="AI853" s="17"/>
     </row>
     <row r="854" ht="19.5" customHeight="1">
       <c r="A854" s="17"/>
@@ -31368,6 +32226,7 @@
       <c r="AF854" s="17"/>
       <c r="AG854" s="17"/>
       <c r="AH854" s="17"/>
+      <c r="AI854" s="17"/>
     </row>
     <row r="855" ht="19.5" customHeight="1">
       <c r="A855" s="17"/>
@@ -31404,6 +32263,7 @@
       <c r="AF855" s="17"/>
       <c r="AG855" s="17"/>
       <c r="AH855" s="17"/>
+      <c r="AI855" s="17"/>
     </row>
     <row r="856" ht="19.5" customHeight="1">
       <c r="A856" s="17"/>
@@ -31440,6 +32300,7 @@
       <c r="AF856" s="17"/>
       <c r="AG856" s="17"/>
       <c r="AH856" s="17"/>
+      <c r="AI856" s="17"/>
     </row>
     <row r="857" ht="19.5" customHeight="1">
       <c r="A857" s="17"/>
@@ -31476,6 +32337,7 @@
       <c r="AF857" s="17"/>
       <c r="AG857" s="17"/>
       <c r="AH857" s="17"/>
+      <c r="AI857" s="17"/>
     </row>
     <row r="858" ht="19.5" customHeight="1">
       <c r="A858" s="17"/>
@@ -31512,6 +32374,7 @@
       <c r="AF858" s="17"/>
       <c r="AG858" s="17"/>
       <c r="AH858" s="17"/>
+      <c r="AI858" s="17"/>
     </row>
     <row r="859" ht="19.5" customHeight="1">
       <c r="A859" s="17"/>
@@ -31548,6 +32411,7 @@
       <c r="AF859" s="17"/>
       <c r="AG859" s="17"/>
       <c r="AH859" s="17"/>
+      <c r="AI859" s="17"/>
     </row>
     <row r="860" ht="19.5" customHeight="1">
       <c r="A860" s="17"/>
@@ -31584,6 +32448,7 @@
       <c r="AF860" s="17"/>
       <c r="AG860" s="17"/>
       <c r="AH860" s="17"/>
+      <c r="AI860" s="17"/>
     </row>
     <row r="861" ht="19.5" customHeight="1">
       <c r="A861" s="17"/>
@@ -31620,6 +32485,7 @@
       <c r="AF861" s="17"/>
       <c r="AG861" s="17"/>
       <c r="AH861" s="17"/>
+      <c r="AI861" s="17"/>
     </row>
     <row r="862" ht="19.5" customHeight="1">
       <c r="A862" s="17"/>
@@ -31656,6 +32522,7 @@
       <c r="AF862" s="17"/>
       <c r="AG862" s="17"/>
       <c r="AH862" s="17"/>
+      <c r="AI862" s="17"/>
     </row>
     <row r="863" ht="19.5" customHeight="1">
       <c r="A863" s="17"/>
@@ -31692,6 +32559,7 @@
       <c r="AF863" s="17"/>
       <c r="AG863" s="17"/>
       <c r="AH863" s="17"/>
+      <c r="AI863" s="17"/>
     </row>
     <row r="864" ht="19.5" customHeight="1">
       <c r="A864" s="17"/>
@@ -31728,6 +32596,7 @@
       <c r="AF864" s="17"/>
       <c r="AG864" s="17"/>
       <c r="AH864" s="17"/>
+      <c r="AI864" s="17"/>
     </row>
     <row r="865" ht="19.5" customHeight="1">
       <c r="A865" s="17"/>
@@ -31764,6 +32633,7 @@
       <c r="AF865" s="17"/>
       <c r="AG865" s="17"/>
       <c r="AH865" s="17"/>
+      <c r="AI865" s="17"/>
     </row>
     <row r="866" ht="19.5" customHeight="1">
       <c r="A866" s="17"/>
@@ -31800,6 +32670,7 @@
       <c r="AF866" s="17"/>
       <c r="AG866" s="17"/>
       <c r="AH866" s="17"/>
+      <c r="AI866" s="17"/>
     </row>
     <row r="867" ht="19.5" customHeight="1">
       <c r="A867" s="17"/>
@@ -31836,6 +32707,7 @@
       <c r="AF867" s="17"/>
       <c r="AG867" s="17"/>
       <c r="AH867" s="17"/>
+      <c r="AI867" s="17"/>
     </row>
     <row r="868" ht="19.5" customHeight="1">
       <c r="A868" s="17"/>
@@ -31872,6 +32744,7 @@
       <c r="AF868" s="17"/>
       <c r="AG868" s="17"/>
       <c r="AH868" s="17"/>
+      <c r="AI868" s="17"/>
     </row>
     <row r="869" ht="19.5" customHeight="1">
       <c r="A869" s="17"/>
@@ -31908,6 +32781,7 @@
       <c r="AF869" s="17"/>
       <c r="AG869" s="17"/>
       <c r="AH869" s="17"/>
+      <c r="AI869" s="17"/>
     </row>
     <row r="870" ht="19.5" customHeight="1">
       <c r="A870" s="17"/>
@@ -31944,6 +32818,7 @@
       <c r="AF870" s="17"/>
       <c r="AG870" s="17"/>
       <c r="AH870" s="17"/>
+      <c r="AI870" s="17"/>
     </row>
     <row r="871" ht="19.5" customHeight="1">
       <c r="A871" s="17"/>
@@ -31980,6 +32855,7 @@
       <c r="AF871" s="17"/>
       <c r="AG871" s="17"/>
       <c r="AH871" s="17"/>
+      <c r="AI871" s="17"/>
     </row>
     <row r="872" ht="19.5" customHeight="1">
       <c r="A872" s="17"/>
@@ -32016,6 +32892,7 @@
       <c r="AF872" s="17"/>
       <c r="AG872" s="17"/>
       <c r="AH872" s="17"/>
+      <c r="AI872" s="17"/>
     </row>
     <row r="873" ht="19.5" customHeight="1">
       <c r="A873" s="17"/>
@@ -32052,6 +32929,7 @@
       <c r="AF873" s="17"/>
       <c r="AG873" s="17"/>
       <c r="AH873" s="17"/>
+      <c r="AI873" s="17"/>
     </row>
     <row r="874" ht="19.5" customHeight="1">
       <c r="A874" s="17"/>
@@ -32088,6 +32966,7 @@
       <c r="AF874" s="17"/>
       <c r="AG874" s="17"/>
       <c r="AH874" s="17"/>
+      <c r="AI874" s="17"/>
     </row>
     <row r="875" ht="19.5" customHeight="1">
       <c r="A875" s="17"/>
@@ -32124,6 +33003,7 @@
       <c r="AF875" s="17"/>
       <c r="AG875" s="17"/>
       <c r="AH875" s="17"/>
+      <c r="AI875" s="17"/>
     </row>
     <row r="876" ht="19.5" customHeight="1">
       <c r="A876" s="17"/>
@@ -32160,6 +33040,7 @@
       <c r="AF876" s="17"/>
       <c r="AG876" s="17"/>
       <c r="AH876" s="17"/>
+      <c r="AI876" s="17"/>
     </row>
     <row r="877" ht="19.5" customHeight="1">
       <c r="A877" s="17"/>
@@ -32196,6 +33077,7 @@
       <c r="AF877" s="17"/>
       <c r="AG877" s="17"/>
       <c r="AH877" s="17"/>
+      <c r="AI877" s="17"/>
     </row>
     <row r="878" ht="19.5" customHeight="1">
       <c r="A878" s="17"/>
@@ -32232,6 +33114,7 @@
       <c r="AF878" s="17"/>
       <c r="AG878" s="17"/>
       <c r="AH878" s="17"/>
+      <c r="AI878" s="17"/>
     </row>
     <row r="879" ht="19.5" customHeight="1">
       <c r="A879" s="17"/>
@@ -32268,6 +33151,7 @@
       <c r="AF879" s="17"/>
       <c r="AG879" s="17"/>
       <c r="AH879" s="17"/>
+      <c r="AI879" s="17"/>
     </row>
     <row r="880" ht="19.5" customHeight="1">
       <c r="A880" s="17"/>
@@ -32304,6 +33188,7 @@
       <c r="AF880" s="17"/>
       <c r="AG880" s="17"/>
       <c r="AH880" s="17"/>
+      <c r="AI880" s="17"/>
     </row>
     <row r="881" ht="19.5" customHeight="1">
       <c r="A881" s="17"/>
@@ -32340,6 +33225,7 @@
       <c r="AF881" s="17"/>
       <c r="AG881" s="17"/>
       <c r="AH881" s="17"/>
+      <c r="AI881" s="17"/>
     </row>
     <row r="882" ht="19.5" customHeight="1">
       <c r="A882" s="17"/>
@@ -32376,6 +33262,7 @@
       <c r="AF882" s="17"/>
       <c r="AG882" s="17"/>
       <c r="AH882" s="17"/>
+      <c r="AI882" s="17"/>
     </row>
     <row r="883" ht="19.5" customHeight="1">
       <c r="A883" s="17"/>
@@ -32412,6 +33299,7 @@
       <c r="AF883" s="17"/>
       <c r="AG883" s="17"/>
       <c r="AH883" s="17"/>
+      <c r="AI883" s="17"/>
     </row>
     <row r="884" ht="19.5" customHeight="1">
       <c r="A884" s="17"/>
@@ -32448,6 +33336,7 @@
       <c r="AF884" s="17"/>
       <c r="AG884" s="17"/>
       <c r="AH884" s="17"/>
+      <c r="AI884" s="17"/>
     </row>
     <row r="885" ht="19.5" customHeight="1">
       <c r="A885" s="17"/>
@@ -32484,6 +33373,7 @@
       <c r="AF885" s="17"/>
       <c r="AG885" s="17"/>
       <c r="AH885" s="17"/>
+      <c r="AI885" s="17"/>
     </row>
     <row r="886" ht="19.5" customHeight="1">
       <c r="A886" s="17"/>
@@ -32520,6 +33410,7 @@
       <c r="AF886" s="17"/>
       <c r="AG886" s="17"/>
       <c r="AH886" s="17"/>
+      <c r="AI886" s="17"/>
     </row>
     <row r="887" ht="19.5" customHeight="1">
       <c r="A887" s="17"/>
@@ -32556,6 +33447,7 @@
       <c r="AF887" s="17"/>
       <c r="AG887" s="17"/>
       <c r="AH887" s="17"/>
+      <c r="AI887" s="17"/>
     </row>
     <row r="888" ht="19.5" customHeight="1">
       <c r="A888" s="17"/>
@@ -32592,6 +33484,7 @@
       <c r="AF888" s="17"/>
       <c r="AG888" s="17"/>
       <c r="AH888" s="17"/>
+      <c r="AI888" s="17"/>
     </row>
     <row r="889" ht="19.5" customHeight="1">
       <c r="A889" s="17"/>
@@ -32628,6 +33521,7 @@
       <c r="AF889" s="17"/>
       <c r="AG889" s="17"/>
       <c r="AH889" s="17"/>
+      <c r="AI889" s="17"/>
     </row>
     <row r="890" ht="19.5" customHeight="1">
       <c r="A890" s="17"/>
@@ -32664,6 +33558,7 @@
       <c r="AF890" s="17"/>
       <c r="AG890" s="17"/>
       <c r="AH890" s="17"/>
+      <c r="AI890" s="17"/>
     </row>
     <row r="891" ht="19.5" customHeight="1">
       <c r="A891" s="17"/>
@@ -32700,6 +33595,7 @@
       <c r="AF891" s="17"/>
       <c r="AG891" s="17"/>
       <c r="AH891" s="17"/>
+      <c r="AI891" s="17"/>
     </row>
     <row r="892" ht="19.5" customHeight="1">
       <c r="A892" s="17"/>
@@ -32736,6 +33632,7 @@
       <c r="AF892" s="17"/>
       <c r="AG892" s="17"/>
       <c r="AH892" s="17"/>
+      <c r="AI892" s="17"/>
     </row>
     <row r="893" ht="19.5" customHeight="1">
       <c r="A893" s="17"/>
@@ -32772,6 +33669,7 @@
       <c r="AF893" s="17"/>
       <c r="AG893" s="17"/>
       <c r="AH893" s="17"/>
+      <c r="AI893" s="17"/>
     </row>
     <row r="894" ht="19.5" customHeight="1">
       <c r="A894" s="17"/>
@@ -32808,6 +33706,7 @@
       <c r="AF894" s="17"/>
       <c r="AG894" s="17"/>
       <c r="AH894" s="17"/>
+      <c r="AI894" s="17"/>
     </row>
     <row r="895" ht="19.5" customHeight="1">
       <c r="A895" s="17"/>
@@ -32844,6 +33743,7 @@
       <c r="AF895" s="17"/>
       <c r="AG895" s="17"/>
       <c r="AH895" s="17"/>
+      <c r="AI895" s="17"/>
     </row>
     <row r="896" ht="19.5" customHeight="1">
       <c r="A896" s="17"/>
@@ -32880,6 +33780,7 @@
       <c r="AF896" s="17"/>
       <c r="AG896" s="17"/>
       <c r="AH896" s="17"/>
+      <c r="AI896" s="17"/>
     </row>
     <row r="897" ht="19.5" customHeight="1">
       <c r="A897" s="17"/>
@@ -32916,6 +33817,7 @@
       <c r="AF897" s="17"/>
       <c r="AG897" s="17"/>
       <c r="AH897" s="17"/>
+      <c r="AI897" s="17"/>
     </row>
     <row r="898" ht="19.5" customHeight="1">
       <c r="A898" s="17"/>
@@ -32952,6 +33854,7 @@
       <c r="AF898" s="17"/>
       <c r="AG898" s="17"/>
       <c r="AH898" s="17"/>
+      <c r="AI898" s="17"/>
     </row>
     <row r="899" ht="19.5" customHeight="1">
       <c r="A899" s="17"/>
@@ -32988,6 +33891,7 @@
       <c r="AF899" s="17"/>
       <c r="AG899" s="17"/>
       <c r="AH899" s="17"/>
+      <c r="AI899" s="17"/>
     </row>
     <row r="900" ht="19.5" customHeight="1">
       <c r="A900" s="17"/>
@@ -33024,6 +33928,7 @@
       <c r="AF900" s="17"/>
       <c r="AG900" s="17"/>
       <c r="AH900" s="17"/>
+      <c r="AI900" s="17"/>
     </row>
     <row r="901" ht="19.5" customHeight="1">
       <c r="A901" s="17"/>
@@ -33060,6 +33965,7 @@
       <c r="AF901" s="17"/>
       <c r="AG901" s="17"/>
       <c r="AH901" s="17"/>
+      <c r="AI901" s="17"/>
     </row>
     <row r="902" ht="19.5" customHeight="1">
       <c r="A902" s="17"/>
@@ -33096,6 +34002,7 @@
       <c r="AF902" s="17"/>
       <c r="AG902" s="17"/>
       <c r="AH902" s="17"/>
+      <c r="AI902" s="17"/>
     </row>
     <row r="903" ht="19.5" customHeight="1">
       <c r="A903" s="17"/>
@@ -33132,6 +34039,7 @@
       <c r="AF903" s="17"/>
       <c r="AG903" s="17"/>
       <c r="AH903" s="17"/>
+      <c r="AI903" s="17"/>
     </row>
     <row r="904" ht="19.5" customHeight="1">
       <c r="A904" s="17"/>
@@ -33168,6 +34076,7 @@
       <c r="AF904" s="17"/>
       <c r="AG904" s="17"/>
       <c r="AH904" s="17"/>
+      <c r="AI904" s="17"/>
     </row>
     <row r="905" ht="19.5" customHeight="1">
       <c r="A905" s="17"/>
@@ -33204,6 +34113,7 @@
       <c r="AF905" s="17"/>
       <c r="AG905" s="17"/>
       <c r="AH905" s="17"/>
+      <c r="AI905" s="17"/>
     </row>
     <row r="906" ht="19.5" customHeight="1">
       <c r="A906" s="17"/>
@@ -33240,6 +34150,7 @@
       <c r="AF906" s="17"/>
       <c r="AG906" s="17"/>
       <c r="AH906" s="17"/>
+      <c r="AI906" s="17"/>
     </row>
     <row r="907" ht="19.5" customHeight="1">
       <c r="A907" s="17"/>
@@ -33276,6 +34187,7 @@
       <c r="AF907" s="17"/>
       <c r="AG907" s="17"/>
       <c r="AH907" s="17"/>
+      <c r="AI907" s="17"/>
     </row>
     <row r="908" ht="19.5" customHeight="1">
       <c r="A908" s="17"/>
@@ -33312,6 +34224,7 @@
       <c r="AF908" s="17"/>
       <c r="AG908" s="17"/>
       <c r="AH908" s="17"/>
+      <c r="AI908" s="17"/>
     </row>
     <row r="909" ht="19.5" customHeight="1">
       <c r="A909" s="17"/>
@@ -33348,6 +34261,7 @@
       <c r="AF909" s="17"/>
       <c r="AG909" s="17"/>
       <c r="AH909" s="17"/>
+      <c r="AI909" s="17"/>
     </row>
     <row r="910" ht="19.5" customHeight="1">
       <c r="A910" s="17"/>
@@ -33384,6 +34298,7 @@
       <c r="AF910" s="17"/>
       <c r="AG910" s="17"/>
       <c r="AH910" s="17"/>
+      <c r="AI910" s="17"/>
     </row>
     <row r="911" ht="19.5" customHeight="1">
       <c r="A911" s="17"/>
@@ -33420,6 +34335,7 @@
       <c r="AF911" s="17"/>
       <c r="AG911" s="17"/>
       <c r="AH911" s="17"/>
+      <c r="AI911" s="17"/>
     </row>
     <row r="912" ht="19.5" customHeight="1">
       <c r="A912" s="17"/>
@@ -33456,6 +34372,7 @@
       <c r="AF912" s="17"/>
       <c r="AG912" s="17"/>
       <c r="AH912" s="17"/>
+      <c r="AI912" s="17"/>
     </row>
     <row r="913" ht="19.5" customHeight="1">
       <c r="A913" s="17"/>
@@ -33492,6 +34409,7 @@
       <c r="AF913" s="17"/>
       <c r="AG913" s="17"/>
       <c r="AH913" s="17"/>
+      <c r="AI913" s="17"/>
     </row>
     <row r="914" ht="19.5" customHeight="1">
       <c r="A914" s="17"/>
@@ -33528,6 +34446,7 @@
       <c r="AF914" s="17"/>
       <c r="AG914" s="17"/>
       <c r="AH914" s="17"/>
+      <c r="AI914" s="17"/>
     </row>
     <row r="915" ht="19.5" customHeight="1">
       <c r="A915" s="17"/>
@@ -33564,6 +34483,7 @@
       <c r="AF915" s="17"/>
       <c r="AG915" s="17"/>
       <c r="AH915" s="17"/>
+      <c r="AI915" s="17"/>
     </row>
     <row r="916" ht="19.5" customHeight="1">
       <c r="A916" s="17"/>
@@ -33600,6 +34520,7 @@
       <c r="AF916" s="17"/>
       <c r="AG916" s="17"/>
       <c r="AH916" s="17"/>
+      <c r="AI916" s="17"/>
     </row>
     <row r="917" ht="19.5" customHeight="1">
       <c r="A917" s="17"/>
@@ -33636,6 +34557,7 @@
       <c r="AF917" s="17"/>
       <c r="AG917" s="17"/>
       <c r="AH917" s="17"/>
+      <c r="AI917" s="17"/>
     </row>
     <row r="918" ht="19.5" customHeight="1">
       <c r="A918" s="17"/>
@@ -33672,6 +34594,7 @@
       <c r="AF918" s="17"/>
       <c r="AG918" s="17"/>
       <c r="AH918" s="17"/>
+      <c r="AI918" s="17"/>
     </row>
     <row r="919" ht="19.5" customHeight="1">
       <c r="A919" s="17"/>
@@ -33708,6 +34631,7 @@
       <c r="AF919" s="17"/>
       <c r="AG919" s="17"/>
       <c r="AH919" s="17"/>
+      <c r="AI919" s="17"/>
     </row>
     <row r="920" ht="19.5" customHeight="1">
       <c r="A920" s="17"/>
@@ -33744,6 +34668,7 @@
       <c r="AF920" s="17"/>
       <c r="AG920" s="17"/>
       <c r="AH920" s="17"/>
+      <c r="AI920" s="17"/>
     </row>
     <row r="921" ht="19.5" customHeight="1">
       <c r="A921" s="17"/>
@@ -33780,6 +34705,7 @@
       <c r="AF921" s="17"/>
       <c r="AG921" s="17"/>
       <c r="AH921" s="17"/>
+      <c r="AI921" s="17"/>
     </row>
     <row r="922" ht="19.5" customHeight="1">
       <c r="A922" s="17"/>
@@ -33816,6 +34742,7 @@
       <c r="AF922" s="17"/>
       <c r="AG922" s="17"/>
       <c r="AH922" s="17"/>
+      <c r="AI922" s="17"/>
     </row>
     <row r="923" ht="19.5" customHeight="1">
       <c r="A923" s="17"/>
@@ -33852,6 +34779,7 @@
       <c r="AF923" s="17"/>
       <c r="AG923" s="17"/>
       <c r="AH923" s="17"/>
+      <c r="AI923" s="17"/>
     </row>
     <row r="924" ht="19.5" customHeight="1">
       <c r="A924" s="17"/>
@@ -33888,6 +34816,7 @@
       <c r="AF924" s="17"/>
       <c r="AG924" s="17"/>
       <c r="AH924" s="17"/>
+      <c r="AI924" s="17"/>
     </row>
     <row r="925" ht="19.5" customHeight="1">
       <c r="A925" s="17"/>
@@ -33924,6 +34853,7 @@
       <c r="AF925" s="17"/>
       <c r="AG925" s="17"/>
       <c r="AH925" s="17"/>
+      <c r="AI925" s="17"/>
     </row>
     <row r="926" ht="19.5" customHeight="1">
       <c r="A926" s="17"/>
@@ -33960,6 +34890,7 @@
       <c r="AF926" s="17"/>
       <c r="AG926" s="17"/>
       <c r="AH926" s="17"/>
+      <c r="AI926" s="17"/>
     </row>
     <row r="927" ht="19.5" customHeight="1">
       <c r="A927" s="17"/>
@@ -33996,6 +34927,7 @@
       <c r="AF927" s="17"/>
       <c r="AG927" s="17"/>
       <c r="AH927" s="17"/>
+      <c r="AI927" s="17"/>
     </row>
     <row r="928" ht="19.5" customHeight="1">
       <c r="A928" s="17"/>
@@ -34032,6 +34964,7 @@
       <c r="AF928" s="17"/>
       <c r="AG928" s="17"/>
       <c r="AH928" s="17"/>
+      <c r="AI928" s="17"/>
     </row>
     <row r="929" ht="19.5" customHeight="1">
       <c r="A929" s="17"/>
@@ -34068,6 +35001,7 @@
       <c r="AF929" s="17"/>
       <c r="AG929" s="17"/>
       <c r="AH929" s="17"/>
+      <c r="AI929" s="17"/>
     </row>
     <row r="930" ht="19.5" customHeight="1">
       <c r="A930" s="17"/>
@@ -34104,6 +35038,7 @@
       <c r="AF930" s="17"/>
       <c r="AG930" s="17"/>
       <c r="AH930" s="17"/>
+      <c r="AI930" s="17"/>
     </row>
     <row r="931" ht="19.5" customHeight="1">
       <c r="A931" s="17"/>
@@ -34140,6 +35075,7 @@
       <c r="AF931" s="17"/>
       <c r="AG931" s="17"/>
       <c r="AH931" s="17"/>
+      <c r="AI931" s="17"/>
     </row>
     <row r="932" ht="19.5" customHeight="1">
       <c r="A932" s="17"/>
@@ -34176,6 +35112,7 @@
       <c r="AF932" s="17"/>
       <c r="AG932" s="17"/>
       <c r="AH932" s="17"/>
+      <c r="AI932" s="17"/>
     </row>
     <row r="933" ht="19.5" customHeight="1">
       <c r="A933" s="17"/>
@@ -34212,6 +35149,7 @@
       <c r="AF933" s="17"/>
       <c r="AG933" s="17"/>
       <c r="AH933" s="17"/>
+      <c r="AI933" s="17"/>
     </row>
     <row r="934" ht="19.5" customHeight="1">
       <c r="A934" s="17"/>
@@ -34248,6 +35186,7 @@
       <c r="AF934" s="17"/>
       <c r="AG934" s="17"/>
       <c r="AH934" s="17"/>
+      <c r="AI934" s="17"/>
     </row>
     <row r="935" ht="19.5" customHeight="1">
       <c r="A935" s="17"/>
@@ -34284,6 +35223,7 @@
       <c r="AF935" s="17"/>
       <c r="AG935" s="17"/>
       <c r="AH935" s="17"/>
+      <c r="AI935" s="17"/>
     </row>
     <row r="936" ht="19.5" customHeight="1">
       <c r="A936" s="17"/>
@@ -34320,6 +35260,7 @@
       <c r="AF936" s="17"/>
       <c r="AG936" s="17"/>
       <c r="AH936" s="17"/>
+      <c r="AI936" s="17"/>
     </row>
     <row r="937" ht="19.5" customHeight="1">
       <c r="A937" s="17"/>
@@ -34356,6 +35297,7 @@
       <c r="AF937" s="17"/>
       <c r="AG937" s="17"/>
       <c r="AH937" s="17"/>
+      <c r="AI937" s="17"/>
     </row>
     <row r="938" ht="19.5" customHeight="1">
       <c r="A938" s="17"/>
@@ -34392,6 +35334,7 @@
       <c r="AF938" s="17"/>
       <c r="AG938" s="17"/>
       <c r="AH938" s="17"/>
+      <c r="AI938" s="17"/>
     </row>
     <row r="939" ht="19.5" customHeight="1">
       <c r="A939" s="17"/>
@@ -34428,6 +35371,7 @@
       <c r="AF939" s="17"/>
       <c r="AG939" s="17"/>
       <c r="AH939" s="17"/>
+      <c r="AI939" s="17"/>
     </row>
     <row r="940" ht="19.5" customHeight="1">
       <c r="A940" s="17"/>
@@ -34464,6 +35408,7 @@
       <c r="AF940" s="17"/>
       <c r="AG940" s="17"/>
       <c r="AH940" s="17"/>
+      <c r="AI940" s="17"/>
     </row>
     <row r="941" ht="19.5" customHeight="1">
       <c r="A941" s="17"/>
@@ -34500,6 +35445,7 @@
       <c r="AF941" s="17"/>
       <c r="AG941" s="17"/>
       <c r="AH941" s="17"/>
+      <c r="AI941" s="17"/>
     </row>
     <row r="942" ht="19.5" customHeight="1">
       <c r="A942" s="17"/>
@@ -34536,6 +35482,7 @@
       <c r="AF942" s="17"/>
       <c r="AG942" s="17"/>
       <c r="AH942" s="17"/>
+      <c r="AI942" s="17"/>
     </row>
     <row r="943" ht="19.5" customHeight="1">
       <c r="A943" s="17"/>
@@ -34572,6 +35519,7 @@
       <c r="AF943" s="17"/>
       <c r="AG943" s="17"/>
       <c r="AH943" s="17"/>
+      <c r="AI943" s="17"/>
     </row>
     <row r="944" ht="19.5" customHeight="1">
       <c r="A944" s="17"/>
@@ -34608,6 +35556,7 @@
       <c r="AF944" s="17"/>
       <c r="AG944" s="17"/>
       <c r="AH944" s="17"/>
+      <c r="AI944" s="17"/>
     </row>
     <row r="945" ht="19.5" customHeight="1">
       <c r="A945" s="17"/>
@@ -34644,6 +35593,7 @@
       <c r="AF945" s="17"/>
       <c r="AG945" s="17"/>
       <c r="AH945" s="17"/>
+      <c r="AI945" s="17"/>
     </row>
     <row r="946" ht="19.5" customHeight="1">
       <c r="A946" s="17"/>
@@ -34680,6 +35630,7 @@
       <c r="AF946" s="17"/>
       <c r="AG946" s="17"/>
       <c r="AH946" s="17"/>
+      <c r="AI946" s="17"/>
     </row>
     <row r="947" ht="19.5" customHeight="1">
       <c r="A947" s="17"/>
@@ -34716,6 +35667,7 @@
       <c r="AF947" s="17"/>
       <c r="AG947" s="17"/>
       <c r="AH947" s="17"/>
+      <c r="AI947" s="17"/>
     </row>
     <row r="948" ht="19.5" customHeight="1">
       <c r="A948" s="17"/>
@@ -34752,6 +35704,7 @@
       <c r="AF948" s="17"/>
       <c r="AG948" s="17"/>
       <c r="AH948" s="17"/>
+      <c r="AI948" s="17"/>
     </row>
     <row r="949" ht="19.5" customHeight="1">
       <c r="A949" s="17"/>
@@ -34788,6 +35741,7 @@
       <c r="AF949" s="17"/>
       <c r="AG949" s="17"/>
       <c r="AH949" s="17"/>
+      <c r="AI949" s="17"/>
     </row>
     <row r="950" ht="19.5" customHeight="1">
       <c r="A950" s="17"/>
@@ -34824,6 +35778,7 @@
       <c r="AF950" s="17"/>
       <c r="AG950" s="17"/>
       <c r="AH950" s="17"/>
+      <c r="AI950" s="17"/>
     </row>
     <row r="951" ht="19.5" customHeight="1">
       <c r="A951" s="17"/>
@@ -34860,6 +35815,7 @@
       <c r="AF951" s="17"/>
       <c r="AG951" s="17"/>
       <c r="AH951" s="17"/>
+      <c r="AI951" s="17"/>
     </row>
     <row r="952" ht="19.5" customHeight="1">
       <c r="A952" s="17"/>
@@ -34896,6 +35852,7 @@
       <c r="AF952" s="17"/>
       <c r="AG952" s="17"/>
       <c r="AH952" s="17"/>
+      <c r="AI952" s="17"/>
     </row>
     <row r="953" ht="19.5" customHeight="1">
       <c r="A953" s="17"/>
@@ -34932,6 +35889,7 @@
       <c r="AF953" s="17"/>
       <c r="AG953" s="17"/>
       <c r="AH953" s="17"/>
+      <c r="AI953" s="17"/>
     </row>
     <row r="954" ht="19.5" customHeight="1">
       <c r="A954" s="17"/>
@@ -34968,6 +35926,7 @@
       <c r="AF954" s="17"/>
       <c r="AG954" s="17"/>
       <c r="AH954" s="17"/>
+      <c r="AI954" s="17"/>
     </row>
     <row r="955" ht="19.5" customHeight="1">
       <c r="A955" s="17"/>
@@ -35004,6 +35963,7 @@
       <c r="AF955" s="17"/>
       <c r="AG955" s="17"/>
       <c r="AH955" s="17"/>
+      <c r="AI955" s="17"/>
     </row>
     <row r="956" ht="19.5" customHeight="1">
       <c r="A956" s="17"/>
@@ -35040,6 +36000,7 @@
       <c r="AF956" s="17"/>
       <c r="AG956" s="17"/>
       <c r="AH956" s="17"/>
+      <c r="AI956" s="17"/>
     </row>
     <row r="957" ht="19.5" customHeight="1">
       <c r="A957" s="17"/>
@@ -35076,6 +36037,7 @@
       <c r="AF957" s="17"/>
       <c r="AG957" s="17"/>
       <c r="AH957" s="17"/>
+      <c r="AI957" s="17"/>
     </row>
     <row r="958" ht="19.5" customHeight="1">
       <c r="A958" s="17"/>
@@ -35112,6 +36074,7 @@
       <c r="AF958" s="17"/>
       <c r="AG958" s="17"/>
       <c r="AH958" s="17"/>
+      <c r="AI958" s="17"/>
     </row>
     <row r="959" ht="19.5" customHeight="1">
       <c r="A959" s="17"/>
@@ -35148,6 +36111,7 @@
       <c r="AF959" s="17"/>
       <c r="AG959" s="17"/>
       <c r="AH959" s="17"/>
+      <c r="AI959" s="17"/>
     </row>
     <row r="960" ht="19.5" customHeight="1">
       <c r="A960" s="17"/>
@@ -35184,6 +36148,7 @@
       <c r="AF960" s="17"/>
       <c r="AG960" s="17"/>
       <c r="AH960" s="17"/>
+      <c r="AI960" s="17"/>
     </row>
     <row r="961" ht="19.5" customHeight="1">
       <c r="A961" s="17"/>
@@ -35220,6 +36185,7 @@
       <c r="AF961" s="17"/>
       <c r="AG961" s="17"/>
       <c r="AH961" s="17"/>
+      <c r="AI961" s="17"/>
     </row>
     <row r="962" ht="19.5" customHeight="1">
       <c r="A962" s="17"/>
@@ -35256,6 +36222,7 @@
       <c r="AF962" s="17"/>
       <c r="AG962" s="17"/>
       <c r="AH962" s="17"/>
+      <c r="AI962" s="17"/>
     </row>
     <row r="963" ht="19.5" customHeight="1">
       <c r="A963" s="17"/>
@@ -35292,6 +36259,7 @@
       <c r="AF963" s="17"/>
       <c r="AG963" s="17"/>
       <c r="AH963" s="17"/>
+      <c r="AI963" s="17"/>
     </row>
     <row r="964" ht="19.5" customHeight="1">
       <c r="A964" s="17"/>
@@ -35328,6 +36296,7 @@
       <c r="AF964" s="17"/>
       <c r="AG964" s="17"/>
       <c r="AH964" s="17"/>
+      <c r="AI964" s="17"/>
     </row>
     <row r="965" ht="19.5" customHeight="1">
       <c r="A965" s="17"/>
@@ -35364,6 +36333,7 @@
       <c r="AF965" s="17"/>
       <c r="AG965" s="17"/>
       <c r="AH965" s="17"/>
+      <c r="AI965" s="17"/>
     </row>
     <row r="966" ht="19.5" customHeight="1">
       <c r="A966" s="17"/>
@@ -35400,6 +36370,7 @@
       <c r="AF966" s="17"/>
       <c r="AG966" s="17"/>
       <c r="AH966" s="17"/>
+      <c r="AI966" s="17"/>
     </row>
     <row r="967" ht="19.5" customHeight="1">
       <c r="A967" s="17"/>
@@ -35436,6 +36407,7 @@
       <c r="AF967" s="17"/>
       <c r="AG967" s="17"/>
       <c r="AH967" s="17"/>
+      <c r="AI967" s="17"/>
     </row>
     <row r="968" ht="19.5" customHeight="1">
       <c r="A968" s="17"/>
@@ -35472,6 +36444,7 @@
       <c r="AF968" s="17"/>
       <c r="AG968" s="17"/>
       <c r="AH968" s="17"/>
+      <c r="AI968" s="17"/>
     </row>
     <row r="969" ht="19.5" customHeight="1">
       <c r="A969" s="17"/>
@@ -35508,6 +36481,7 @@
       <c r="AF969" s="17"/>
       <c r="AG969" s="17"/>
       <c r="AH969" s="17"/>
+      <c r="AI969" s="17"/>
     </row>
     <row r="970" ht="19.5" customHeight="1">
       <c r="A970" s="17"/>
@@ -35544,6 +36518,7 @@
       <c r="AF970" s="17"/>
       <c r="AG970" s="17"/>
       <c r="AH970" s="17"/>
+      <c r="AI970" s="17"/>
     </row>
     <row r="971" ht="19.5" customHeight="1">
       <c r="A971" s="17"/>
@@ -35580,6 +36555,7 @@
       <c r="AF971" s="17"/>
       <c r="AG971" s="17"/>
       <c r="AH971" s="17"/>
+      <c r="AI971" s="17"/>
     </row>
     <row r="972" ht="19.5" customHeight="1">
       <c r="A972" s="17"/>
@@ -35616,6 +36592,7 @@
       <c r="AF972" s="17"/>
       <c r="AG972" s="17"/>
       <c r="AH972" s="17"/>
+      <c r="AI972" s="17"/>
     </row>
     <row r="973" ht="19.5" customHeight="1">
       <c r="A973" s="17"/>
@@ -35652,6 +36629,7 @@
       <c r="AF973" s="17"/>
       <c r="AG973" s="17"/>
       <c r="AH973" s="17"/>
+      <c r="AI973" s="17"/>
     </row>
     <row r="974" ht="19.5" customHeight="1">
       <c r="A974" s="17"/>
@@ -35688,6 +36666,7 @@
       <c r="AF974" s="17"/>
       <c r="AG974" s="17"/>
       <c r="AH974" s="17"/>
+      <c r="AI974" s="17"/>
     </row>
     <row r="975" ht="19.5" customHeight="1">
       <c r="A975" s="17"/>
@@ -35724,6 +36703,7 @@
       <c r="AF975" s="17"/>
       <c r="AG975" s="17"/>
       <c r="AH975" s="17"/>
+      <c r="AI975" s="17"/>
     </row>
     <row r="976" ht="19.5" customHeight="1">
       <c r="A976" s="17"/>
@@ -35760,6 +36740,7 @@
       <c r="AF976" s="17"/>
       <c r="AG976" s="17"/>
       <c r="AH976" s="17"/>
+      <c r="AI976" s="17"/>
     </row>
     <row r="977" ht="19.5" customHeight="1">
       <c r="A977" s="17"/>
@@ -35796,6 +36777,7 @@
       <c r="AF977" s="17"/>
       <c r="AG977" s="17"/>
       <c r="AH977" s="17"/>
+      <c r="AI977" s="17"/>
     </row>
     <row r="978" ht="19.5" customHeight="1">
       <c r="A978" s="17"/>
@@ -35832,6 +36814,7 @@
       <c r="AF978" s="17"/>
       <c r="AG978" s="17"/>
       <c r="AH978" s="17"/>
+      <c r="AI978" s="17"/>
     </row>
     <row r="979" ht="19.5" customHeight="1">
       <c r="A979" s="17"/>
@@ -35868,6 +36851,7 @@
       <c r="AF979" s="17"/>
       <c r="AG979" s="17"/>
       <c r="AH979" s="17"/>
+      <c r="AI979" s="17"/>
     </row>
     <row r="980" ht="19.5" customHeight="1">
       <c r="A980" s="17"/>
@@ -35904,6 +36888,7 @@
       <c r="AF980" s="17"/>
       <c r="AG980" s="17"/>
       <c r="AH980" s="17"/>
+      <c r="AI980" s="17"/>
     </row>
     <row r="981" ht="19.5" customHeight="1">
       <c r="A981" s="17"/>
@@ -35940,6 +36925,7 @@
       <c r="AF981" s="17"/>
       <c r="AG981" s="17"/>
       <c r="AH981" s="17"/>
+      <c r="AI981" s="17"/>
     </row>
     <row r="982" ht="19.5" customHeight="1">
       <c r="A982" s="17"/>
@@ -35976,6 +36962,7 @@
       <c r="AF982" s="17"/>
       <c r="AG982" s="17"/>
       <c r="AH982" s="17"/>
+      <c r="AI982" s="17"/>
     </row>
     <row r="983" ht="19.5" customHeight="1">
       <c r="A983" s="17"/>
@@ -36012,6 +36999,7 @@
       <c r="AF983" s="17"/>
       <c r="AG983" s="17"/>
       <c r="AH983" s="17"/>
+      <c r="AI983" s="17"/>
     </row>
     <row r="984" ht="19.5" customHeight="1">
       <c r="A984" s="17"/>
@@ -36048,6 +37036,7 @@
       <c r="AF984" s="17"/>
       <c r="AG984" s="17"/>
       <c r="AH984" s="17"/>
+      <c r="AI984" s="17"/>
     </row>
     <row r="985" ht="19.5" customHeight="1">
       <c r="A985" s="17"/>
@@ -36084,6 +37073,7 @@
       <c r="AF985" s="17"/>
       <c r="AG985" s="17"/>
       <c r="AH985" s="17"/>
+      <c r="AI985" s="17"/>
     </row>
     <row r="986" ht="19.5" customHeight="1">
       <c r="A986" s="17"/>
@@ -36120,6 +37110,7 @@
       <c r="AF986" s="17"/>
       <c r="AG986" s="17"/>
       <c r="AH986" s="17"/>
+      <c r="AI986" s="17"/>
     </row>
     <row r="987" ht="19.5" customHeight="1">
       <c r="A987" s="17"/>
@@ -36156,6 +37147,7 @@
       <c r="AF987" s="17"/>
       <c r="AG987" s="17"/>
       <c r="AH987" s="17"/>
+      <c r="AI987" s="17"/>
     </row>
     <row r="988" ht="19.5" customHeight="1">
       <c r="A988" s="17"/>
@@ -36192,6 +37184,7 @@
       <c r="AF988" s="17"/>
       <c r="AG988" s="17"/>
       <c r="AH988" s="17"/>
+      <c r="AI988" s="17"/>
     </row>
     <row r="989" ht="19.5" customHeight="1">
       <c r="A989" s="17"/>
@@ -36228,6 +37221,7 @@
       <c r="AF989" s="17"/>
       <c r="AG989" s="17"/>
       <c r="AH989" s="17"/>
+      <c r="AI989" s="17"/>
     </row>
     <row r="990" ht="19.5" customHeight="1">
       <c r="A990" s="17"/>
@@ -36264,6 +37258,7 @@
       <c r="AF990" s="17"/>
       <c r="AG990" s="17"/>
       <c r="AH990" s="17"/>
+      <c r="AI990" s="17"/>
     </row>
     <row r="991" ht="19.5" customHeight="1">
       <c r="A991" s="17"/>
@@ -36300,6 +37295,7 @@
       <c r="AF991" s="17"/>
       <c r="AG991" s="17"/>
       <c r="AH991" s="17"/>
+      <c r="AI991" s="17"/>
     </row>
     <row r="992" ht="19.5" customHeight="1">
       <c r="A992" s="17"/>
@@ -36336,6 +37332,7 @@
       <c r="AF992" s="17"/>
       <c r="AG992" s="17"/>
       <c r="AH992" s="17"/>
+      <c r="AI992" s="17"/>
     </row>
     <row r="993" ht="19.5" customHeight="1">
       <c r="A993" s="17"/>
@@ -36372,6 +37369,7 @@
       <c r="AF993" s="17"/>
       <c r="AG993" s="17"/>
       <c r="AH993" s="17"/>
+      <c r="AI993" s="17"/>
     </row>
     <row r="994" ht="19.5" customHeight="1">
       <c r="A994" s="17"/>
@@ -36408,6 +37406,7 @@
       <c r="AF994" s="17"/>
       <c r="AG994" s="17"/>
       <c r="AH994" s="17"/>
+      <c r="AI994" s="17"/>
     </row>
     <row r="995" ht="19.5" customHeight="1">
       <c r="A995" s="17"/>
@@ -36444,6 +37443,7 @@
       <c r="AF995" s="17"/>
       <c r="AG995" s="17"/>
       <c r="AH995" s="17"/>
+      <c r="AI995" s="17"/>
     </row>
     <row r="996" ht="19.5" customHeight="1">
       <c r="A996" s="17"/>
@@ -36480,6 +37480,7 @@
       <c r="AF996" s="17"/>
       <c r="AG996" s="17"/>
       <c r="AH996" s="17"/>
+      <c r="AI996" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
